--- a/Assessments by year and neighborhood.xlsx
+++ b/Assessments by year and neighborhood.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMTUT\Desktop\Data_Analytics\Team_Project_AACJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{6662D835-C2BF-402C-BA44-E775D2E4B1A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F07A101A-75F3-4D45-ADDE-F23B866EF975}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments_by_Year_and_Neighbo" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assessments_by_Year_and_Neighbo!$A$1:$G$962</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -323,10 +323,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -823,10 +823,10 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -883,7 +883,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="5">
     <dxf>
       <border>
         <left style="thin">
@@ -973,25 +973,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2221,7 +2203,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Tuttle, Cameron" refreshedDate="43473.871737037036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="961">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tuttle, Cameron" refreshedDate="43473.871737037036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="961" xr:uid="{00000000-000A-0000-FFFF-FFFF15000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G962" sheet="Assessments_by_Year_and_Neighbo"/>
   </cacheSource>
@@ -2346,7 +2328,7 @@
     <cacheField name="Assessed Personal Property Value" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="149037752"/>
     </cacheField>
-    <cacheField name="Total Assessed Value" numFmtId="165">
+    <cacheField name="Total Assessed Value" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="17388453566"/>
     </cacheField>
   </cacheFields>
@@ -11013,7 +10995,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -11126,11 +11108,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -11185,10 +11167,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Assessed Value" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Total Assessed Value" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="3">
@@ -11570,7 +11552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13188,7 +13170,7 @@
         <v>4993</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G130" si="1">SUM(C67:F67)</f>
+        <f t="shared" ref="G67:G98" si="1">SUM(C67:F67)</f>
         <v>321258642</v>
       </c>
     </row>
@@ -13956,7 +13938,7 @@
         <v>63513259</v>
       </c>
       <c r="G99" s="2">
-        <f>SUM(C99:F99)</f>
+        <f t="shared" ref="G99:G162" si="2">SUM(C99:F99)</f>
         <v>10594487947</v>
       </c>
     </row>
@@ -13980,7 +13962,7 @@
         <v>109143</v>
       </c>
       <c r="G100" s="2">
-        <f>SUM(C100:F100)</f>
+        <f t="shared" si="2"/>
         <v>664489778</v>
       </c>
     </row>
@@ -14004,7 +13986,7 @@
         <v>223632</v>
       </c>
       <c r="G101" s="2">
-        <f>SUM(C101:F101)</f>
+        <f t="shared" si="2"/>
         <v>833432248</v>
       </c>
     </row>
@@ -14028,7 +14010,7 @@
         <v>8247</v>
       </c>
       <c r="G102" s="2">
-        <f>SUM(C102:F102)</f>
+        <f t="shared" si="2"/>
         <v>298540225</v>
       </c>
     </row>
@@ -14052,7 +14034,7 @@
         <v>1496449</v>
       </c>
       <c r="G103" s="2">
-        <f>SUM(C103:F103)</f>
+        <f t="shared" si="2"/>
         <v>554695958</v>
       </c>
     </row>
@@ -14076,7 +14058,7 @@
         <v>1583060</v>
       </c>
       <c r="G104" s="2">
-        <f>SUM(C104:F104)</f>
+        <f t="shared" si="2"/>
         <v>595490816</v>
       </c>
     </row>
@@ -14100,7 +14082,7 @@
         <v>251672</v>
       </c>
       <c r="G105" s="2">
-        <f>SUM(C105:F105)</f>
+        <f t="shared" si="2"/>
         <v>407823081</v>
       </c>
     </row>
@@ -14124,7 +14106,7 @@
         <v>1236376</v>
       </c>
       <c r="G106" s="2">
-        <f>SUM(C106:F106)</f>
+        <f t="shared" si="2"/>
         <v>3349943093</v>
       </c>
     </row>
@@ -14148,7 +14130,7 @@
         <v>5104</v>
       </c>
       <c r="G107" s="2">
-        <f>SUM(C107:F107)</f>
+        <f t="shared" si="2"/>
         <v>358322733</v>
       </c>
     </row>
@@ -14172,7 +14154,7 @@
         <v>28607378</v>
       </c>
       <c r="G108" s="2">
-        <f>SUM(C108:F108)</f>
+        <f t="shared" si="2"/>
         <v>11569274203</v>
       </c>
     </row>
@@ -14196,7 +14178,7 @@
         <v>216065</v>
       </c>
       <c r="G109" s="2">
-        <f>SUM(C109:F109)</f>
+        <f t="shared" si="2"/>
         <v>737412193</v>
       </c>
     </row>
@@ -14220,7 +14202,7 @@
         <v>33769023</v>
       </c>
       <c r="G110" s="2">
-        <f>SUM(C110:F110)</f>
+        <f t="shared" si="2"/>
         <v>3188974696</v>
       </c>
     </row>
@@ -14244,7 +14226,7 @@
         <v>151492</v>
       </c>
       <c r="G111" s="2">
-        <f>SUM(C111:F111)</f>
+        <f t="shared" si="2"/>
         <v>787844768</v>
       </c>
     </row>
@@ -14268,7 +14250,7 @@
         <v>2104394</v>
       </c>
       <c r="G112" s="2">
-        <f>SUM(C112:F112)</f>
+        <f t="shared" si="2"/>
         <v>741166797</v>
       </c>
     </row>
@@ -14292,7 +14274,7 @@
         <v>1234545</v>
       </c>
       <c r="G113" s="2">
-        <f>SUM(C113:F113)</f>
+        <f t="shared" si="2"/>
         <v>1863707074</v>
       </c>
     </row>
@@ -14316,7 +14298,7 @@
         <v>30755739</v>
       </c>
       <c r="G114" s="2">
-        <f>SUM(C114:F114)</f>
+        <f t="shared" si="2"/>
         <v>411097826</v>
       </c>
     </row>
@@ -14340,7 +14322,7 @@
         <v>1016543</v>
       </c>
       <c r="G115" s="2">
-        <f>SUM(C115:F115)</f>
+        <f t="shared" si="2"/>
         <v>4202783875</v>
       </c>
     </row>
@@ -14364,7 +14346,7 @@
         <v>1468980</v>
       </c>
       <c r="G116" s="2">
-        <f>SUM(C116:F116)</f>
+        <f t="shared" si="2"/>
         <v>684934901</v>
       </c>
     </row>
@@ -14388,7 +14370,7 @@
         <v>42404828</v>
       </c>
       <c r="G117" s="2">
-        <f>SUM(C117:F117)</f>
+        <f t="shared" si="2"/>
         <v>13616500272</v>
       </c>
     </row>
@@ -14412,7 +14394,7 @@
         <v>179259</v>
       </c>
       <c r="G118" s="2">
-        <f>SUM(C118:F118)</f>
+        <f t="shared" si="2"/>
         <v>1741836426</v>
       </c>
     </row>
@@ -14436,7 +14418,7 @@
         <v>3539</v>
       </c>
       <c r="G119" s="2">
-        <f>SUM(C119:F119)</f>
+        <f t="shared" si="2"/>
         <v>198322523</v>
       </c>
     </row>
@@ -14460,7 +14442,7 @@
         <v>256472</v>
       </c>
       <c r="G120" s="2">
-        <f>SUM(C120:F120)</f>
+        <f t="shared" si="2"/>
         <v>430716223</v>
       </c>
     </row>
@@ -14481,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="2">
-        <f>SUM(C121:F121)</f>
+        <f t="shared" si="2"/>
         <v>71991228</v>
       </c>
     </row>
@@ -14505,7 +14487,7 @@
         <v>621405</v>
       </c>
       <c r="G122" s="2">
-        <f>SUM(C122:F122)</f>
+        <f t="shared" si="2"/>
         <v>1660706190</v>
       </c>
     </row>
@@ -14529,7 +14511,7 @@
         <v>17653</v>
       </c>
       <c r="G123" s="2">
-        <f>SUM(C123:F123)</f>
+        <f t="shared" si="2"/>
         <v>713762174</v>
       </c>
     </row>
@@ -14553,7 +14535,7 @@
         <v>101241</v>
       </c>
       <c r="G124" s="2">
-        <f>SUM(C124:F124)</f>
+        <f t="shared" si="2"/>
         <v>728491006</v>
       </c>
     </row>
@@ -14577,7 +14559,7 @@
         <v>2398</v>
       </c>
       <c r="G125" s="2">
-        <f>SUM(C125:F125)</f>
+        <f t="shared" si="2"/>
         <v>313499971</v>
       </c>
     </row>
@@ -14601,7 +14583,7 @@
         <v>7420586</v>
       </c>
       <c r="G126" s="2">
-        <f>SUM(C126:F126)</f>
+        <f t="shared" si="2"/>
         <v>9695730449</v>
       </c>
     </row>
@@ -14625,7 +14607,7 @@
         <v>21514657</v>
       </c>
       <c r="G127" s="2">
-        <f>SUM(C127:F127)</f>
+        <f t="shared" si="2"/>
         <v>2385200591</v>
       </c>
     </row>
@@ -14649,7 +14631,7 @@
         <v>106185070</v>
       </c>
       <c r="G128" s="2">
-        <f>SUM(C128:F128)</f>
+        <f t="shared" si="2"/>
         <v>5012482455</v>
       </c>
     </row>
@@ -14673,7 +14655,7 @@
         <v>3290</v>
       </c>
       <c r="G129" s="2">
-        <f>SUM(C129:F129)</f>
+        <f t="shared" si="2"/>
         <v>499930720</v>
       </c>
     </row>
@@ -14697,7 +14679,7 @@
         <v>20886</v>
       </c>
       <c r="G130" s="2">
-        <f>SUM(C130:F130)</f>
+        <f t="shared" si="2"/>
         <v>517153365</v>
       </c>
     </row>
@@ -14721,7 +14703,7 @@
         <v>109688</v>
       </c>
       <c r="G131" s="2">
-        <f>SUM(C131:F131)</f>
+        <f t="shared" si="2"/>
         <v>899466697</v>
       </c>
     </row>
@@ -14745,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <f>SUM(C132:F132)</f>
+        <f t="shared" si="2"/>
         <v>247430522</v>
       </c>
     </row>
@@ -14769,7 +14751,7 @@
         <v>9897</v>
       </c>
       <c r="G133" s="2">
-        <f>SUM(C133:F133)</f>
+        <f t="shared" si="2"/>
         <v>215420246</v>
       </c>
     </row>
@@ -14793,7 +14775,7 @@
         <v>653932</v>
       </c>
       <c r="G134" s="2">
-        <f>SUM(C134:F134)</f>
+        <f t="shared" si="2"/>
         <v>402579012</v>
       </c>
     </row>
@@ -14817,7 +14799,7 @@
         <v>75783</v>
       </c>
       <c r="G135" s="2">
-        <f>SUM(C135:F135)</f>
+        <f t="shared" si="2"/>
         <v>599951464</v>
       </c>
     </row>
@@ -14841,7 +14823,7 @@
         <v>69428</v>
       </c>
       <c r="G136" s="2">
-        <f>SUM(C136:F136)</f>
+        <f t="shared" si="2"/>
         <v>477180065</v>
       </c>
     </row>
@@ -14865,7 +14847,7 @@
         <v>1676200</v>
       </c>
       <c r="G137" s="2">
-        <f>SUM(C137:F137)</f>
+        <f t="shared" si="2"/>
         <v>766148733</v>
       </c>
     </row>
@@ -14889,7 +14871,7 @@
         <v>209146</v>
       </c>
       <c r="G138" s="2">
-        <f>SUM(C138:F138)</f>
+        <f t="shared" si="2"/>
         <v>900709584</v>
       </c>
     </row>
@@ -14913,7 +14895,7 @@
         <v>2264528</v>
       </c>
       <c r="G139" s="2">
-        <f>SUM(C139:F139)</f>
+        <f t="shared" si="2"/>
         <v>1497294181</v>
       </c>
     </row>
@@ -14937,7 +14919,7 @@
         <v>732220</v>
       </c>
       <c r="G140" s="2">
-        <f>SUM(C140:F140)</f>
+        <f t="shared" si="2"/>
         <v>2731977643</v>
       </c>
     </row>
@@ -14961,7 +14943,7 @@
         <v>3469562</v>
       </c>
       <c r="G141" s="2">
-        <f>SUM(C141:F141)</f>
+        <f t="shared" si="2"/>
         <v>2330170541</v>
       </c>
     </row>
@@ -14985,7 +14967,7 @@
         <v>1796430</v>
       </c>
       <c r="G142" s="2">
-        <f>SUM(C142:F142)</f>
+        <f t="shared" si="2"/>
         <v>834735882</v>
       </c>
     </row>
@@ -15009,7 +14991,7 @@
         <v>1989027</v>
       </c>
       <c r="G143" s="2">
-        <f>SUM(C143:F143)</f>
+        <f t="shared" si="2"/>
         <v>3295558905</v>
       </c>
     </row>
@@ -15033,7 +15015,7 @@
         <v>363645</v>
       </c>
       <c r="G144" s="2">
-        <f>SUM(C144:F144)</f>
+        <f t="shared" si="2"/>
         <v>3018879749</v>
       </c>
     </row>
@@ -15057,7 +15039,7 @@
         <v>232333</v>
       </c>
       <c r="G145" s="2">
-        <f>SUM(C145:F145)</f>
+        <f t="shared" si="2"/>
         <v>818557718</v>
       </c>
     </row>
@@ -15081,7 +15063,7 @@
         <v>2622</v>
       </c>
       <c r="G146" s="2">
-        <f>SUM(C146:F146)</f>
+        <f t="shared" si="2"/>
         <v>279485707</v>
       </c>
     </row>
@@ -15105,7 +15087,7 @@
         <v>2649284</v>
       </c>
       <c r="G147" s="2">
-        <f>SUM(C147:F147)</f>
+        <f t="shared" si="2"/>
         <v>699135150</v>
       </c>
     </row>
@@ -15129,7 +15111,7 @@
         <v>54893</v>
       </c>
       <c r="G148" s="2">
-        <f>SUM(C148:F148)</f>
+        <f t="shared" si="2"/>
         <v>499623381</v>
       </c>
     </row>
@@ -15153,7 +15135,7 @@
         <v>1827762</v>
       </c>
       <c r="G149" s="2">
-        <f>SUM(C149:F149)</f>
+        <f t="shared" si="2"/>
         <v>1328362392</v>
       </c>
     </row>
@@ -15177,7 +15159,7 @@
         <v>164446</v>
       </c>
       <c r="G150" s="2">
-        <f>SUM(C150:F150)</f>
+        <f t="shared" si="2"/>
         <v>845303616</v>
       </c>
     </row>
@@ -15201,7 +15183,7 @@
         <v>26404</v>
       </c>
       <c r="G151" s="2">
-        <f>SUM(C151:F151)</f>
+        <f t="shared" si="2"/>
         <v>601196876</v>
       </c>
     </row>
@@ -15225,7 +15207,7 @@
         <v>466237</v>
       </c>
       <c r="G152" s="2">
-        <f>SUM(C152:F152)</f>
+        <f t="shared" si="2"/>
         <v>2122503176</v>
       </c>
     </row>
@@ -15249,7 +15231,7 @@
         <v>173513</v>
       </c>
       <c r="G153" s="2">
-        <f>SUM(C153:F153)</f>
+        <f t="shared" si="2"/>
         <v>733046721</v>
       </c>
     </row>
@@ -15273,7 +15255,7 @@
         <v>65123</v>
       </c>
       <c r="G154" s="2">
-        <f>SUM(C154:F154)</f>
+        <f t="shared" si="2"/>
         <v>557730881</v>
       </c>
     </row>
@@ -15297,7 +15279,7 @@
         <v>9814</v>
       </c>
       <c r="G155" s="2">
-        <f>SUM(C155:F155)</f>
+        <f t="shared" si="2"/>
         <v>228410429</v>
       </c>
     </row>
@@ -15321,7 +15303,7 @@
         <v>175395</v>
       </c>
       <c r="G156" s="2">
-        <f>SUM(C156:F156)</f>
+        <f t="shared" si="2"/>
         <v>1064468254</v>
       </c>
     </row>
@@ -15345,7 +15327,7 @@
         <v>2490338</v>
       </c>
       <c r="G157" s="2">
-        <f>SUM(C157:F157)</f>
+        <f t="shared" si="2"/>
         <v>2898737017</v>
       </c>
     </row>
@@ -15369,7 +15351,7 @@
         <v>441223</v>
       </c>
       <c r="G158" s="2">
-        <f>SUM(C158:F158)</f>
+        <f t="shared" si="2"/>
         <v>661680485</v>
       </c>
     </row>
@@ -15393,7 +15375,7 @@
         <v>19578</v>
       </c>
       <c r="G159" s="2">
-        <f>SUM(C159:F159)</f>
+        <f t="shared" si="2"/>
         <v>649559546</v>
       </c>
     </row>
@@ -15417,7 +15399,7 @@
         <v>57348832</v>
       </c>
       <c r="G160" s="2">
-        <f>SUM(C160:F160)</f>
+        <f t="shared" si="2"/>
         <v>8529072050</v>
       </c>
     </row>
@@ -15441,7 +15423,7 @@
         <v>37502822</v>
       </c>
       <c r="G161" s="2">
-        <f>SUM(C161:F161)</f>
+        <f t="shared" si="2"/>
         <v>6701607728</v>
       </c>
     </row>
@@ -15465,7 +15447,7 @@
         <v>1104253</v>
       </c>
       <c r="G162" s="2">
-        <f>SUM(C162:F162)</f>
+        <f t="shared" si="2"/>
         <v>4001089239</v>
       </c>
     </row>
@@ -15489,7 +15471,7 @@
         <v>1110057</v>
       </c>
       <c r="G163" s="2">
-        <f>SUM(C163:F163)</f>
+        <f t="shared" ref="G163:G226" si="3">SUM(C163:F163)</f>
         <v>2675970530</v>
       </c>
     </row>
@@ -15513,7 +15495,7 @@
         <v>39359375</v>
       </c>
       <c r="G164" s="2">
-        <f>SUM(C164:F164)</f>
+        <f t="shared" si="3"/>
         <v>12721169548</v>
       </c>
     </row>
@@ -15537,7 +15519,7 @@
         <v>486120</v>
       </c>
       <c r="G165" s="2">
-        <f>SUM(C165:F165)</f>
+        <f t="shared" si="3"/>
         <v>731693487</v>
       </c>
     </row>
@@ -15561,7 +15543,7 @@
         <v>366848</v>
       </c>
       <c r="G166" s="2">
-        <f>SUM(C166:F166)</f>
+        <f t="shared" si="3"/>
         <v>846427782</v>
       </c>
     </row>
@@ -15585,7 +15567,7 @@
         <v>100</v>
       </c>
       <c r="G167" s="2">
-        <f>SUM(C167:F167)</f>
+        <f t="shared" si="3"/>
         <v>252373834</v>
       </c>
     </row>
@@ -15609,7 +15591,7 @@
         <v>929947</v>
       </c>
       <c r="G168" s="2">
-        <f>SUM(C168:F168)</f>
+        <f t="shared" si="3"/>
         <v>2152021775</v>
       </c>
     </row>
@@ -15633,7 +15615,7 @@
         <v>237310</v>
       </c>
       <c r="G169" s="2">
-        <f>SUM(C169:F169)</f>
+        <f t="shared" si="3"/>
         <v>856417424</v>
       </c>
     </row>
@@ -15657,7 +15639,7 @@
         <v>929654</v>
       </c>
       <c r="G170" s="2">
-        <f>SUM(C170:F170)</f>
+        <f t="shared" si="3"/>
         <v>1220069229</v>
       </c>
     </row>
@@ -15681,7 +15663,7 @@
         <v>131465</v>
       </c>
       <c r="G171" s="2">
-        <f>SUM(C171:F171)</f>
+        <f t="shared" si="3"/>
         <v>1206331123</v>
       </c>
     </row>
@@ -15705,7 +15687,7 @@
         <v>3688241</v>
       </c>
       <c r="G172" s="2">
-        <f>SUM(C172:F172)</f>
+        <f t="shared" si="3"/>
         <v>2212769013</v>
       </c>
     </row>
@@ -15729,7 +15711,7 @@
         <v>26592765</v>
       </c>
       <c r="G173" s="2">
-        <f>SUM(C173:F173)</f>
+        <f t="shared" si="3"/>
         <v>1597109425</v>
       </c>
     </row>
@@ -15753,7 +15735,7 @@
         <v>111294927</v>
       </c>
       <c r="G174" s="2">
-        <f>SUM(C174:F174)</f>
+        <f t="shared" si="3"/>
         <v>6736728647</v>
       </c>
     </row>
@@ -15777,7 +15759,7 @@
         <v>845536</v>
       </c>
       <c r="G175" s="2">
-        <f>SUM(C175:F175)</f>
+        <f t="shared" si="3"/>
         <v>1235704026</v>
       </c>
     </row>
@@ -15801,7 +15783,7 @@
         <v>401010</v>
       </c>
       <c r="G176" s="2">
-        <f>SUM(C176:F176)</f>
+        <f t="shared" si="3"/>
         <v>1525791352</v>
       </c>
     </row>
@@ -15825,7 +15807,7 @@
         <v>8125715</v>
       </c>
       <c r="G177" s="2">
-        <f>SUM(C177:F177)</f>
+        <f t="shared" si="3"/>
         <v>3568100099</v>
       </c>
     </row>
@@ -15849,7 +15831,7 @@
         <v>96006</v>
       </c>
       <c r="G178" s="2">
-        <f>SUM(C178:F178)</f>
+        <f t="shared" si="3"/>
         <v>1562623713</v>
       </c>
     </row>
@@ -15873,7 +15855,7 @@
         <v>255921</v>
       </c>
       <c r="G179" s="2">
-        <f>SUM(C179:F179)</f>
+        <f t="shared" si="3"/>
         <v>1686208470</v>
       </c>
     </row>
@@ -15897,7 +15879,7 @@
         <v>51973455</v>
       </c>
       <c r="G180" s="2">
-        <f>SUM(C180:F180)</f>
+        <f t="shared" si="3"/>
         <v>1045317670</v>
       </c>
     </row>
@@ -15921,7 +15903,7 @@
         <v>98593</v>
       </c>
       <c r="G181" s="2">
-        <f>SUM(C181:F181)</f>
+        <f t="shared" si="3"/>
         <v>396724128</v>
       </c>
     </row>
@@ -15945,7 +15927,7 @@
         <v>21034</v>
       </c>
       <c r="G182" s="2">
-        <f>SUM(C182:F182)</f>
+        <f t="shared" si="3"/>
         <v>435798015</v>
       </c>
     </row>
@@ -15969,7 +15951,7 @@
         <v>272573</v>
       </c>
       <c r="G183" s="2">
-        <f>SUM(C183:F183)</f>
+        <f t="shared" si="3"/>
         <v>631494113</v>
       </c>
     </row>
@@ -15993,7 +15975,7 @@
         <v>11901</v>
       </c>
       <c r="G184" s="2">
-        <f>SUM(C184:F184)</f>
+        <f t="shared" si="3"/>
         <v>562505376</v>
       </c>
     </row>
@@ -16017,7 +15999,7 @@
         <v>145602</v>
       </c>
       <c r="G185" s="2">
-        <f>SUM(C185:F185)</f>
+        <f t="shared" si="3"/>
         <v>454604900</v>
       </c>
     </row>
@@ -16041,7 +16023,7 @@
         <v>2416473</v>
       </c>
       <c r="G186" s="2">
-        <f>SUM(C186:F186)</f>
+        <f t="shared" si="3"/>
         <v>1521008419</v>
       </c>
     </row>
@@ -16065,7 +16047,7 @@
         <v>520181</v>
       </c>
       <c r="G187" s="2">
-        <f>SUM(C187:F187)</f>
+        <f t="shared" si="3"/>
         <v>681937082</v>
       </c>
     </row>
@@ -16089,7 +16071,7 @@
         <v>4725</v>
       </c>
       <c r="G188" s="2">
-        <f>SUM(C188:F188)</f>
+        <f t="shared" si="3"/>
         <v>289049565</v>
       </c>
     </row>
@@ -16110,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="2">
-        <f>SUM(C189:F189)</f>
+        <f t="shared" si="3"/>
         <v>5210818</v>
       </c>
     </row>
@@ -16134,7 +16116,7 @@
         <v>89558</v>
       </c>
       <c r="G190" s="2">
-        <f>SUM(C190:F190)</f>
+        <f t="shared" si="3"/>
         <v>708516708</v>
       </c>
     </row>
@@ -16158,7 +16140,7 @@
         <v>13923</v>
       </c>
       <c r="G191" s="2">
-        <f>SUM(C191:F191)</f>
+        <f t="shared" si="3"/>
         <v>403518231</v>
       </c>
     </row>
@@ -16182,7 +16164,7 @@
         <v>42026232</v>
       </c>
       <c r="G192" s="2">
-        <f>SUM(C192:F192)</f>
+        <f t="shared" si="3"/>
         <v>12998334400</v>
       </c>
     </row>
@@ -16206,7 +16188,7 @@
         <v>1213369</v>
       </c>
       <c r="G193" s="2">
-        <f>SUM(C193:F193)</f>
+        <f t="shared" si="3"/>
         <v>873279101</v>
       </c>
     </row>
@@ -16230,7 +16212,7 @@
         <v>234796</v>
       </c>
       <c r="G194" s="2">
-        <f>SUM(C194:F194)</f>
+        <f t="shared" si="3"/>
         <v>878461978</v>
       </c>
     </row>
@@ -16254,7 +16236,7 @@
         <v>2131961</v>
       </c>
       <c r="G195" s="2">
-        <f>SUM(C195:F195)</f>
+        <f t="shared" si="3"/>
         <v>647017864</v>
       </c>
     </row>
@@ -16278,7 +16260,7 @@
         <v>894498</v>
       </c>
       <c r="G196" s="2">
-        <f>SUM(C196:F196)</f>
+        <f t="shared" si="3"/>
         <v>2264996422</v>
       </c>
     </row>
@@ -16302,7 +16284,7 @@
         <v>15880</v>
       </c>
       <c r="G197" s="2">
-        <f>SUM(C197:F197)</f>
+        <f t="shared" si="3"/>
         <v>300620750</v>
       </c>
     </row>
@@ -16326,7 +16308,7 @@
         <v>785751</v>
       </c>
       <c r="G198" s="2">
-        <f>SUM(C198:F198)</f>
+        <f t="shared" si="3"/>
         <v>1193576498</v>
       </c>
     </row>
@@ -16350,7 +16332,7 @@
         <v>1295065</v>
       </c>
       <c r="G199" s="2">
-        <f>SUM(C199:F199)</f>
+        <f t="shared" si="3"/>
         <v>4252527429</v>
       </c>
     </row>
@@ -16374,7 +16356,7 @@
         <v>3614023</v>
       </c>
       <c r="G200" s="2">
-        <f>SUM(C200:F200)</f>
+        <f t="shared" si="3"/>
         <v>2130579396</v>
       </c>
     </row>
@@ -16398,7 +16380,7 @@
         <v>154076</v>
       </c>
       <c r="G201" s="2">
-        <f>SUM(C201:F201)</f>
+        <f t="shared" si="3"/>
         <v>1131730942</v>
       </c>
     </row>
@@ -16422,7 +16404,7 @@
         <v>137431</v>
       </c>
       <c r="G202" s="2">
-        <f>SUM(C202:F202)</f>
+        <f t="shared" si="3"/>
         <v>593945021</v>
       </c>
     </row>
@@ -16446,7 +16428,7 @@
         <v>335754</v>
       </c>
       <c r="G203" s="2">
-        <f>SUM(C203:F203)</f>
+        <f t="shared" si="3"/>
         <v>975613934</v>
       </c>
     </row>
@@ -16470,7 +16452,7 @@
         <v>43328270</v>
       </c>
       <c r="G204" s="2">
-        <f>SUM(C204:F204)</f>
+        <f t="shared" si="3"/>
         <v>1520839833</v>
       </c>
     </row>
@@ -16494,7 +16476,7 @@
         <v>3650546</v>
       </c>
       <c r="G205" s="2">
-        <f>SUM(C205:F205)</f>
+        <f t="shared" si="3"/>
         <v>953213115</v>
       </c>
     </row>
@@ -16518,7 +16500,7 @@
         <v>36062096</v>
       </c>
       <c r="G206" s="2">
-        <f>SUM(C206:F206)</f>
+        <f t="shared" si="3"/>
         <v>4026920694</v>
       </c>
     </row>
@@ -16542,7 +16524,7 @@
         <v>1418886</v>
       </c>
       <c r="G207" s="2">
-        <f>SUM(C207:F207)</f>
+        <f t="shared" si="3"/>
         <v>1909486367</v>
       </c>
     </row>
@@ -16566,7 +16548,7 @@
         <v>700969</v>
       </c>
       <c r="G208" s="2">
-        <f>SUM(C208:F208)</f>
+        <f t="shared" si="3"/>
         <v>862748244</v>
       </c>
     </row>
@@ -16590,7 +16572,7 @@
         <v>8800</v>
       </c>
       <c r="G209" s="2">
-        <f>SUM(C209:F209)</f>
+        <f t="shared" si="3"/>
         <v>558801419</v>
       </c>
     </row>
@@ -16614,7 +16596,7 @@
         <v>414720</v>
       </c>
       <c r="G210" s="2">
-        <f>SUM(C210:F210)</f>
+        <f t="shared" si="3"/>
         <v>812510187</v>
       </c>
     </row>
@@ -16638,7 +16620,7 @@
         <v>860</v>
       </c>
       <c r="G211" s="2">
-        <f>SUM(C211:F211)</f>
+        <f t="shared" si="3"/>
         <v>324966306</v>
       </c>
     </row>
@@ -16662,7 +16644,7 @@
         <v>162093</v>
       </c>
       <c r="G212" s="2">
-        <f>SUM(C212:F212)</f>
+        <f t="shared" si="3"/>
         <v>548125490</v>
       </c>
     </row>
@@ -16686,7 +16668,7 @@
         <v>11901</v>
       </c>
       <c r="G213" s="2">
-        <f>SUM(C213:F213)</f>
+        <f t="shared" si="3"/>
         <v>592703164</v>
       </c>
     </row>
@@ -16710,7 +16692,7 @@
         <v>1708548</v>
       </c>
       <c r="G214" s="2">
-        <f>SUM(C214:F214)</f>
+        <f t="shared" si="3"/>
         <v>1820511685</v>
       </c>
     </row>
@@ -16734,7 +16716,7 @@
         <v>99117</v>
       </c>
       <c r="G215" s="2">
-        <f>SUM(C215:F215)</f>
+        <f t="shared" si="3"/>
         <v>374987559</v>
       </c>
     </row>
@@ -16758,7 +16740,7 @@
         <v>37567619</v>
       </c>
       <c r="G216" s="2">
-        <f>SUM(C216:F216)</f>
+        <f t="shared" si="3"/>
         <v>4175766303</v>
       </c>
     </row>
@@ -16782,7 +16764,7 @@
         <v>267369</v>
       </c>
       <c r="G217" s="2">
-        <f>SUM(C217:F217)</f>
+        <f t="shared" si="3"/>
         <v>902179085</v>
       </c>
     </row>
@@ -16806,7 +16788,7 @@
         <v>215129</v>
       </c>
       <c r="G218" s="2">
-        <f>SUM(C218:F218)</f>
+        <f t="shared" si="3"/>
         <v>913159396</v>
       </c>
     </row>
@@ -16830,7 +16812,7 @@
         <v>163296</v>
       </c>
       <c r="G219" s="2">
-        <f>SUM(C219:F219)</f>
+        <f t="shared" si="3"/>
         <v>560858941</v>
       </c>
     </row>
@@ -16854,7 +16836,7 @@
         <v>3389916</v>
       </c>
       <c r="G220" s="2">
-        <f>SUM(C220:F220)</f>
+        <f t="shared" si="3"/>
         <v>2379947430</v>
       </c>
     </row>
@@ -16878,7 +16860,7 @@
         <v>819164</v>
       </c>
       <c r="G221" s="2">
-        <f>SUM(C221:F221)</f>
+        <f t="shared" si="3"/>
         <v>1901835763</v>
       </c>
     </row>
@@ -16902,7 +16884,7 @@
         <v>2417985</v>
       </c>
       <c r="G222" s="2">
-        <f>SUM(C222:F222)</f>
+        <f t="shared" si="3"/>
         <v>1463576670</v>
       </c>
     </row>
@@ -16926,7 +16908,7 @@
         <v>1914337</v>
       </c>
       <c r="G223" s="2">
-        <f>SUM(C223:F223)</f>
+        <f t="shared" si="3"/>
         <v>2173703920</v>
       </c>
     </row>
@@ -16950,7 +16932,7 @@
         <v>3178765</v>
       </c>
       <c r="G224" s="2">
-        <f>SUM(C224:F224)</f>
+        <f t="shared" si="3"/>
         <v>3567059630</v>
       </c>
     </row>
@@ -16974,7 +16956,7 @@
         <v>934222</v>
       </c>
       <c r="G225" s="2">
-        <f>SUM(C225:F225)</f>
+        <f t="shared" si="3"/>
         <v>2270688234</v>
       </c>
     </row>
@@ -16998,7 +16980,7 @@
         <v>416758</v>
       </c>
       <c r="G226" s="2">
-        <f>SUM(C226:F226)</f>
+        <f t="shared" si="3"/>
         <v>427276689</v>
       </c>
     </row>
@@ -17022,7 +17004,7 @@
         <v>54427839</v>
       </c>
       <c r="G227" s="2">
-        <f>SUM(C227:F227)</f>
+        <f t="shared" ref="G227:G290" si="4">SUM(C227:F227)</f>
         <v>936314998</v>
       </c>
     </row>
@@ -17046,7 +17028,7 @@
         <v>21938</v>
       </c>
       <c r="G228" s="2">
-        <f>SUM(C228:F228)</f>
+        <f t="shared" si="4"/>
         <v>464831818</v>
       </c>
     </row>
@@ -17070,7 +17052,7 @@
         <v>25179816</v>
       </c>
       <c r="G229" s="2">
-        <f>SUM(C229:F229)</f>
+        <f t="shared" si="4"/>
         <v>5098974714</v>
       </c>
     </row>
@@ -17094,7 +17076,7 @@
         <v>922056</v>
       </c>
       <c r="G230" s="2">
-        <f>SUM(C230:F230)</f>
+        <f t="shared" si="4"/>
         <v>803628000</v>
       </c>
     </row>
@@ -17118,7 +17100,7 @@
         <v>2297623</v>
       </c>
       <c r="G231" s="2">
-        <f>SUM(C231:F231)</f>
+        <f t="shared" si="4"/>
         <v>1642185812</v>
       </c>
     </row>
@@ -17142,7 +17124,7 @@
         <v>737263</v>
       </c>
       <c r="G232" s="2">
-        <f>SUM(C232:F232)</f>
+        <f t="shared" si="4"/>
         <v>1596111201</v>
       </c>
     </row>
@@ -17166,7 +17148,7 @@
         <v>14949</v>
       </c>
       <c r="G233" s="2">
-        <f>SUM(C233:F233)</f>
+        <f t="shared" si="4"/>
         <v>1100344474</v>
       </c>
     </row>
@@ -17190,7 +17172,7 @@
         <v>45614</v>
       </c>
       <c r="G234" s="2">
-        <f>SUM(C234:F234)</f>
+        <f t="shared" si="4"/>
         <v>839953061</v>
       </c>
     </row>
@@ -17214,7 +17196,7 @@
         <v>232763</v>
       </c>
       <c r="G235" s="2">
-        <f>SUM(C235:F235)</f>
+        <f t="shared" si="4"/>
         <v>1165797665</v>
       </c>
     </row>
@@ -17238,7 +17220,7 @@
         <v>3580</v>
       </c>
       <c r="G236" s="2">
-        <f>SUM(C236:F236)</f>
+        <f t="shared" si="4"/>
         <v>281483103</v>
       </c>
     </row>
@@ -17262,7 +17244,7 @@
         <v>3248321</v>
       </c>
       <c r="G237" s="2">
-        <f>SUM(C237:F237)</f>
+        <f t="shared" si="4"/>
         <v>2509696629</v>
       </c>
     </row>
@@ -17286,7 +17268,7 @@
         <v>1543848</v>
       </c>
       <c r="G238" s="2">
-        <f>SUM(C238:F238)</f>
+        <f t="shared" si="4"/>
         <v>2433994011</v>
       </c>
     </row>
@@ -17310,7 +17292,7 @@
         <v>16561716</v>
       </c>
       <c r="G239" s="2">
-        <f>SUM(C239:F239)</f>
+        <f t="shared" si="4"/>
         <v>1362874567</v>
       </c>
     </row>
@@ -17334,7 +17316,7 @@
         <v>2078111</v>
       </c>
       <c r="G240" s="2">
-        <f>SUM(C240:F240)</f>
+        <f t="shared" si="4"/>
         <v>1242780781</v>
       </c>
     </row>
@@ -17358,7 +17340,7 @@
         <v>1572394</v>
       </c>
       <c r="G241" s="2">
-        <f>SUM(C241:F241)</f>
+        <f t="shared" si="4"/>
         <v>748118768</v>
       </c>
     </row>
@@ -17382,7 +17364,7 @@
         <v>102714</v>
       </c>
       <c r="G242" s="2">
-        <f>SUM(C242:F242)</f>
+        <f t="shared" si="4"/>
         <v>1330415493</v>
       </c>
     </row>
@@ -17406,7 +17388,7 @@
         <v>6314466</v>
       </c>
       <c r="G243" s="2">
-        <f>SUM(C243:F243)</f>
+        <f t="shared" si="4"/>
         <v>1809377232</v>
       </c>
     </row>
@@ -17430,7 +17412,7 @@
         <v>387547</v>
       </c>
       <c r="G244" s="2">
-        <f>SUM(C244:F244)</f>
+        <f t="shared" si="4"/>
         <v>3195338800</v>
       </c>
     </row>
@@ -17454,7 +17436,7 @@
         <v>498794</v>
       </c>
       <c r="G245" s="2">
-        <f>SUM(C245:F245)</f>
+        <f t="shared" si="4"/>
         <v>1103017136</v>
       </c>
     </row>
@@ -17478,7 +17460,7 @@
         <v>4454</v>
       </c>
       <c r="G246" s="2">
-        <f>SUM(C246:F246)</f>
+        <f t="shared" si="4"/>
         <v>170705041</v>
       </c>
     </row>
@@ -17502,7 +17484,7 @@
         <v>430448</v>
       </c>
       <c r="G247" s="2">
-        <f>SUM(C247:F247)</f>
+        <f t="shared" si="4"/>
         <v>813487536</v>
       </c>
     </row>
@@ -17526,7 +17508,7 @@
         <v>15323</v>
       </c>
       <c r="G248" s="2">
-        <f>SUM(C248:F248)</f>
+        <f t="shared" si="4"/>
         <v>1037709012</v>
       </c>
     </row>
@@ -17550,7 +17532,7 @@
         <v>381460</v>
       </c>
       <c r="G249" s="2">
-        <f>SUM(C249:F249)</f>
+        <f t="shared" si="4"/>
         <v>639397518</v>
       </c>
     </row>
@@ -17574,7 +17556,7 @@
         <v>165005</v>
       </c>
       <c r="G250" s="2">
-        <f>SUM(C250:F250)</f>
+        <f t="shared" si="4"/>
         <v>738963559</v>
       </c>
     </row>
@@ -17598,7 +17580,7 @@
         <v>158249</v>
       </c>
       <c r="G251" s="2">
-        <f>SUM(C251:F251)</f>
+        <f t="shared" si="4"/>
         <v>393948344</v>
       </c>
     </row>
@@ -17622,7 +17604,7 @@
         <v>355542</v>
       </c>
       <c r="G252" s="2">
-        <f>SUM(C252:F252)</f>
+        <f t="shared" si="4"/>
         <v>388111989</v>
       </c>
     </row>
@@ -17646,7 +17628,7 @@
         <v>55313475</v>
       </c>
       <c r="G253" s="2">
-        <f>SUM(C253:F253)</f>
+        <f t="shared" si="4"/>
         <v>3376843810</v>
       </c>
     </row>
@@ -17670,7 +17652,7 @@
         <v>4120359</v>
       </c>
       <c r="G254" s="2">
-        <f>SUM(C254:F254)</f>
+        <f t="shared" si="4"/>
         <v>986038129</v>
       </c>
     </row>
@@ -17694,7 +17676,7 @@
         <v>13093247</v>
       </c>
       <c r="G255" s="2">
-        <f>SUM(C255:F255)</f>
+        <f t="shared" si="4"/>
         <v>1618010327</v>
       </c>
     </row>
@@ -17718,7 +17700,7 @@
         <v>24636386</v>
       </c>
       <c r="G256" s="2">
-        <f>SUM(C256:F256)</f>
+        <f t="shared" si="4"/>
         <v>2107355234</v>
       </c>
     </row>
@@ -17742,7 +17724,7 @@
         <v>9409003</v>
       </c>
       <c r="G257" s="2">
-        <f>SUM(C257:F257)</f>
+        <f t="shared" si="4"/>
         <v>3739132452</v>
       </c>
     </row>
@@ -17766,7 +17748,7 @@
         <v>2556866</v>
       </c>
       <c r="G258" s="2">
-        <f>SUM(C258:F258)</f>
+        <f t="shared" si="4"/>
         <v>609832785</v>
       </c>
     </row>
@@ -17790,7 +17772,7 @@
         <v>148071</v>
       </c>
       <c r="G259" s="2">
-        <f>SUM(C259:F259)</f>
+        <f t="shared" si="4"/>
         <v>717925159</v>
       </c>
     </row>
@@ -17814,7 +17796,7 @@
         <v>32755</v>
       </c>
       <c r="G260" s="2">
-        <f>SUM(C260:F260)</f>
+        <f t="shared" si="4"/>
         <v>440266860</v>
       </c>
     </row>
@@ -17838,7 +17820,7 @@
         <v>970514</v>
       </c>
       <c r="G261" s="2">
-        <f>SUM(C261:F261)</f>
+        <f t="shared" si="4"/>
         <v>2050970057</v>
       </c>
     </row>
@@ -17862,7 +17844,7 @@
         <v>88057</v>
       </c>
       <c r="G262" s="2">
-        <f>SUM(C262:F262)</f>
+        <f t="shared" si="4"/>
         <v>784373051</v>
       </c>
     </row>
@@ -17886,7 +17868,7 @@
         <v>43883661</v>
       </c>
       <c r="G263" s="2">
-        <f>SUM(C263:F263)</f>
+        <f t="shared" si="4"/>
         <v>12615568872</v>
       </c>
     </row>
@@ -17910,7 +17892,7 @@
         <v>1228278</v>
       </c>
       <c r="G264" s="2">
-        <f>SUM(C264:F264)</f>
+        <f t="shared" si="4"/>
         <v>2779274279</v>
       </c>
     </row>
@@ -17934,7 +17916,7 @@
         <v>198196</v>
       </c>
       <c r="G265" s="2">
-        <f>SUM(C265:F265)</f>
+        <f t="shared" si="4"/>
         <v>773189162</v>
       </c>
     </row>
@@ -17958,7 +17940,7 @@
         <v>1195654</v>
       </c>
       <c r="G266" s="2">
-        <f>SUM(C266:F266)</f>
+        <f t="shared" si="4"/>
         <v>3817320106</v>
       </c>
     </row>
@@ -17982,7 +17964,7 @@
         <v>10843</v>
       </c>
       <c r="G267" s="2">
-        <f>SUM(C267:F267)</f>
+        <f t="shared" si="4"/>
         <v>334964146</v>
       </c>
     </row>
@@ -18006,7 +17988,7 @@
         <v>646255</v>
       </c>
       <c r="G268" s="2">
-        <f>SUM(C268:F268)</f>
+        <f t="shared" si="4"/>
         <v>1473232282</v>
       </c>
     </row>
@@ -18030,7 +18012,7 @@
         <v>35176228</v>
       </c>
       <c r="G269" s="2">
-        <f>SUM(C269:F269)</f>
+        <f t="shared" si="4"/>
         <v>6992003836</v>
       </c>
     </row>
@@ -18054,7 +18036,7 @@
         <v>992356</v>
       </c>
       <c r="G270" s="2">
-        <f>SUM(C270:F270)</f>
+        <f t="shared" si="4"/>
         <v>2408332761</v>
       </c>
     </row>
@@ -18078,7 +18060,7 @@
         <v>77025203</v>
       </c>
       <c r="G271" s="2">
-        <f>SUM(C271:F271)</f>
+        <f t="shared" si="4"/>
         <v>6844887916</v>
       </c>
     </row>
@@ -18102,7 +18084,7 @@
         <v>1214196</v>
       </c>
       <c r="G272" s="2">
-        <f>SUM(C272:F272)</f>
+        <f t="shared" si="4"/>
         <v>2281533328</v>
       </c>
     </row>
@@ -18126,7 +18108,7 @@
         <v>798741</v>
       </c>
       <c r="G273" s="2">
-        <f>SUM(C273:F273)</f>
+        <f t="shared" si="4"/>
         <v>1564224692</v>
       </c>
     </row>
@@ -18150,7 +18132,7 @@
         <v>2299018</v>
       </c>
       <c r="G274" s="2">
-        <f>SUM(C274:F274)</f>
+        <f t="shared" si="4"/>
         <v>477143086</v>
       </c>
     </row>
@@ -18171,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="G275" s="2">
-        <f>SUM(C275:F275)</f>
+        <f t="shared" si="4"/>
         <v>2996822</v>
       </c>
     </row>
@@ -18195,7 +18177,7 @@
         <v>6902</v>
       </c>
       <c r="G276" s="2">
-        <f>SUM(C276:F276)</f>
+        <f t="shared" si="4"/>
         <v>204987359</v>
       </c>
     </row>
@@ -18219,7 +18201,7 @@
         <v>162704</v>
       </c>
       <c r="G277" s="2">
-        <f>SUM(C277:F277)</f>
+        <f t="shared" si="4"/>
         <v>471347814</v>
       </c>
     </row>
@@ -18228,7 +18210,7 @@
         <v>15</v>
       </c>
       <c r="G278" s="2">
-        <f>SUM(C278:F278)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -18252,7 +18234,7 @@
         <v>36619</v>
       </c>
       <c r="G279" s="2">
-        <f>SUM(C279:F279)</f>
+        <f t="shared" si="4"/>
         <v>1356536816</v>
       </c>
     </row>
@@ -18276,7 +18258,7 @@
         <v>3838108</v>
       </c>
       <c r="G280" s="2">
-        <f>SUM(C280:F280)</f>
+        <f t="shared" si="4"/>
         <v>469197935</v>
       </c>
     </row>
@@ -18300,7 +18282,7 @@
         <v>1745845</v>
       </c>
       <c r="G281" s="2">
-        <f>SUM(C281:F281)</f>
+        <f t="shared" si="4"/>
         <v>1544630958</v>
       </c>
     </row>
@@ -18324,7 +18306,7 @@
         <v>10002</v>
       </c>
       <c r="G282" s="2">
-        <f>SUM(C282:F282)</f>
+        <f t="shared" si="4"/>
         <v>543430484</v>
       </c>
     </row>
@@ -18348,7 +18330,7 @@
         <v>215898</v>
       </c>
       <c r="G283" s="2">
-        <f>SUM(C283:F283)</f>
+        <f t="shared" si="4"/>
         <v>424858841</v>
       </c>
     </row>
@@ -18372,7 +18354,7 @@
         <v>149043</v>
       </c>
       <c r="G284" s="2">
-        <f>SUM(C284:F284)</f>
+        <f t="shared" si="4"/>
         <v>681608851</v>
       </c>
     </row>
@@ -18396,7 +18378,7 @@
         <v>89611</v>
       </c>
       <c r="G285" s="2">
-        <f>SUM(C285:F285)</f>
+        <f t="shared" si="4"/>
         <v>1626601417</v>
       </c>
     </row>
@@ -18420,7 +18402,7 @@
         <v>32062350</v>
       </c>
       <c r="G286" s="2">
-        <f>SUM(C286:F286)</f>
+        <f t="shared" si="4"/>
         <v>3795042919</v>
       </c>
     </row>
@@ -18444,7 +18426,7 @@
         <v>343433</v>
       </c>
       <c r="G287" s="2">
-        <f>SUM(C287:F287)</f>
+        <f t="shared" si="4"/>
         <v>657924696</v>
       </c>
     </row>
@@ -18468,7 +18450,7 @@
         <v>203291</v>
       </c>
       <c r="G288" s="2">
-        <f>SUM(C288:F288)</f>
+        <f t="shared" si="4"/>
         <v>754637767</v>
       </c>
     </row>
@@ -18492,7 +18474,7 @@
         <v>55100</v>
       </c>
       <c r="G289" s="2">
-        <f>SUM(C289:F289)</f>
+        <f t="shared" si="4"/>
         <v>476208764</v>
       </c>
     </row>
@@ -18516,7 +18498,7 @@
         <v>1657939</v>
       </c>
       <c r="G290" s="2">
-        <f>SUM(C290:F290)</f>
+        <f t="shared" si="4"/>
         <v>1272641849</v>
       </c>
     </row>
@@ -18540,7 +18522,7 @@
         <v>4354335</v>
       </c>
       <c r="G291" s="2">
-        <f>SUM(C291:F291)</f>
+        <f t="shared" ref="G291:G354" si="5">SUM(C291:F291)</f>
         <v>2282972452</v>
       </c>
     </row>
@@ -18564,7 +18546,7 @@
         <v>2721237</v>
       </c>
       <c r="G292" s="2">
-        <f>SUM(C292:F292)</f>
+        <f t="shared" si="5"/>
         <v>1717917422</v>
       </c>
     </row>
@@ -18588,7 +18570,7 @@
         <v>1812430</v>
       </c>
       <c r="G293" s="2">
-        <f>SUM(C293:F293)</f>
+        <f t="shared" si="5"/>
         <v>2848565129</v>
       </c>
     </row>
@@ -18612,7 +18594,7 @@
         <v>3136897</v>
       </c>
       <c r="G294" s="2">
-        <f>SUM(C294:F294)</f>
+        <f t="shared" si="5"/>
         <v>2220227186</v>
       </c>
     </row>
@@ -18636,7 +18618,7 @@
         <v>12224</v>
       </c>
       <c r="G295" s="2">
-        <f>SUM(C295:F295)</f>
+        <f t="shared" si="5"/>
         <v>475754467</v>
       </c>
     </row>
@@ -18660,7 +18642,7 @@
         <v>39584548</v>
       </c>
       <c r="G296" s="2">
-        <f>SUM(C296:F296)</f>
+        <f t="shared" si="5"/>
         <v>3911425076</v>
       </c>
     </row>
@@ -18684,7 +18666,7 @@
         <v>41210343</v>
       </c>
       <c r="G297" s="2">
-        <f>SUM(C297:F297)</f>
+        <f t="shared" si="5"/>
         <v>1332261302</v>
       </c>
     </row>
@@ -18708,7 +18690,7 @@
         <v>665461</v>
       </c>
       <c r="G298" s="2">
-        <f>SUM(C298:F298)</f>
+        <f t="shared" si="5"/>
         <v>385716321</v>
       </c>
     </row>
@@ -18732,7 +18714,7 @@
         <v>21378180</v>
       </c>
       <c r="G299" s="2">
-        <f>SUM(C299:F299)</f>
+        <f t="shared" si="5"/>
         <v>2260904010</v>
       </c>
     </row>
@@ -18756,7 +18738,7 @@
         <v>821626</v>
       </c>
       <c r="G300" s="2">
-        <f>SUM(C300:F300)</f>
+        <f t="shared" si="5"/>
         <v>998049043</v>
       </c>
     </row>
@@ -18780,7 +18762,7 @@
         <v>734739</v>
       </c>
       <c r="G301" s="2">
-        <f>SUM(C301:F301)</f>
+        <f t="shared" si="5"/>
         <v>1052555421</v>
       </c>
     </row>
@@ -18804,7 +18786,7 @@
         <v>3286567</v>
       </c>
       <c r="G302" s="2">
-        <f>SUM(C302:F302)</f>
+        <f t="shared" si="5"/>
         <v>3237037479</v>
       </c>
     </row>
@@ -18828,7 +18810,7 @@
         <v>9579214</v>
       </c>
       <c r="G303" s="2">
-        <f>SUM(C303:F303)</f>
+        <f t="shared" si="5"/>
         <v>2819146927</v>
       </c>
     </row>
@@ -18852,7 +18834,7 @@
         <v>48135</v>
       </c>
       <c r="G304" s="2">
-        <f>SUM(C304:F304)</f>
+        <f t="shared" si="5"/>
         <v>892510277</v>
       </c>
     </row>
@@ -18876,7 +18858,7 @@
         <v>35086242</v>
       </c>
       <c r="G305" s="2">
-        <f>SUM(C305:F305)</f>
+        <f t="shared" si="5"/>
         <v>9354528202</v>
       </c>
     </row>
@@ -18900,7 +18882,7 @@
         <v>601201</v>
       </c>
       <c r="G306" s="2">
-        <f>SUM(C306:F306)</f>
+        <f t="shared" si="5"/>
         <v>1160137504</v>
       </c>
     </row>
@@ -18924,7 +18906,7 @@
         <v>167451</v>
       </c>
       <c r="G307" s="2">
-        <f>SUM(C307:F307)</f>
+        <f t="shared" si="5"/>
         <v>705377983</v>
       </c>
     </row>
@@ -18948,7 +18930,7 @@
         <v>79780</v>
       </c>
       <c r="G308" s="2">
-        <f>SUM(C308:F308)</f>
+        <f t="shared" si="5"/>
         <v>590767190</v>
       </c>
     </row>
@@ -18972,7 +18954,7 @@
         <v>50968</v>
       </c>
       <c r="G309" s="2">
-        <f>SUM(C309:F309)</f>
+        <f t="shared" si="5"/>
         <v>309899876</v>
       </c>
     </row>
@@ -18996,7 +18978,7 @@
         <v>16400023</v>
       </c>
       <c r="G310" s="2">
-        <f>SUM(C310:F310)</f>
+        <f t="shared" si="5"/>
         <v>4087931316</v>
       </c>
     </row>
@@ -19020,7 +19002,7 @@
         <v>2622</v>
       </c>
       <c r="G311" s="2">
-        <f>SUM(C311:F311)</f>
+        <f t="shared" si="5"/>
         <v>289071934</v>
       </c>
     </row>
@@ -19044,7 +19026,7 @@
         <v>1519288</v>
       </c>
       <c r="G312" s="2">
-        <f>SUM(C312:F312)</f>
+        <f t="shared" si="5"/>
         <v>2977986971</v>
       </c>
     </row>
@@ -19068,7 +19050,7 @@
         <v>3756208</v>
       </c>
       <c r="G313" s="2">
-        <f>SUM(C313:F313)</f>
+        <f t="shared" si="5"/>
         <v>2149553948</v>
       </c>
     </row>
@@ -19092,7 +19074,7 @@
         <v>4889245</v>
       </c>
       <c r="G314" s="2">
-        <f>SUM(C314:F314)</f>
+        <f t="shared" si="5"/>
         <v>2312134651</v>
       </c>
     </row>
@@ -19116,7 +19098,7 @@
         <v>386177</v>
       </c>
       <c r="G315" s="2">
-        <f>SUM(C315:F315)</f>
+        <f t="shared" si="5"/>
         <v>2839405770</v>
       </c>
     </row>
@@ -19140,7 +19122,7 @@
         <v>67189</v>
       </c>
       <c r="G316" s="2">
-        <f>SUM(C316:F316)</f>
+        <f t="shared" si="5"/>
         <v>1037976247</v>
       </c>
     </row>
@@ -19164,7 +19146,7 @@
         <v>306718</v>
       </c>
       <c r="G317" s="2">
-        <f>SUM(C317:F317)</f>
+        <f t="shared" si="5"/>
         <v>1849881684</v>
       </c>
     </row>
@@ -19188,7 +19170,7 @@
         <v>2641157</v>
       </c>
       <c r="G318" s="2">
-        <f>SUM(C318:F318)</f>
+        <f t="shared" si="5"/>
         <v>1809164966</v>
       </c>
     </row>
@@ -19212,7 +19194,7 @@
         <v>98021</v>
       </c>
       <c r="G319" s="2">
-        <f>SUM(C319:F319)</f>
+        <f t="shared" si="5"/>
         <v>705715848</v>
       </c>
     </row>
@@ -19236,7 +19218,7 @@
         <v>1969</v>
       </c>
       <c r="G320" s="2">
-        <f>SUM(C320:F320)</f>
+        <f t="shared" si="5"/>
         <v>184802402</v>
       </c>
     </row>
@@ -19260,7 +19242,7 @@
         <v>1073687</v>
       </c>
       <c r="G321" s="2">
-        <f>SUM(C321:F321)</f>
+        <f t="shared" si="5"/>
         <v>3026819171</v>
       </c>
     </row>
@@ -19284,7 +19266,7 @@
         <v>124576</v>
       </c>
       <c r="G322" s="2">
-        <f>SUM(C322:F322)</f>
+        <f t="shared" si="5"/>
         <v>796351214</v>
       </c>
     </row>
@@ -19308,7 +19290,7 @@
         <v>26258006</v>
       </c>
       <c r="G323" s="2">
-        <f>SUM(C323:F323)</f>
+        <f t="shared" si="5"/>
         <v>8743684049</v>
       </c>
     </row>
@@ -19332,7 +19314,7 @@
         <v>850921</v>
       </c>
       <c r="G324" s="2">
-        <f>SUM(C324:F324)</f>
+        <f t="shared" si="5"/>
         <v>1740225739</v>
       </c>
     </row>
@@ -19356,7 +19338,7 @@
         <v>68800</v>
       </c>
       <c r="G325" s="2">
-        <f>SUM(C325:F325)</f>
+        <f t="shared" si="5"/>
         <v>401105362</v>
       </c>
     </row>
@@ -19380,7 +19362,7 @@
         <v>29292312</v>
       </c>
       <c r="G326" s="2">
-        <f>SUM(C326:F326)</f>
+        <f t="shared" si="5"/>
         <v>486084520</v>
       </c>
     </row>
@@ -19404,7 +19386,7 @@
         <v>886419</v>
       </c>
       <c r="G327" s="2">
-        <f>SUM(C327:F327)</f>
+        <f t="shared" si="5"/>
         <v>744066102</v>
       </c>
     </row>
@@ -19428,7 +19410,7 @@
         <v>23377419</v>
       </c>
       <c r="G328" s="2">
-        <f>SUM(C328:F328)</f>
+        <f t="shared" si="5"/>
         <v>10885547949</v>
       </c>
     </row>
@@ -19452,7 +19434,7 @@
         <v>206785</v>
       </c>
       <c r="G329" s="2">
-        <f>SUM(C329:F329)</f>
+        <f t="shared" si="5"/>
         <v>692906578</v>
       </c>
     </row>
@@ -19476,7 +19458,7 @@
         <v>33294521</v>
       </c>
       <c r="G330" s="2">
-        <f>SUM(C330:F330)</f>
+        <f t="shared" si="5"/>
         <v>5011559392</v>
       </c>
     </row>
@@ -19500,7 +19482,7 @@
         <v>6495443</v>
       </c>
       <c r="G331" s="2">
-        <f>SUM(C331:F331)</f>
+        <f t="shared" si="5"/>
         <v>3441446951</v>
       </c>
     </row>
@@ -19524,7 +19506,7 @@
         <v>505180</v>
       </c>
       <c r="G332" s="2">
-        <f>SUM(C332:F332)</f>
+        <f t="shared" si="5"/>
         <v>608404502</v>
       </c>
     </row>
@@ -19545,7 +19527,7 @@
         <v>1233</v>
       </c>
       <c r="G333" s="2">
-        <f>SUM(C333:F333)</f>
+        <f t="shared" si="5"/>
         <v>87799994</v>
       </c>
     </row>
@@ -19569,7 +19551,7 @@
         <v>89957</v>
       </c>
       <c r="G334" s="2">
-        <f>SUM(C334:F334)</f>
+        <f t="shared" si="5"/>
         <v>670454278</v>
       </c>
     </row>
@@ -19593,7 +19575,7 @@
         <v>2617394</v>
       </c>
       <c r="G335" s="2">
-        <f>SUM(C335:F335)</f>
+        <f t="shared" si="5"/>
         <v>1921265572</v>
       </c>
     </row>
@@ -19617,7 +19599,7 @@
         <v>21918</v>
       </c>
       <c r="G336" s="2">
-        <f>SUM(C336:F336)</f>
+        <f t="shared" si="5"/>
         <v>350866659</v>
       </c>
     </row>
@@ -19641,7 +19623,7 @@
         <v>205269</v>
       </c>
       <c r="G337" s="2">
-        <f>SUM(C337:F337)</f>
+        <f t="shared" si="5"/>
         <v>1575001604</v>
       </c>
     </row>
@@ -19665,7 +19647,7 @@
         <v>3290</v>
       </c>
       <c r="G338" s="2">
-        <f>SUM(C338:F338)</f>
+        <f t="shared" si="5"/>
         <v>469618456</v>
       </c>
     </row>
@@ -19689,7 +19671,7 @@
         <v>215225</v>
       </c>
       <c r="G339" s="2">
-        <f>SUM(C339:F339)</f>
+        <f t="shared" si="5"/>
         <v>711544648</v>
       </c>
     </row>
@@ -19713,7 +19695,7 @@
         <v>2622</v>
       </c>
       <c r="G340" s="2">
-        <f>SUM(C340:F340)</f>
+        <f t="shared" si="5"/>
         <v>299409374</v>
       </c>
     </row>
@@ -19737,7 +19719,7 @@
         <v>76550</v>
       </c>
       <c r="G341" s="2">
-        <f>SUM(C341:F341)</f>
+        <f t="shared" si="5"/>
         <v>616200175</v>
       </c>
     </row>
@@ -19761,7 +19743,7 @@
         <v>223672</v>
       </c>
       <c r="G342" s="2">
-        <f>SUM(C342:F342)</f>
+        <f t="shared" si="5"/>
         <v>796280679</v>
       </c>
     </row>
@@ -19785,7 +19767,7 @@
         <v>3683817</v>
       </c>
       <c r="G343" s="2">
-        <f>SUM(C343:F343)</f>
+        <f t="shared" si="5"/>
         <v>960702065</v>
       </c>
     </row>
@@ -19809,7 +19791,7 @@
         <v>19422946</v>
       </c>
       <c r="G344" s="2">
-        <f>SUM(C344:F344)</f>
+        <f t="shared" si="5"/>
         <v>1696732797</v>
       </c>
     </row>
@@ -19833,7 +19815,7 @@
         <v>35806321</v>
       </c>
       <c r="G345" s="2">
-        <f>SUM(C345:F345)</f>
+        <f t="shared" si="5"/>
         <v>671521604</v>
       </c>
     </row>
@@ -19857,7 +19839,7 @@
         <v>127595665</v>
       </c>
       <c r="G346" s="2">
-        <f>SUM(C346:F346)</f>
+        <f t="shared" si="5"/>
         <v>9407226848</v>
       </c>
     </row>
@@ -19881,7 +19863,7 @@
         <v>4326492</v>
       </c>
       <c r="G347" s="2">
-        <f>SUM(C347:F347)</f>
+        <f t="shared" si="5"/>
         <v>1792428268</v>
       </c>
     </row>
@@ -19905,7 +19887,7 @@
         <v>3156214</v>
       </c>
       <c r="G348" s="2">
-        <f>SUM(C348:F348)</f>
+        <f t="shared" si="5"/>
         <v>2048544374</v>
       </c>
     </row>
@@ -19929,7 +19911,7 @@
         <v>8606943</v>
       </c>
       <c r="G349" s="2">
-        <f>SUM(C349:F349)</f>
+        <f t="shared" si="5"/>
         <v>4604220028</v>
       </c>
     </row>
@@ -19953,7 +19935,7 @@
         <v>24991416</v>
       </c>
       <c r="G350" s="2">
-        <f>SUM(C350:F350)</f>
+        <f t="shared" si="5"/>
         <v>11295401883</v>
       </c>
     </row>
@@ -19977,7 +19959,7 @@
         <v>38354403</v>
       </c>
       <c r="G351" s="2">
-        <f>SUM(C351:F351)</f>
+        <f t="shared" si="5"/>
         <v>7184325812</v>
       </c>
     </row>
@@ -20001,7 +19983,7 @@
         <v>133901</v>
       </c>
       <c r="G352" s="2">
-        <f>SUM(C352:F352)</f>
+        <f t="shared" si="5"/>
         <v>1037934704</v>
       </c>
     </row>
@@ -20025,7 +20007,7 @@
         <v>432499</v>
       </c>
       <c r="G353" s="2">
-        <f>SUM(C353:F353)</f>
+        <f t="shared" si="5"/>
         <v>1489387577</v>
       </c>
     </row>
@@ -20049,7 +20031,7 @@
         <v>1316087</v>
       </c>
       <c r="G354" s="2">
-        <f>SUM(C354:F354)</f>
+        <f t="shared" si="5"/>
         <v>2894730092</v>
       </c>
     </row>
@@ -20073,7 +20055,7 @@
         <v>937979</v>
       </c>
       <c r="G355" s="2">
-        <f>SUM(C355:F355)</f>
+        <f t="shared" ref="G355:G418" si="6">SUM(C355:F355)</f>
         <v>327179680</v>
       </c>
     </row>
@@ -20097,7 +20079,7 @@
         <v>89818</v>
       </c>
       <c r="G356" s="2">
-        <f>SUM(C356:F356)</f>
+        <f t="shared" si="6"/>
         <v>738387578</v>
       </c>
     </row>
@@ -20121,7 +20103,7 @@
         <v>175201</v>
       </c>
       <c r="G357" s="2">
-        <f>SUM(C357:F357)</f>
+        <f t="shared" si="6"/>
         <v>520057114</v>
       </c>
     </row>
@@ -20145,7 +20127,7 @@
         <v>149849</v>
       </c>
       <c r="G358" s="2">
-        <f>SUM(C358:F358)</f>
+        <f t="shared" si="6"/>
         <v>576494543</v>
       </c>
     </row>
@@ -20169,7 +20151,7 @@
         <v>2337941</v>
       </c>
       <c r="G359" s="2">
-        <f>SUM(C359:F359)</f>
+        <f t="shared" si="6"/>
         <v>1404360660</v>
       </c>
     </row>
@@ -20193,7 +20175,7 @@
         <v>119008</v>
       </c>
       <c r="G360" s="2">
-        <f>SUM(C360:F360)</f>
+        <f t="shared" si="6"/>
         <v>633480327</v>
       </c>
     </row>
@@ -20217,7 +20199,7 @@
         <v>263091</v>
       </c>
       <c r="G361" s="2">
-        <f>SUM(C361:F361)</f>
+        <f t="shared" si="6"/>
         <v>451978887</v>
       </c>
     </row>
@@ -20241,7 +20223,7 @@
         <v>54282442</v>
       </c>
       <c r="G362" s="2">
-        <f>SUM(C362:F362)</f>
+        <f t="shared" si="6"/>
         <v>4206976717</v>
       </c>
     </row>
@@ -20265,7 +20247,7 @@
         <v>147794</v>
       </c>
       <c r="G363" s="2">
-        <f>SUM(C363:F363)</f>
+        <f t="shared" si="6"/>
         <v>1615620667</v>
       </c>
     </row>
@@ -20289,7 +20271,7 @@
         <v>25427349</v>
       </c>
       <c r="G364" s="2">
-        <f>SUM(C364:F364)</f>
+        <f t="shared" si="6"/>
         <v>12080129429</v>
       </c>
     </row>
@@ -20313,7 +20295,7 @@
         <v>6902</v>
       </c>
       <c r="G365" s="2">
-        <f>SUM(C365:F365)</f>
+        <f t="shared" si="6"/>
         <v>211175869</v>
       </c>
     </row>
@@ -20337,7 +20319,7 @@
         <v>7457338</v>
       </c>
       <c r="G366" s="2">
-        <f>SUM(C366:F366)</f>
+        <f t="shared" si="6"/>
         <v>4331715618</v>
       </c>
     </row>
@@ -20361,7 +20343,7 @@
         <v>17925186</v>
       </c>
       <c r="G367" s="2">
-        <f>SUM(C367:F367)</f>
+        <f t="shared" si="6"/>
         <v>2487478359</v>
       </c>
     </row>
@@ -20385,7 +20367,7 @@
         <v>307806</v>
       </c>
       <c r="G368" s="2">
-        <f>SUM(C368:F368)</f>
+        <f t="shared" si="6"/>
         <v>2358431297</v>
       </c>
     </row>
@@ -20409,7 +20391,7 @@
         <v>1675565</v>
       </c>
       <c r="G369" s="2">
-        <f>SUM(C369:F369)</f>
+        <f t="shared" si="6"/>
         <v>1320399404</v>
       </c>
     </row>
@@ -20433,7 +20415,7 @@
         <v>53730</v>
       </c>
       <c r="G370" s="2">
-        <f>SUM(C370:F370)</f>
+        <f t="shared" si="6"/>
         <v>362764505</v>
       </c>
     </row>
@@ -20457,7 +20439,7 @@
         <v>134955</v>
       </c>
       <c r="G371" s="2">
-        <f>SUM(C371:F371)</f>
+        <f t="shared" si="6"/>
         <v>798704573</v>
       </c>
     </row>
@@ -20481,7 +20463,7 @@
         <v>228331</v>
       </c>
       <c r="G372" s="2">
-        <f>SUM(C372:F372)</f>
+        <f t="shared" si="6"/>
         <v>750359010</v>
       </c>
     </row>
@@ -20505,7 +20487,7 @@
         <v>9820</v>
       </c>
       <c r="G373" s="2">
-        <f>SUM(C373:F373)</f>
+        <f t="shared" si="6"/>
         <v>340803268</v>
       </c>
     </row>
@@ -20529,7 +20511,7 @@
         <v>38023290</v>
       </c>
       <c r="G374" s="2">
-        <f>SUM(C374:F374)</f>
+        <f t="shared" si="6"/>
         <v>1468615008</v>
       </c>
     </row>
@@ -20553,7 +20535,7 @@
         <v>98983</v>
       </c>
       <c r="G375" s="2">
-        <f>SUM(C375:F375)</f>
+        <f t="shared" si="6"/>
         <v>1726396109</v>
       </c>
     </row>
@@ -20577,7 +20559,7 @@
         <v>17111147</v>
       </c>
       <c r="G376" s="2">
-        <f>SUM(C376:F376)</f>
+        <f t="shared" si="6"/>
         <v>2803056443</v>
       </c>
     </row>
@@ -20601,7 +20583,7 @@
         <v>1468060</v>
       </c>
       <c r="G377" s="2">
-        <f>SUM(C377:F377)</f>
+        <f t="shared" si="6"/>
         <v>1200985853</v>
       </c>
     </row>
@@ -20625,7 +20607,7 @@
         <v>306148</v>
       </c>
       <c r="G378" s="2">
-        <f>SUM(C378:F378)</f>
+        <f t="shared" si="6"/>
         <v>915420746</v>
       </c>
     </row>
@@ -20649,7 +20631,7 @@
         <v>28297941</v>
       </c>
       <c r="G379" s="2">
-        <f>SUM(C379:F379)</f>
+        <f t="shared" si="6"/>
         <v>546760885</v>
       </c>
     </row>
@@ -20673,7 +20655,7 @@
         <v>6134408</v>
       </c>
       <c r="G380" s="2">
-        <f>SUM(C380:F380)</f>
+        <f t="shared" si="6"/>
         <v>1210333303</v>
       </c>
     </row>
@@ -20697,7 +20679,7 @@
         <v>679814</v>
       </c>
       <c r="G381" s="2">
-        <f>SUM(C381:F381)</f>
+        <f t="shared" si="6"/>
         <v>1590440955</v>
       </c>
     </row>
@@ -20721,7 +20703,7 @@
         <v>113957</v>
       </c>
       <c r="G382" s="2">
-        <f>SUM(C382:F382)</f>
+        <f t="shared" si="6"/>
         <v>1513110012</v>
       </c>
     </row>
@@ -20745,7 +20727,7 @@
         <v>19083</v>
       </c>
       <c r="G383" s="2">
-        <f>SUM(C383:F383)</f>
+        <f t="shared" si="6"/>
         <v>234303688</v>
       </c>
     </row>
@@ -20769,7 +20751,7 @@
         <v>149282</v>
       </c>
       <c r="G384" s="2">
-        <f>SUM(C384:F384)</f>
+        <f t="shared" si="6"/>
         <v>436755374</v>
       </c>
     </row>
@@ -20793,7 +20775,7 @@
         <v>1772387</v>
       </c>
       <c r="G385" s="2">
-        <f>SUM(C385:F385)</f>
+        <f t="shared" si="6"/>
         <v>3063279476</v>
       </c>
     </row>
@@ -20817,7 +20799,7 @@
         <v>207142</v>
       </c>
       <c r="G386" s="2">
-        <f>SUM(C386:F386)</f>
+        <f t="shared" si="6"/>
         <v>1149372236</v>
       </c>
     </row>
@@ -20841,7 +20823,7 @@
         <v>725567</v>
       </c>
       <c r="G387" s="2">
-        <f>SUM(C387:F387)</f>
+        <f t="shared" si="6"/>
         <v>2615577538</v>
       </c>
     </row>
@@ -20865,7 +20847,7 @@
         <v>35215771</v>
       </c>
       <c r="G388" s="2">
-        <f>SUM(C388:F388)</f>
+        <f t="shared" si="6"/>
         <v>4905628949</v>
       </c>
     </row>
@@ -20889,7 +20871,7 @@
         <v>189412</v>
       </c>
       <c r="G389" s="2">
-        <f>SUM(C389:F389)</f>
+        <f t="shared" si="6"/>
         <v>949770608</v>
       </c>
     </row>
@@ -20913,7 +20895,7 @@
         <v>4725</v>
       </c>
       <c r="G390" s="2">
-        <f>SUM(C390:F390)</f>
+        <f t="shared" si="6"/>
         <v>285637142</v>
       </c>
     </row>
@@ -20937,7 +20919,7 @@
         <v>3749</v>
       </c>
       <c r="G391" s="2">
-        <f>SUM(C391:F391)</f>
+        <f t="shared" si="6"/>
         <v>187338449</v>
       </c>
     </row>
@@ -20961,7 +20943,7 @@
         <v>97787</v>
       </c>
       <c r="G392" s="2">
-        <f>SUM(C392:F392)</f>
+        <f t="shared" si="6"/>
         <v>1007199870</v>
       </c>
     </row>
@@ -20985,7 +20967,7 @@
         <v>229235</v>
       </c>
       <c r="G393" s="2">
-        <f>SUM(C393:F393)</f>
+        <f t="shared" si="6"/>
         <v>1387883969</v>
       </c>
     </row>
@@ -21009,7 +20991,7 @@
         <v>388268</v>
       </c>
       <c r="G394" s="2">
-        <f>SUM(C394:F394)</f>
+        <f t="shared" si="6"/>
         <v>1456711629</v>
       </c>
     </row>
@@ -21033,7 +21015,7 @@
         <v>37299284</v>
       </c>
       <c r="G395" s="2">
-        <f>SUM(C395:F395)</f>
+        <f t="shared" si="6"/>
         <v>6631739882</v>
       </c>
     </row>
@@ -21057,7 +21039,7 @@
         <v>36777</v>
       </c>
       <c r="G396" s="2">
-        <f>SUM(C396:F396)</f>
+        <f t="shared" si="6"/>
         <v>1123917796</v>
       </c>
     </row>
@@ -21081,7 +21063,7 @@
         <v>834379</v>
       </c>
       <c r="G397" s="2">
-        <f>SUM(C397:F397)</f>
+        <f t="shared" si="6"/>
         <v>2481815343</v>
       </c>
     </row>
@@ -21105,7 +21087,7 @@
         <v>20934</v>
       </c>
       <c r="G398" s="2">
-        <f>SUM(C398:F398)</f>
+        <f t="shared" si="6"/>
         <v>404141906</v>
       </c>
     </row>
@@ -21129,7 +21111,7 @@
         <v>1036906</v>
       </c>
       <c r="G399" s="2">
-        <f>SUM(C399:F399)</f>
+        <f t="shared" si="6"/>
         <v>2618385865</v>
       </c>
     </row>
@@ -21153,7 +21135,7 @@
         <v>2512634</v>
       </c>
       <c r="G400" s="2">
-        <f>SUM(C400:F400)</f>
+        <f t="shared" si="6"/>
         <v>2893775598</v>
       </c>
     </row>
@@ -21177,7 +21159,7 @@
         <v>21083</v>
       </c>
       <c r="G401" s="2">
-        <f>SUM(C401:F401)</f>
+        <f t="shared" si="6"/>
         <v>219174868</v>
       </c>
     </row>
@@ -21201,7 +21183,7 @@
         <v>11735599</v>
       </c>
       <c r="G402" s="2">
-        <f>SUM(C402:F402)</f>
+        <f t="shared" si="6"/>
         <v>6042222034</v>
       </c>
     </row>
@@ -21225,7 +21207,7 @@
         <v>10957</v>
       </c>
       <c r="G403" s="2">
-        <f>SUM(C403:F403)</f>
+        <f t="shared" si="6"/>
         <v>244615692</v>
       </c>
     </row>
@@ -21249,7 +21231,7 @@
         <v>32072815</v>
       </c>
       <c r="G404" s="2">
-        <f>SUM(C404:F404)</f>
+        <f t="shared" si="6"/>
         <v>1555305092</v>
       </c>
     </row>
@@ -21273,7 +21255,7 @@
         <v>57332</v>
       </c>
       <c r="G405" s="2">
-        <f>SUM(C405:F405)</f>
+        <f t="shared" si="6"/>
         <v>524672620</v>
       </c>
     </row>
@@ -21297,7 +21279,7 @@
         <v>2284</v>
       </c>
       <c r="G406" s="2">
-        <f>SUM(C406:F406)</f>
+        <f t="shared" si="6"/>
         <v>392593161</v>
       </c>
     </row>
@@ -21321,7 +21303,7 @@
         <v>444468</v>
       </c>
       <c r="G407" s="2">
-        <f>SUM(C407:F407)</f>
+        <f t="shared" si="6"/>
         <v>764568416</v>
       </c>
     </row>
@@ -21345,7 +21327,7 @@
         <v>945</v>
       </c>
       <c r="G408" s="2">
-        <f>SUM(C408:F408)</f>
+        <f t="shared" si="6"/>
         <v>239126404</v>
       </c>
     </row>
@@ -21369,7 +21351,7 @@
         <v>119186</v>
       </c>
       <c r="G409" s="2">
-        <f>SUM(C409:F409)</f>
+        <f t="shared" si="6"/>
         <v>859268830</v>
       </c>
     </row>
@@ -21393,7 +21375,7 @@
         <v>672062</v>
       </c>
       <c r="G410" s="2">
-        <f>SUM(C410:F410)</f>
+        <f t="shared" si="6"/>
         <v>352390539</v>
       </c>
     </row>
@@ -21417,7 +21399,7 @@
         <v>313368</v>
       </c>
       <c r="G411" s="2">
-        <f>SUM(C411:F411)</f>
+        <f t="shared" si="6"/>
         <v>693253189</v>
       </c>
     </row>
@@ -21441,7 +21423,7 @@
         <v>87974</v>
       </c>
       <c r="G412" s="2">
-        <f>SUM(C412:F412)</f>
+        <f t="shared" si="6"/>
         <v>651151608</v>
       </c>
     </row>
@@ -21465,7 +21447,7 @@
         <v>2622</v>
       </c>
       <c r="G413" s="2">
-        <f>SUM(C413:F413)</f>
+        <f t="shared" si="6"/>
         <v>271482644</v>
       </c>
     </row>
@@ -21489,7 +21471,7 @@
         <v>66223</v>
       </c>
       <c r="G414" s="2">
-        <f>SUM(C414:F414)</f>
+        <f t="shared" si="6"/>
         <v>594676158</v>
       </c>
     </row>
@@ -21513,7 +21495,7 @@
         <v>86810946</v>
       </c>
       <c r="G415" s="2">
-        <f>SUM(C415:F415)</f>
+        <f t="shared" si="6"/>
         <v>6140186790</v>
       </c>
     </row>
@@ -21537,7 +21519,7 @@
         <v>134469</v>
       </c>
       <c r="G416" s="2">
-        <f>SUM(C416:F416)</f>
+        <f t="shared" si="6"/>
         <v>864934378</v>
       </c>
     </row>
@@ -21561,7 +21543,7 @@
         <v>28870</v>
       </c>
       <c r="G417" s="2">
-        <f>SUM(C417:F417)</f>
+        <f t="shared" si="6"/>
         <v>615516181</v>
       </c>
     </row>
@@ -21585,7 +21567,7 @@
         <v>2301811</v>
       </c>
       <c r="G418" s="2">
-        <f>SUM(C418:F418)</f>
+        <f t="shared" si="6"/>
         <v>2873765410</v>
       </c>
     </row>
@@ -21609,7 +21591,7 @@
         <v>2977820</v>
       </c>
       <c r="G419" s="2">
-        <f>SUM(C419:F419)</f>
+        <f t="shared" ref="G419:G482" si="7">SUM(C419:F419)</f>
         <v>881906790</v>
       </c>
     </row>
@@ -21633,7 +21615,7 @@
         <v>112934</v>
       </c>
       <c r="G420" s="2">
-        <f>SUM(C420:F420)</f>
+        <f t="shared" si="7"/>
         <v>534886010</v>
       </c>
     </row>
@@ -21657,7 +21639,7 @@
         <v>2398</v>
       </c>
       <c r="G421" s="2">
-        <f>SUM(C421:F421)</f>
+        <f t="shared" si="7"/>
         <v>252898908</v>
       </c>
     </row>
@@ -21681,7 +21663,7 @@
         <v>124622066</v>
       </c>
       <c r="G422" s="2">
-        <f>SUM(C422:F422)</f>
+        <f t="shared" si="7"/>
         <v>5877347489</v>
       </c>
     </row>
@@ -21705,7 +21687,7 @@
         <v>149037752</v>
       </c>
       <c r="G423" s="2">
-        <f>SUM(C423:F423)</f>
+        <f t="shared" si="7"/>
         <v>9049971794</v>
       </c>
     </row>
@@ -21729,7 +21711,7 @@
         <v>41634380</v>
       </c>
       <c r="G424" s="2">
-        <f>SUM(C424:F424)</f>
+        <f t="shared" si="7"/>
         <v>5907272879</v>
       </c>
     </row>
@@ -21753,7 +21735,7 @@
         <v>1954</v>
       </c>
       <c r="G425" s="2">
-        <f>SUM(C425:F425)</f>
+        <f t="shared" si="7"/>
         <v>228080940</v>
       </c>
     </row>
@@ -21777,7 +21759,7 @@
         <v>112044</v>
       </c>
       <c r="G426" s="2">
-        <f>SUM(C426:F426)</f>
+        <f t="shared" si="7"/>
         <v>985763491</v>
       </c>
     </row>
@@ -21801,7 +21783,7 @@
         <v>53710793</v>
       </c>
       <c r="G427" s="2">
-        <f>SUM(C427:F427)</f>
+        <f t="shared" si="7"/>
         <v>871853207</v>
       </c>
     </row>
@@ -21825,7 +21807,7 @@
         <v>1059150</v>
       </c>
       <c r="G428" s="2">
-        <f>SUM(C428:F428)</f>
+        <f t="shared" si="7"/>
         <v>2416977794</v>
       </c>
     </row>
@@ -21849,7 +21831,7 @@
         <v>7945</v>
       </c>
       <c r="G429" s="2">
-        <f>SUM(C429:F429)</f>
+        <f t="shared" si="7"/>
         <v>280508722</v>
       </c>
     </row>
@@ -21873,7 +21855,7 @@
         <v>2284</v>
       </c>
       <c r="G430" s="2">
-        <f>SUM(C430:F430)</f>
+        <f t="shared" si="7"/>
         <v>373518982</v>
       </c>
     </row>
@@ -21897,7 +21879,7 @@
         <v>3206505</v>
       </c>
       <c r="G431" s="2">
-        <f>SUM(C431:F431)</f>
+        <f t="shared" si="7"/>
         <v>3160623784</v>
       </c>
     </row>
@@ -21921,7 +21903,7 @@
         <v>34573183</v>
       </c>
       <c r="G432" s="2">
-        <f>SUM(C432:F432)</f>
+        <f t="shared" si="7"/>
         <v>5568758343</v>
       </c>
     </row>
@@ -21945,7 +21927,7 @@
         <v>2427213</v>
       </c>
       <c r="G433" s="2">
-        <f>SUM(C433:F433)</f>
+        <f t="shared" si="7"/>
         <v>1952116364</v>
       </c>
     </row>
@@ -21969,7 +21951,7 @@
         <v>15705017</v>
       </c>
       <c r="G434" s="2">
-        <f>SUM(C434:F434)</f>
+        <f t="shared" si="7"/>
         <v>1369351065</v>
       </c>
     </row>
@@ -21993,7 +21975,7 @@
         <v>1580019</v>
       </c>
       <c r="G435" s="2">
-        <f>SUM(C435:F435)</f>
+        <f t="shared" si="7"/>
         <v>2002318544</v>
       </c>
     </row>
@@ -22017,7 +21999,7 @@
         <v>173745</v>
       </c>
       <c r="G436" s="2">
-        <f>SUM(C436:F436)</f>
+        <f t="shared" si="7"/>
         <v>304052066</v>
       </c>
     </row>
@@ -22041,7 +22023,7 @@
         <v>3492</v>
       </c>
       <c r="G437" s="2">
-        <f>SUM(C437:F437)</f>
+        <f t="shared" si="7"/>
         <v>268595216</v>
       </c>
     </row>
@@ -22065,7 +22047,7 @@
         <v>50103</v>
       </c>
       <c r="G438" s="2">
-        <f>SUM(C438:F438)</f>
+        <f t="shared" si="7"/>
         <v>626092467</v>
       </c>
     </row>
@@ -22089,7 +22071,7 @@
         <v>337339</v>
       </c>
       <c r="G439" s="2">
-        <f>SUM(C439:F439)</f>
+        <f t="shared" si="7"/>
         <v>1032139382</v>
       </c>
     </row>
@@ -22113,7 +22095,7 @@
         <v>126240</v>
       </c>
       <c r="G440" s="2">
-        <f>SUM(C440:F440)</f>
+        <f t="shared" si="7"/>
         <v>604908703</v>
       </c>
     </row>
@@ -22137,7 +22119,7 @@
         <v>283972</v>
       </c>
       <c r="G441" s="2">
-        <f>SUM(C441:F441)</f>
+        <f t="shared" si="7"/>
         <v>474522681</v>
       </c>
     </row>
@@ -22161,7 +22143,7 @@
         <v>20886</v>
       </c>
       <c r="G442" s="2">
-        <f>SUM(C442:F442)</f>
+        <f t="shared" si="7"/>
         <v>488671093</v>
       </c>
     </row>
@@ -22185,7 +22167,7 @@
         <v>6622265</v>
       </c>
       <c r="G443" s="2">
-        <f>SUM(C443:F443)</f>
+        <f t="shared" si="7"/>
         <v>5261625719</v>
       </c>
     </row>
@@ -22209,7 +22191,7 @@
         <v>33056528</v>
       </c>
       <c r="G444" s="2">
-        <f>SUM(C444:F444)</f>
+        <f t="shared" si="7"/>
         <v>5494437515</v>
       </c>
     </row>
@@ -22233,7 +22215,7 @@
         <v>41016535</v>
       </c>
       <c r="G445" s="2">
-        <f>SUM(C445:F445)</f>
+        <f t="shared" si="7"/>
         <v>4428773347</v>
       </c>
     </row>
@@ -22257,7 +22239,7 @@
         <v>131286</v>
       </c>
       <c r="G446" s="2">
-        <f>SUM(C446:F446)</f>
+        <f t="shared" si="7"/>
         <v>1425313245</v>
       </c>
     </row>
@@ -22281,7 +22263,7 @@
         <v>1153246</v>
       </c>
       <c r="G447" s="2">
-        <f>SUM(C447:F447)</f>
+        <f t="shared" si="7"/>
         <v>1164560176</v>
       </c>
     </row>
@@ -22305,7 +22287,7 @@
         <v>658407</v>
       </c>
       <c r="G448" s="2">
-        <f>SUM(C448:F448)</f>
+        <f t="shared" si="7"/>
         <v>1626472289</v>
       </c>
     </row>
@@ -22329,7 +22311,7 @@
         <v>2153199</v>
       </c>
       <c r="G449" s="2">
-        <f>SUM(C449:F449)</f>
+        <f t="shared" si="7"/>
         <v>2050276734</v>
       </c>
     </row>
@@ -22353,7 +22335,7 @@
         <v>3435428</v>
       </c>
       <c r="G450" s="2">
-        <f>SUM(C450:F450)</f>
+        <f t="shared" si="7"/>
         <v>3366828073</v>
       </c>
     </row>
@@ -22377,7 +22359,7 @@
         <v>3550</v>
       </c>
       <c r="G451" s="2">
-        <f>SUM(C451:F451)</f>
+        <f t="shared" si="7"/>
         <v>180767851</v>
       </c>
     </row>
@@ -22401,7 +22383,7 @@
         <v>6812</v>
       </c>
       <c r="G452" s="2">
-        <f>SUM(C452:F452)</f>
+        <f t="shared" si="7"/>
         <v>363379436</v>
       </c>
     </row>
@@ -22425,7 +22407,7 @@
         <v>145755</v>
       </c>
       <c r="G453" s="2">
-        <f>SUM(C453:F453)</f>
+        <f t="shared" si="7"/>
         <v>414817059</v>
       </c>
     </row>
@@ -22449,7 +22431,7 @@
         <v>5216</v>
       </c>
       <c r="G454" s="2">
-        <f>SUM(C454:F454)</f>
+        <f t="shared" si="7"/>
         <v>267487594</v>
       </c>
     </row>
@@ -22473,7 +22455,7 @@
         <v>32356306</v>
       </c>
       <c r="G455" s="2">
-        <f>SUM(C455:F455)</f>
+        <f t="shared" si="7"/>
         <v>576170925</v>
       </c>
     </row>
@@ -22497,7 +22479,7 @@
         <v>3572502</v>
       </c>
       <c r="G456" s="2">
-        <f>SUM(C456:F456)</f>
+        <f t="shared" si="7"/>
         <v>549172278</v>
       </c>
     </row>
@@ -22521,7 +22503,7 @@
         <v>21000536</v>
       </c>
       <c r="G457" s="2">
-        <f>SUM(C457:F457)</f>
+        <f t="shared" si="7"/>
         <v>2325920209</v>
       </c>
     </row>
@@ -22545,7 +22527,7 @@
         <v>7725483</v>
       </c>
       <c r="G458" s="2">
-        <f>SUM(C458:F458)</f>
+        <f t="shared" si="7"/>
         <v>2092596206</v>
       </c>
     </row>
@@ -22569,7 +22551,7 @@
         <v>455000</v>
       </c>
       <c r="G459" s="2">
-        <f>SUM(C459:F459)</f>
+        <f t="shared" si="7"/>
         <v>740240987</v>
       </c>
     </row>
@@ -22593,7 +22575,7 @@
         <v>1229766</v>
       </c>
       <c r="G460" s="2">
-        <f>SUM(C460:F460)</f>
+        <f t="shared" si="7"/>
         <v>1511336038</v>
       </c>
     </row>
@@ -22617,7 +22599,7 @@
         <v>43659</v>
       </c>
       <c r="G461" s="2">
-        <f>SUM(C461:F461)</f>
+        <f t="shared" si="7"/>
         <v>1195623533</v>
       </c>
     </row>
@@ -22641,7 +22623,7 @@
         <v>7731297</v>
       </c>
       <c r="G462" s="2">
-        <f>SUM(C462:F462)</f>
+        <f t="shared" si="7"/>
         <v>2641908756</v>
       </c>
     </row>
@@ -22665,7 +22647,7 @@
         <v>96242</v>
       </c>
       <c r="G463" s="2">
-        <f>SUM(C463:F463)</f>
+        <f t="shared" si="7"/>
         <v>921533416</v>
       </c>
     </row>
@@ -22689,7 +22671,7 @@
         <v>318032</v>
       </c>
       <c r="G464" s="2">
-        <f>SUM(C464:F464)</f>
+        <f t="shared" si="7"/>
         <v>354452275</v>
       </c>
     </row>
@@ -22713,7 +22695,7 @@
         <v>30538251</v>
       </c>
       <c r="G465" s="2">
-        <f>SUM(C465:F465)</f>
+        <f t="shared" si="7"/>
         <v>2651947261</v>
       </c>
     </row>
@@ -22737,7 +22719,7 @@
         <v>1160732</v>
       </c>
       <c r="G466" s="2">
-        <f>SUM(C466:F466)</f>
+        <f t="shared" si="7"/>
         <v>3596895025</v>
       </c>
     </row>
@@ -22761,7 +22743,7 @@
         <v>1352443</v>
       </c>
       <c r="G467" s="2">
-        <f>SUM(C467:F467)</f>
+        <f t="shared" si="7"/>
         <v>1384027736</v>
       </c>
     </row>
@@ -22785,7 +22767,7 @@
         <v>33031819</v>
       </c>
       <c r="G468" s="2">
-        <f>SUM(C468:F468)</f>
+        <f t="shared" si="7"/>
         <v>4577237917</v>
       </c>
     </row>
@@ -22809,7 +22791,7 @@
         <v>164054</v>
       </c>
       <c r="G469" s="2">
-        <f>SUM(C469:F469)</f>
+        <f t="shared" si="7"/>
         <v>764844700</v>
       </c>
     </row>
@@ -22833,7 +22815,7 @@
         <v>6813</v>
       </c>
       <c r="G470" s="2">
-        <f>SUM(C470:F470)</f>
+        <f t="shared" si="7"/>
         <v>531913067</v>
       </c>
     </row>
@@ -22857,7 +22839,7 @@
         <v>1695455</v>
       </c>
       <c r="G471" s="2">
-        <f>SUM(C471:F471)</f>
+        <f t="shared" si="7"/>
         <v>850393501</v>
       </c>
     </row>
@@ -22881,7 +22863,7 @@
         <v>108028892</v>
       </c>
       <c r="G472" s="2">
-        <f>SUM(C472:F472)</f>
+        <f t="shared" si="7"/>
         <v>11457138081</v>
       </c>
     </row>
@@ -22905,7 +22887,7 @@
         <v>92504</v>
       </c>
       <c r="G473" s="2">
-        <f>SUM(C473:F473)</f>
+        <f t="shared" si="7"/>
         <v>696132018</v>
       </c>
     </row>
@@ -22929,7 +22911,7 @@
         <v>10757</v>
       </c>
       <c r="G474" s="2">
-        <f>SUM(C474:F474)</f>
+        <f t="shared" si="7"/>
         <v>261328260</v>
       </c>
     </row>
@@ -22953,7 +22935,7 @@
         <v>860</v>
       </c>
       <c r="G475" s="2">
-        <f>SUM(C475:F475)</f>
+        <f t="shared" si="7"/>
         <v>349000419</v>
       </c>
     </row>
@@ -22977,7 +22959,7 @@
         <v>328701</v>
       </c>
       <c r="G476" s="2">
-        <f>SUM(C476:F476)</f>
+        <f t="shared" si="7"/>
         <v>794776747</v>
       </c>
     </row>
@@ -23001,7 +22983,7 @@
         <v>55427</v>
       </c>
       <c r="G477" s="2">
-        <f>SUM(C477:F477)</f>
+        <f t="shared" si="7"/>
         <v>1080912566</v>
       </c>
     </row>
@@ -23025,7 +23007,7 @@
         <v>2801376</v>
       </c>
       <c r="G478" s="2">
-        <f>SUM(C478:F478)</f>
+        <f t="shared" si="7"/>
         <v>2531044147</v>
       </c>
     </row>
@@ -23049,7 +23031,7 @@
         <v>3993828</v>
       </c>
       <c r="G479" s="2">
-        <f>SUM(C479:F479)</f>
+        <f t="shared" si="7"/>
         <v>918971366</v>
       </c>
     </row>
@@ -23073,7 +23055,7 @@
         <v>296827</v>
       </c>
       <c r="G480" s="2">
-        <f>SUM(C480:F480)</f>
+        <f t="shared" si="7"/>
         <v>367134468</v>
       </c>
     </row>
@@ -23097,7 +23079,7 @@
         <v>170404</v>
       </c>
       <c r="G481" s="2">
-        <f>SUM(C481:F481)</f>
+        <f t="shared" si="7"/>
         <v>1164261212</v>
       </c>
     </row>
@@ -23121,7 +23103,7 @@
         <v>313028</v>
       </c>
       <c r="G482" s="2">
-        <f>SUM(C482:F482)</f>
+        <f t="shared" si="7"/>
         <v>2259241392</v>
       </c>
     </row>
@@ -23145,7 +23127,7 @@
         <v>751417</v>
       </c>
       <c r="G483" s="2">
-        <f>SUM(C483:F483)</f>
+        <f t="shared" ref="G483:G546" si="8">SUM(C483:F483)</f>
         <v>781959150</v>
       </c>
     </row>
@@ -23169,7 +23151,7 @@
         <v>1145943</v>
       </c>
       <c r="G484" s="2">
-        <f>SUM(C484:F484)</f>
+        <f t="shared" si="8"/>
         <v>1659408604</v>
       </c>
     </row>
@@ -23193,7 +23175,7 @@
         <v>172958</v>
       </c>
       <c r="G485" s="2">
-        <f>SUM(C485:F485)</f>
+        <f t="shared" si="8"/>
         <v>843713518</v>
       </c>
     </row>
@@ -23217,7 +23199,7 @@
         <v>21086375</v>
       </c>
       <c r="G486" s="2">
-        <f>SUM(C486:F486)</f>
+        <f t="shared" si="8"/>
         <v>3249702565</v>
       </c>
     </row>
@@ -23241,7 +23223,7 @@
         <v>6233996</v>
       </c>
       <c r="G487" s="2">
-        <f>SUM(C487:F487)</f>
+        <f t="shared" si="8"/>
         <v>6551300181</v>
       </c>
     </row>
@@ -23265,7 +23247,7 @@
         <v>20813</v>
       </c>
       <c r="G488" s="2">
-        <f>SUM(C488:F488)</f>
+        <f t="shared" si="8"/>
         <v>205351462</v>
       </c>
     </row>
@@ -23289,7 +23271,7 @@
         <v>30531980</v>
       </c>
       <c r="G489" s="2">
-        <f>SUM(C489:F489)</f>
+        <f t="shared" si="8"/>
         <v>1876848963</v>
       </c>
     </row>
@@ -23313,7 +23295,7 @@
         <v>69700006</v>
       </c>
       <c r="G490" s="2">
-        <f>SUM(C490:F490)</f>
+        <f t="shared" si="8"/>
         <v>5528941300</v>
       </c>
     </row>
@@ -23337,7 +23319,7 @@
         <v>491854</v>
       </c>
       <c r="G491" s="2">
-        <f>SUM(C491:F491)</f>
+        <f t="shared" si="8"/>
         <v>1257691318</v>
       </c>
     </row>
@@ -23361,7 +23343,7 @@
         <v>1658656</v>
       </c>
       <c r="G492" s="2">
-        <f>SUM(C492:F492)</f>
+        <f t="shared" si="8"/>
         <v>2682474421</v>
       </c>
     </row>
@@ -23385,7 +23367,7 @@
         <v>232195</v>
       </c>
       <c r="G493" s="2">
-        <f>SUM(C493:F493)</f>
+        <f t="shared" si="8"/>
         <v>2354300699</v>
       </c>
     </row>
@@ -23409,7 +23391,7 @@
         <v>2615830</v>
       </c>
       <c r="G494" s="2">
-        <f>SUM(C494:F494)</f>
+        <f t="shared" si="8"/>
         <v>2745638149</v>
       </c>
     </row>
@@ -23433,7 +23415,7 @@
         <v>252636</v>
       </c>
       <c r="G495" s="2">
-        <f>SUM(C495:F495)</f>
+        <f t="shared" si="8"/>
         <v>1441319036</v>
       </c>
     </row>
@@ -23457,7 +23439,7 @@
         <v>50938196</v>
       </c>
       <c r="G496" s="2">
-        <f>SUM(C496:F496)</f>
+        <f t="shared" si="8"/>
         <v>9185604318</v>
       </c>
     </row>
@@ -23481,7 +23463,7 @@
         <v>6406316</v>
       </c>
       <c r="G497" s="2">
-        <f>SUM(C497:F497)</f>
+        <f t="shared" si="8"/>
         <v>1723241523</v>
       </c>
     </row>
@@ -23505,7 +23487,7 @@
         <v>29962</v>
       </c>
       <c r="G498" s="2">
-        <f>SUM(C498:F498)</f>
+        <f t="shared" si="8"/>
         <v>1173396036</v>
       </c>
     </row>
@@ -23529,7 +23511,7 @@
         <v>1550547</v>
       </c>
       <c r="G499" s="2">
-        <f>SUM(C499:F499)</f>
+        <f t="shared" si="8"/>
         <v>857687043</v>
       </c>
     </row>
@@ -23553,7 +23535,7 @@
         <v>27080</v>
       </c>
       <c r="G500" s="2">
-        <f>SUM(C500:F500)</f>
+        <f t="shared" si="8"/>
         <v>1229803825</v>
       </c>
     </row>
@@ -23577,7 +23559,7 @@
         <v>1453874</v>
       </c>
       <c r="G501" s="2">
-        <f>SUM(C501:F501)</f>
+        <f t="shared" si="8"/>
         <v>2349658868</v>
       </c>
     </row>
@@ -23601,7 +23583,7 @@
         <v>138483</v>
       </c>
       <c r="G502" s="2">
-        <f>SUM(C502:F502)</f>
+        <f t="shared" si="8"/>
         <v>262366580</v>
       </c>
     </row>
@@ -23625,7 +23607,7 @@
         <v>4760</v>
       </c>
       <c r="G503" s="2">
-        <f>SUM(C503:F503)</f>
+        <f t="shared" si="8"/>
         <v>281460312</v>
       </c>
     </row>
@@ -23649,7 +23631,7 @@
         <v>209498</v>
       </c>
       <c r="G504" s="2">
-        <f>SUM(C504:F504)</f>
+        <f t="shared" si="8"/>
         <v>1231577391</v>
       </c>
     </row>
@@ -23673,7 +23655,7 @@
         <v>295708</v>
       </c>
       <c r="G505" s="2">
-        <f>SUM(C505:F505)</f>
+        <f t="shared" si="8"/>
         <v>425192840</v>
       </c>
     </row>
@@ -23697,7 +23679,7 @@
         <v>977190</v>
       </c>
       <c r="G506" s="2">
-        <f>SUM(C506:F506)</f>
+        <f t="shared" si="8"/>
         <v>1957435516</v>
       </c>
     </row>
@@ -23721,7 +23703,7 @@
         <v>57222113</v>
       </c>
       <c r="G507" s="2">
-        <f>SUM(C507:F507)</f>
+        <f t="shared" si="8"/>
         <v>5123379646</v>
       </c>
     </row>
@@ -23745,7 +23727,7 @@
         <v>55781165</v>
       </c>
       <c r="G508" s="2">
-        <f>SUM(C508:F508)</f>
+        <f t="shared" si="8"/>
         <v>983813777</v>
       </c>
     </row>
@@ -23769,7 +23751,7 @@
         <v>274467</v>
       </c>
       <c r="G509" s="2">
-        <f>SUM(C509:F509)</f>
+        <f t="shared" si="8"/>
         <v>642859102</v>
       </c>
     </row>
@@ -23793,7 +23775,7 @@
         <v>42348005</v>
       </c>
       <c r="G510" s="2">
-        <f>SUM(C510:F510)</f>
+        <f t="shared" si="8"/>
         <v>1787594650</v>
       </c>
     </row>
@@ -23817,7 +23799,7 @@
         <v>959090</v>
       </c>
       <c r="G511" s="2">
-        <f>SUM(C511:F511)</f>
+        <f t="shared" si="8"/>
         <v>663166891</v>
       </c>
     </row>
@@ -23841,7 +23823,7 @@
         <v>647054</v>
       </c>
       <c r="G512" s="2">
-        <f>SUM(C512:F512)</f>
+        <f t="shared" si="8"/>
         <v>756026885</v>
       </c>
     </row>
@@ -23865,7 +23847,7 @@
         <v>7931090</v>
       </c>
       <c r="G513" s="2">
-        <f>SUM(C513:F513)</f>
+        <f t="shared" si="8"/>
         <v>3666141754</v>
       </c>
     </row>
@@ -23889,7 +23871,7 @@
         <v>16837421</v>
       </c>
       <c r="G514" s="2">
-        <f>SUM(C514:F514)</f>
+        <f t="shared" si="8"/>
         <v>2899545478</v>
       </c>
     </row>
@@ -23913,7 +23895,7 @@
         <v>34110</v>
       </c>
       <c r="G515" s="2">
-        <f>SUM(C515:F515)</f>
+        <f t="shared" si="8"/>
         <v>329197305</v>
       </c>
     </row>
@@ -23937,7 +23919,7 @@
         <v>463325</v>
       </c>
       <c r="G516" s="2">
-        <f>SUM(C516:F516)</f>
+        <f t="shared" si="8"/>
         <v>739473524</v>
       </c>
     </row>
@@ -23961,7 +23943,7 @@
         <v>549054</v>
       </c>
       <c r="G517" s="2">
-        <f>SUM(C517:F517)</f>
+        <f t="shared" si="8"/>
         <v>1835430580</v>
       </c>
     </row>
@@ -23985,7 +23967,7 @@
         <v>2218</v>
       </c>
       <c r="G518" s="2">
-        <f>SUM(C518:F518)</f>
+        <f t="shared" si="8"/>
         <v>219177638</v>
       </c>
     </row>
@@ -24009,7 +23991,7 @@
         <v>2336810</v>
       </c>
       <c r="G519" s="2">
-        <f>SUM(C519:F519)</f>
+        <f t="shared" si="8"/>
         <v>1561370148</v>
       </c>
     </row>
@@ -24033,7 +24015,7 @@
         <v>5365</v>
       </c>
       <c r="G520" s="2">
-        <f>SUM(C520:F520)</f>
+        <f t="shared" si="8"/>
         <v>418418194</v>
       </c>
     </row>
@@ -24057,7 +24039,7 @@
         <v>5216</v>
       </c>
       <c r="G521" s="2">
-        <f>SUM(C521:F521)</f>
+        <f t="shared" si="8"/>
         <v>239985564</v>
       </c>
     </row>
@@ -24081,7 +24063,7 @@
         <v>5225000</v>
       </c>
       <c r="G522" s="2">
-        <f>SUM(C522:F522)</f>
+        <f t="shared" si="8"/>
         <v>2658538535</v>
       </c>
     </row>
@@ -24105,7 +24087,7 @@
         <v>3969631</v>
       </c>
       <c r="G523" s="2">
-        <f>SUM(C523:F523)</f>
+        <f t="shared" si="8"/>
         <v>2558117812</v>
       </c>
     </row>
@@ -24129,7 +24111,7 @@
         <v>176485</v>
       </c>
       <c r="G524" s="2">
-        <f>SUM(C524:F524)</f>
+        <f t="shared" si="8"/>
         <v>524457396</v>
       </c>
     </row>
@@ -24153,7 +24135,7 @@
         <v>130435216</v>
       </c>
       <c r="G525" s="2">
-        <f>SUM(C525:F525)</f>
+        <f t="shared" si="8"/>
         <v>5712845066</v>
       </c>
     </row>
@@ -24177,7 +24159,7 @@
         <v>81398097</v>
       </c>
       <c r="G526" s="2">
-        <f>SUM(C526:F526)</f>
+        <f t="shared" si="8"/>
         <v>8509670780</v>
       </c>
     </row>
@@ -24201,7 +24183,7 @@
         <v>39574720</v>
       </c>
       <c r="G527" s="2">
-        <f>SUM(C527:F527)</f>
+        <f t="shared" si="8"/>
         <v>6399840566</v>
       </c>
     </row>
@@ -24225,7 +24207,7 @@
         <v>30421377</v>
       </c>
       <c r="G528" s="2">
-        <f>SUM(C528:F528)</f>
+        <f t="shared" si="8"/>
         <v>2291988912</v>
       </c>
     </row>
@@ -24249,7 +24231,7 @@
         <v>107482</v>
       </c>
       <c r="G529" s="2">
-        <f>SUM(C529:F529)</f>
+        <f t="shared" si="8"/>
         <v>582224369</v>
       </c>
     </row>
@@ -24273,7 +24255,7 @@
         <v>22330</v>
       </c>
       <c r="G530" s="2">
-        <f>SUM(C530:F530)</f>
+        <f t="shared" si="8"/>
         <v>254483847</v>
       </c>
     </row>
@@ -24297,7 +24279,7 @@
         <v>70648</v>
       </c>
       <c r="G531" s="2">
-        <f>SUM(C531:F531)</f>
+        <f t="shared" si="8"/>
         <v>492234630</v>
       </c>
     </row>
@@ -24321,7 +24303,7 @@
         <v>64797</v>
       </c>
       <c r="G532" s="2">
-        <f>SUM(C532:F532)</f>
+        <f t="shared" si="8"/>
         <v>573986390</v>
       </c>
     </row>
@@ -24345,7 +24327,7 @@
         <v>39199772</v>
       </c>
       <c r="G533" s="2">
-        <f>SUM(C533:F533)</f>
+        <f t="shared" si="8"/>
         <v>7016395631</v>
       </c>
     </row>
@@ -24369,7 +24351,7 @@
         <v>1321553</v>
       </c>
       <c r="G534" s="2">
-        <f>SUM(C534:F534)</f>
+        <f t="shared" si="8"/>
         <v>1204652357</v>
       </c>
     </row>
@@ -24393,7 +24375,7 @@
         <v>21614</v>
       </c>
       <c r="G535" s="2">
-        <f>SUM(C535:F535)</f>
+        <f t="shared" si="8"/>
         <v>583164256</v>
       </c>
     </row>
@@ -24417,7 +24399,7 @@
         <v>340075</v>
       </c>
       <c r="G536" s="2">
-        <f>SUM(C536:F536)</f>
+        <f t="shared" si="8"/>
         <v>827766630</v>
       </c>
     </row>
@@ -24441,7 +24423,7 @@
         <v>1805142</v>
       </c>
       <c r="G537" s="2">
-        <f>SUM(C537:F537)</f>
+        <f t="shared" si="8"/>
         <v>1217594902</v>
       </c>
     </row>
@@ -24465,7 +24447,7 @@
         <v>678528</v>
       </c>
       <c r="G538" s="2">
-        <f>SUM(C538:F538)</f>
+        <f t="shared" si="8"/>
         <v>1195779742</v>
       </c>
     </row>
@@ -24489,7 +24471,7 @@
         <v>2476836</v>
       </c>
       <c r="G539" s="2">
-        <f>SUM(C539:F539)</f>
+        <f t="shared" si="8"/>
         <v>696451464</v>
       </c>
     </row>
@@ -24513,7 +24495,7 @@
         <v>1092371</v>
       </c>
       <c r="G540" s="2">
-        <f>SUM(C540:F540)</f>
+        <f t="shared" si="8"/>
         <v>3294380715</v>
       </c>
     </row>
@@ -24537,7 +24519,7 @@
         <v>4419736</v>
       </c>
       <c r="G541" s="2">
-        <f>SUM(C541:F541)</f>
+        <f t="shared" si="8"/>
         <v>1863614090</v>
       </c>
     </row>
@@ -24561,7 +24543,7 @@
         <v>6319</v>
       </c>
       <c r="G542" s="2">
-        <f>SUM(C542:F542)</f>
+        <f t="shared" si="8"/>
         <v>402759903</v>
       </c>
     </row>
@@ -24585,7 +24567,7 @@
         <v>1082207</v>
       </c>
       <c r="G543" s="2">
-        <f>SUM(C543:F543)</f>
+        <f t="shared" si="8"/>
         <v>1123331113</v>
       </c>
     </row>
@@ -24609,7 +24591,7 @@
         <v>2741134</v>
       </c>
       <c r="G544" s="2">
-        <f>SUM(C544:F544)</f>
+        <f t="shared" si="8"/>
         <v>1766075336</v>
       </c>
     </row>
@@ -24633,7 +24615,7 @@
         <v>2888079</v>
       </c>
       <c r="G545" s="2">
-        <f>SUM(C545:F545)</f>
+        <f t="shared" si="8"/>
         <v>1790780517</v>
       </c>
     </row>
@@ -24657,7 +24639,7 @@
         <v>676100</v>
       </c>
       <c r="G546" s="2">
-        <f>SUM(C546:F546)</f>
+        <f t="shared" si="8"/>
         <v>362895062</v>
       </c>
     </row>
@@ -24681,7 +24663,7 @@
         <v>1656553</v>
       </c>
       <c r="G547" s="2">
-        <f>SUM(C547:F547)</f>
+        <f t="shared" ref="G547:G610" si="9">SUM(C547:F547)</f>
         <v>2878415908</v>
       </c>
     </row>
@@ -24705,7 +24687,7 @@
         <v>19876703</v>
       </c>
       <c r="G548" s="2">
-        <f>SUM(C548:F548)</f>
+        <f t="shared" si="9"/>
         <v>4742315453</v>
       </c>
     </row>
@@ -24729,7 +24711,7 @@
         <v>5216</v>
       </c>
       <c r="G549" s="2">
-        <f>SUM(C549:F549)</f>
+        <f t="shared" si="9"/>
         <v>254460858</v>
       </c>
     </row>
@@ -24753,7 +24735,7 @@
         <v>876592</v>
       </c>
       <c r="G550" s="2">
-        <f>SUM(C550:F550)</f>
+        <f t="shared" si="9"/>
         <v>5247205647</v>
       </c>
     </row>
@@ -24777,7 +24759,7 @@
         <v>47495432</v>
       </c>
       <c r="G551" s="2">
-        <f>SUM(C551:F551)</f>
+        <f t="shared" si="9"/>
         <v>14506828620</v>
       </c>
     </row>
@@ -24801,7 +24783,7 @@
         <v>1051609</v>
       </c>
       <c r="G552" s="2">
-        <f>SUM(C552:F552)</f>
+        <f t="shared" si="9"/>
         <v>1089905827</v>
       </c>
     </row>
@@ -24825,7 +24807,7 @@
         <v>2218</v>
       </c>
       <c r="G553" s="2">
-        <f>SUM(C553:F553)</f>
+        <f t="shared" si="9"/>
         <v>209226902</v>
       </c>
     </row>
@@ -24849,7 +24831,7 @@
         <v>1054294</v>
       </c>
       <c r="G554" s="2">
-        <f>SUM(C554:F554)</f>
+        <f t="shared" si="9"/>
         <v>2609888347</v>
       </c>
     </row>
@@ -24873,7 +24855,7 @@
         <v>1555565</v>
       </c>
       <c r="G555" s="2">
-        <f>SUM(C555:F555)</f>
+        <f t="shared" si="9"/>
         <v>2496376328</v>
       </c>
     </row>
@@ -24897,7 +24879,7 @@
         <v>148694</v>
       </c>
       <c r="G556" s="2">
-        <f>SUM(C556:F556)</f>
+        <f t="shared" si="9"/>
         <v>1044294049</v>
       </c>
     </row>
@@ -24921,7 +24903,7 @@
         <v>4806150</v>
       </c>
       <c r="G557" s="2">
-        <f>SUM(C557:F557)</f>
+        <f t="shared" si="9"/>
         <v>3298638416</v>
       </c>
     </row>
@@ -24945,7 +24927,7 @@
         <v>224655</v>
       </c>
       <c r="G558" s="2">
-        <f>SUM(C558:F558)</f>
+        <f t="shared" si="9"/>
         <v>1219434767</v>
       </c>
     </row>
@@ -24969,7 +24951,7 @@
         <v>505819</v>
       </c>
       <c r="G559" s="2">
-        <f>SUM(C559:F559)</f>
+        <f t="shared" si="9"/>
         <v>1569252188</v>
       </c>
     </row>
@@ -24993,7 +24975,7 @@
         <v>962199</v>
       </c>
       <c r="G560" s="2">
-        <f>SUM(C560:F560)</f>
+        <f t="shared" si="9"/>
         <v>823077067</v>
       </c>
     </row>
@@ -25017,7 +24999,7 @@
         <v>21938</v>
       </c>
       <c r="G561" s="2">
-        <f>SUM(C561:F561)</f>
+        <f t="shared" si="9"/>
         <v>458816645</v>
       </c>
     </row>
@@ -25041,7 +25023,7 @@
         <v>19718</v>
       </c>
       <c r="G562" s="2">
-        <f>SUM(C562:F562)</f>
+        <f t="shared" si="9"/>
         <v>596349285</v>
       </c>
     </row>
@@ -25065,7 +25047,7 @@
         <v>123993</v>
       </c>
       <c r="G563" s="2">
-        <f>SUM(C563:F563)</f>
+        <f t="shared" si="9"/>
         <v>721035448</v>
       </c>
     </row>
@@ -25089,7 +25071,7 @@
         <v>109939877</v>
       </c>
       <c r="G564" s="2">
-        <f>SUM(C564:F564)</f>
+        <f t="shared" si="9"/>
         <v>5560587385</v>
       </c>
     </row>
@@ -25113,7 +25095,7 @@
         <v>137255</v>
       </c>
       <c r="G565" s="2">
-        <f>SUM(C565:F565)</f>
+        <f t="shared" si="9"/>
         <v>795872425</v>
       </c>
     </row>
@@ -25137,7 +25119,7 @@
         <v>120828</v>
       </c>
       <c r="G566" s="2">
-        <f>SUM(C566:F566)</f>
+        <f t="shared" si="9"/>
         <v>677059060</v>
       </c>
     </row>
@@ -25161,7 +25143,7 @@
         <v>158194</v>
       </c>
       <c r="G567" s="2">
-        <f>SUM(C567:F567)</f>
+        <f t="shared" si="9"/>
         <v>1018194524</v>
       </c>
     </row>
@@ -25185,7 +25167,7 @@
         <v>321409</v>
       </c>
       <c r="G568" s="2">
-        <f>SUM(C568:F568)</f>
+        <f t="shared" si="9"/>
         <v>505969713</v>
       </c>
     </row>
@@ -25209,7 +25191,7 @@
         <v>6712</v>
       </c>
       <c r="G569" s="2">
-        <f>SUM(C569:F569)</f>
+        <f t="shared" si="9"/>
         <v>697581908</v>
       </c>
     </row>
@@ -25233,7 +25215,7 @@
         <v>321411</v>
       </c>
       <c r="G570" s="2">
-        <f>SUM(C570:F570)</f>
+        <f t="shared" si="9"/>
         <v>323551379</v>
       </c>
     </row>
@@ -25257,7 +25239,7 @@
         <v>57097673</v>
       </c>
       <c r="G571" s="2">
-        <f>SUM(C571:F571)</f>
+        <f t="shared" si="9"/>
         <v>7568999888</v>
       </c>
     </row>
@@ -25281,7 +25263,7 @@
         <v>2938124</v>
       </c>
       <c r="G572" s="2">
-        <f>SUM(C572:F572)</f>
+        <f t="shared" si="9"/>
         <v>3017780972</v>
       </c>
     </row>
@@ -25305,7 +25287,7 @@
         <v>5356376</v>
       </c>
       <c r="G573" s="2">
-        <f>SUM(C573:F573)</f>
+        <f t="shared" si="9"/>
         <v>1821931542</v>
       </c>
     </row>
@@ -25329,7 +25311,7 @@
         <v>2851022</v>
       </c>
       <c r="G574" s="2">
-        <f>SUM(C574:F574)</f>
+        <f t="shared" si="9"/>
         <v>1871796535</v>
       </c>
     </row>
@@ -25353,7 +25335,7 @@
         <v>705589</v>
       </c>
       <c r="G575" s="2">
-        <f>SUM(C575:F575)</f>
+        <f t="shared" si="9"/>
         <v>1167947032</v>
       </c>
     </row>
@@ -25377,7 +25359,7 @@
         <v>3230209</v>
       </c>
       <c r="G576" s="2">
-        <f>SUM(C576:F576)</f>
+        <f t="shared" si="9"/>
         <v>2190531222</v>
       </c>
     </row>
@@ -25401,7 +25383,7 @@
         <v>8455335</v>
       </c>
       <c r="G577" s="2">
-        <f>SUM(C577:F577)</f>
+        <f t="shared" si="9"/>
         <v>5208346782</v>
       </c>
     </row>
@@ -25425,7 +25407,7 @@
         <v>20813</v>
       </c>
       <c r="G578" s="2">
-        <f>SUM(C578:F578)</f>
+        <f t="shared" si="9"/>
         <v>198951672</v>
       </c>
     </row>
@@ -25449,7 +25431,7 @@
         <v>34799991</v>
       </c>
       <c r="G579" s="2">
-        <f>SUM(C579:F579)</f>
+        <f t="shared" si="9"/>
         <v>620914859</v>
       </c>
     </row>
@@ -25473,7 +25455,7 @@
         <v>1640442</v>
       </c>
       <c r="G580" s="2">
-        <f>SUM(C580:F580)</f>
+        <f t="shared" si="9"/>
         <v>518186322</v>
       </c>
     </row>
@@ -25497,7 +25479,7 @@
         <v>203404</v>
       </c>
       <c r="G581" s="2">
-        <f>SUM(C581:F581)</f>
+        <f t="shared" si="9"/>
         <v>886117766</v>
       </c>
     </row>
@@ -25521,7 +25503,7 @@
         <v>187217</v>
       </c>
       <c r="G582" s="2">
-        <f>SUM(C582:F582)</f>
+        <f t="shared" si="9"/>
         <v>1116047886</v>
       </c>
     </row>
@@ -25545,7 +25527,7 @@
         <v>63611</v>
       </c>
       <c r="G583" s="2">
-        <f>SUM(C583:F583)</f>
+        <f t="shared" si="9"/>
         <v>551090257</v>
       </c>
     </row>
@@ -25569,7 +25551,7 @@
         <v>1153765</v>
       </c>
       <c r="G584" s="2">
-        <f>SUM(C584:F584)</f>
+        <f t="shared" si="9"/>
         <v>1229512236</v>
       </c>
     </row>
@@ -25593,7 +25575,7 @@
         <v>3269996</v>
       </c>
       <c r="G585" s="2">
-        <f>SUM(C585:F585)</f>
+        <f t="shared" si="9"/>
         <v>2917029697</v>
       </c>
     </row>
@@ -25617,7 +25599,7 @@
         <v>322283</v>
       </c>
       <c r="G586" s="2">
-        <f>SUM(C586:F586)</f>
+        <f t="shared" si="9"/>
         <v>2273177613</v>
       </c>
     </row>
@@ -25641,7 +25623,7 @@
         <v>1834986</v>
       </c>
       <c r="G587" s="2">
-        <f>SUM(C587:F587)</f>
+        <f t="shared" si="9"/>
         <v>2594434036</v>
       </c>
     </row>
@@ -25665,7 +25647,7 @@
         <v>79950237</v>
       </c>
       <c r="G588" s="2">
-        <f>SUM(C588:F588)</f>
+        <f t="shared" si="9"/>
         <v>8012642414</v>
       </c>
     </row>
@@ -25689,7 +25671,7 @@
         <v>870343</v>
       </c>
       <c r="G589" s="2">
-        <f>SUM(C589:F589)</f>
+        <f t="shared" si="9"/>
         <v>1441731810</v>
       </c>
     </row>
@@ -25713,7 +25695,7 @@
         <v>1055608</v>
       </c>
       <c r="G590" s="2">
-        <f>SUM(C590:F590)</f>
+        <f t="shared" si="9"/>
         <v>3883792207</v>
       </c>
     </row>
@@ -25737,7 +25719,7 @@
         <v>54502417</v>
       </c>
       <c r="G591" s="2">
-        <f>SUM(C591:F591)</f>
+        <f t="shared" si="9"/>
         <v>17388453566</v>
       </c>
     </row>
@@ -25761,7 +25743,7 @@
         <v>1097149</v>
       </c>
       <c r="G592" s="2">
-        <f>SUM(C592:F592)</f>
+        <f t="shared" si="9"/>
         <v>1953592096</v>
       </c>
     </row>
@@ -25785,7 +25767,7 @@
         <v>165729</v>
       </c>
       <c r="G593" s="2">
-        <f>SUM(C593:F593)</f>
+        <f t="shared" si="9"/>
         <v>1842501824</v>
       </c>
     </row>
@@ -25809,7 +25791,7 @@
         <v>9294329</v>
       </c>
       <c r="G594" s="2">
-        <f>SUM(C594:F594)</f>
+        <f t="shared" si="9"/>
         <v>2799051978</v>
       </c>
     </row>
@@ -25833,7 +25815,7 @@
         <v>2100265</v>
       </c>
       <c r="G595" s="2">
-        <f>SUM(C595:F595)</f>
+        <f t="shared" si="9"/>
         <v>1411176961</v>
       </c>
     </row>
@@ -25857,7 +25839,7 @@
         <v>76365</v>
       </c>
       <c r="G596" s="2">
-        <f>SUM(C596:F596)</f>
+        <f t="shared" si="9"/>
         <v>471987384</v>
       </c>
     </row>
@@ -25881,7 +25863,7 @@
         <v>1922</v>
       </c>
       <c r="G597" s="2">
-        <f>SUM(C597:F597)</f>
+        <f t="shared" si="9"/>
         <v>227209076</v>
       </c>
     </row>
@@ -25905,7 +25887,7 @@
         <v>303294</v>
       </c>
       <c r="G598" s="2">
-        <f>SUM(C598:F598)</f>
+        <f t="shared" si="9"/>
         <v>340943360</v>
       </c>
     </row>
@@ -25929,7 +25911,7 @@
         <v>258034</v>
       </c>
       <c r="G599" s="2">
-        <f>SUM(C599:F599)</f>
+        <f t="shared" si="9"/>
         <v>900262048</v>
       </c>
     </row>
@@ -25953,7 +25935,7 @@
         <v>15029</v>
       </c>
       <c r="G600" s="2">
-        <f>SUM(C600:F600)</f>
+        <f t="shared" si="9"/>
         <v>685549818</v>
       </c>
     </row>
@@ -25977,7 +25959,7 @@
         <v>677966</v>
       </c>
       <c r="G601" s="2">
-        <f>SUM(C601:F601)</f>
+        <f t="shared" si="9"/>
         <v>320678395</v>
       </c>
     </row>
@@ -26001,7 +25983,7 @@
         <v>33166400</v>
       </c>
       <c r="G602" s="2">
-        <f>SUM(C602:F602)</f>
+        <f t="shared" si="9"/>
         <v>603147643</v>
       </c>
     </row>
@@ -26025,7 +26007,7 @@
         <v>183422</v>
       </c>
       <c r="G603" s="2">
-        <f>SUM(C603:F603)</f>
+        <f t="shared" si="9"/>
         <v>561679279</v>
       </c>
     </row>
@@ -26049,7 +26031,7 @@
         <v>8876728</v>
       </c>
       <c r="G604" s="2">
-        <f>SUM(C604:F604)</f>
+        <f t="shared" si="9"/>
         <v>2169779299</v>
       </c>
     </row>
@@ -26073,7 +26055,7 @@
         <v>780367</v>
       </c>
       <c r="G605" s="2">
-        <f>SUM(C605:F605)</f>
+        <f t="shared" si="9"/>
         <v>714270464</v>
       </c>
     </row>
@@ -26097,7 +26079,7 @@
         <v>12323</v>
       </c>
       <c r="G606" s="2">
-        <f>SUM(C606:F606)</f>
+        <f t="shared" si="9"/>
         <v>260263630</v>
       </c>
     </row>
@@ -26121,7 +26103,7 @@
         <v>6418091</v>
       </c>
       <c r="G607" s="2">
-        <f>SUM(C607:F607)</f>
+        <f t="shared" si="9"/>
         <v>3935648868</v>
       </c>
     </row>
@@ -26145,7 +26127,7 @@
         <v>3719683</v>
       </c>
       <c r="G608" s="2">
-        <f>SUM(C608:F608)</f>
+        <f t="shared" si="9"/>
         <v>1087402616</v>
       </c>
     </row>
@@ -26169,7 +26151,7 @@
         <v>280095</v>
       </c>
       <c r="G609" s="2">
-        <f>SUM(C609:F609)</f>
+        <f t="shared" si="9"/>
         <v>303506469</v>
       </c>
     </row>
@@ -26193,7 +26175,7 @@
         <v>207638</v>
       </c>
       <c r="G610" s="2">
-        <f>SUM(C610:F610)</f>
+        <f t="shared" si="9"/>
         <v>786832126</v>
       </c>
     </row>
@@ -26217,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="G611" s="2">
-        <f>SUM(C611:F611)</f>
+        <f t="shared" ref="G611:G674" si="10">SUM(C611:F611)</f>
         <v>208008202</v>
       </c>
     </row>
@@ -26241,7 +26223,7 @@
         <v>285023</v>
       </c>
       <c r="G612" s="2">
-        <f>SUM(C612:F612)</f>
+        <f t="shared" si="10"/>
         <v>691234095</v>
       </c>
     </row>
@@ -26265,7 +26247,7 @@
         <v>1232261</v>
       </c>
       <c r="G613" s="2">
-        <f>SUM(C613:F613)</f>
+        <f t="shared" si="10"/>
         <v>1615444076</v>
       </c>
     </row>
@@ -26289,7 +26271,7 @@
         <v>136894</v>
       </c>
       <c r="G614" s="2">
-        <f>SUM(C614:F614)</f>
+        <f t="shared" si="10"/>
         <v>640250398</v>
       </c>
     </row>
@@ -26313,7 +26295,7 @@
         <v>11269</v>
       </c>
       <c r="G615" s="2">
-        <f>SUM(C615:F615)</f>
+        <f t="shared" si="10"/>
         <v>523933381</v>
       </c>
     </row>
@@ -26337,7 +26319,7 @@
         <v>83559019</v>
       </c>
       <c r="G616" s="2">
-        <f>SUM(C616:F616)</f>
+        <f t="shared" si="10"/>
         <v>4362786417</v>
       </c>
     </row>
@@ -26361,7 +26343,7 @@
         <v>54429</v>
       </c>
       <c r="G617" s="2">
-        <f>SUM(C617:F617)</f>
+        <f t="shared" si="10"/>
         <v>647130425</v>
       </c>
     </row>
@@ -26385,7 +26367,7 @@
         <v>767285</v>
       </c>
       <c r="G618" s="2">
-        <f>SUM(C618:F618)</f>
+        <f t="shared" si="10"/>
         <v>632918504</v>
       </c>
     </row>
@@ -26409,7 +26391,7 @@
         <v>88978</v>
       </c>
       <c r="G619" s="2">
-        <f>SUM(C619:F619)</f>
+        <f t="shared" si="10"/>
         <v>871508277</v>
       </c>
     </row>
@@ -26433,7 +26415,7 @@
         <v>1066976</v>
       </c>
       <c r="G620" s="2">
-        <f>SUM(C620:F620)</f>
+        <f t="shared" si="10"/>
         <v>2187582602</v>
       </c>
     </row>
@@ -26454,7 +26436,7 @@
         <v>0</v>
       </c>
       <c r="G621" s="2">
-        <f>SUM(C621:F621)</f>
+        <f t="shared" si="10"/>
         <v>768250</v>
       </c>
     </row>
@@ -26478,7 +26460,7 @@
         <v>3872</v>
       </c>
       <c r="G622" s="2">
-        <f>SUM(C622:F622)</f>
+        <f t="shared" si="10"/>
         <v>191319126</v>
       </c>
     </row>
@@ -26502,7 +26484,7 @@
         <v>695871</v>
       </c>
       <c r="G623" s="2">
-        <f>SUM(C623:F623)</f>
+        <f t="shared" si="10"/>
         <v>2876079424</v>
       </c>
     </row>
@@ -26526,7 +26508,7 @@
         <v>1647987</v>
       </c>
       <c r="G624" s="2">
-        <f>SUM(C624:F624)</f>
+        <f t="shared" si="10"/>
         <v>3512874156</v>
       </c>
     </row>
@@ -26550,7 +26532,7 @@
         <v>4034</v>
       </c>
       <c r="G625" s="2">
-        <f>SUM(C625:F625)</f>
+        <f t="shared" si="10"/>
         <v>166843701</v>
       </c>
     </row>
@@ -26574,7 +26556,7 @@
         <v>1281693</v>
       </c>
       <c r="G626" s="2">
-        <f>SUM(C626:F626)</f>
+        <f t="shared" si="10"/>
         <v>3579135876</v>
       </c>
     </row>
@@ -26598,7 +26580,7 @@
         <v>642475</v>
       </c>
       <c r="G627" s="2">
-        <f>SUM(C627:F627)</f>
+        <f t="shared" si="10"/>
         <v>1384205200</v>
       </c>
     </row>
@@ -26622,7 +26604,7 @@
         <v>19536712</v>
       </c>
       <c r="G628" s="2">
-        <f>SUM(C628:F628)</f>
+        <f t="shared" si="10"/>
         <v>9635547174</v>
       </c>
     </row>
@@ -26646,7 +26628,7 @@
         <v>1312991</v>
       </c>
       <c r="G629" s="2">
-        <f>SUM(C629:F629)</f>
+        <f t="shared" si="10"/>
         <v>1965410065</v>
       </c>
     </row>
@@ -26670,7 +26652,7 @@
         <v>19794</v>
       </c>
       <c r="G630" s="2">
-        <f>SUM(C630:F630)</f>
+        <f t="shared" si="10"/>
         <v>378640945</v>
       </c>
     </row>
@@ -26694,7 +26676,7 @@
         <v>156821</v>
       </c>
       <c r="G631" s="2">
-        <f>SUM(C631:F631)</f>
+        <f t="shared" si="10"/>
         <v>795065841</v>
       </c>
     </row>
@@ -26718,7 +26700,7 @@
         <v>535642</v>
       </c>
       <c r="G632" s="2">
-        <f>SUM(C632:F632)</f>
+        <f t="shared" si="10"/>
         <v>1348895502</v>
       </c>
     </row>
@@ -26742,7 +26724,7 @@
         <v>28733392</v>
       </c>
       <c r="G633" s="2">
-        <f>SUM(C633:F633)</f>
+        <f t="shared" si="10"/>
         <v>11898672330</v>
       </c>
     </row>
@@ -26766,7 +26748,7 @@
         <v>89319</v>
       </c>
       <c r="G634" s="2">
-        <f>SUM(C634:F634)</f>
+        <f t="shared" si="10"/>
         <v>828181720</v>
       </c>
     </row>
@@ -26790,7 +26772,7 @@
         <v>210359</v>
       </c>
       <c r="G635" s="2">
-        <f>SUM(C635:F635)</f>
+        <f t="shared" si="10"/>
         <v>749149441</v>
       </c>
     </row>
@@ -26814,7 +26796,7 @@
         <v>635758</v>
       </c>
       <c r="G636" s="2">
-        <f>SUM(C636:F636)</f>
+        <f t="shared" si="10"/>
         <v>1996400903</v>
       </c>
     </row>
@@ -26838,7 +26820,7 @@
         <v>3731885</v>
       </c>
       <c r="G637" s="2">
-        <f>SUM(C637:F637)</f>
+        <f t="shared" si="10"/>
         <v>1023466638</v>
       </c>
     </row>
@@ -26862,7 +26844,7 @@
         <v>13030738</v>
       </c>
       <c r="G638" s="2">
-        <f>SUM(C638:F638)</f>
+        <f t="shared" si="10"/>
         <v>3380060316</v>
       </c>
     </row>
@@ -26886,7 +26868,7 @@
         <v>19578</v>
       </c>
       <c r="G639" s="2">
-        <f>SUM(C639:F639)</f>
+        <f t="shared" si="10"/>
         <v>609233902</v>
       </c>
     </row>
@@ -26910,7 +26892,7 @@
         <v>4501416</v>
       </c>
       <c r="G640" s="2">
-        <f>SUM(C640:F640)</f>
+        <f t="shared" si="10"/>
         <v>2085425991</v>
       </c>
     </row>
@@ -26934,7 +26916,7 @@
         <v>410947</v>
       </c>
       <c r="G641" s="2">
-        <f>SUM(C641:F641)</f>
+        <f t="shared" si="10"/>
         <v>2662775576</v>
       </c>
     </row>
@@ -26958,7 +26940,7 @@
         <v>2769338</v>
       </c>
       <c r="G642" s="2">
-        <f>SUM(C642:F642)</f>
+        <f t="shared" si="10"/>
         <v>2693450418</v>
       </c>
     </row>
@@ -26982,7 +26964,7 @@
         <v>3352392</v>
       </c>
       <c r="G643" s="2">
-        <f>SUM(C643:F643)</f>
+        <f t="shared" si="10"/>
         <v>1723056381</v>
       </c>
     </row>
@@ -27006,7 +26988,7 @@
         <v>405065</v>
       </c>
       <c r="G644" s="2">
-        <f>SUM(C644:F644)</f>
+        <f t="shared" si="10"/>
         <v>1816221882</v>
       </c>
     </row>
@@ -27030,7 +27012,7 @@
         <v>100</v>
       </c>
       <c r="G645" s="2">
-        <f>SUM(C645:F645)</f>
+        <f t="shared" si="10"/>
         <v>273317897</v>
       </c>
     </row>
@@ -27054,7 +27036,7 @@
         <v>1863450</v>
       </c>
       <c r="G646" s="2">
-        <f>SUM(C646:F646)</f>
+        <f t="shared" si="10"/>
         <v>2163726643</v>
       </c>
     </row>
@@ -27078,7 +27060,7 @@
         <v>3176</v>
       </c>
       <c r="G647" s="2">
-        <f>SUM(C647:F647)</f>
+        <f t="shared" si="10"/>
         <v>177416194</v>
       </c>
     </row>
@@ -27102,7 +27084,7 @@
         <v>153940</v>
       </c>
       <c r="G648" s="2">
-        <f>SUM(C648:F648)</f>
+        <f t="shared" si="10"/>
         <v>548671566</v>
       </c>
     </row>
@@ -27126,7 +27108,7 @@
         <v>105328</v>
       </c>
       <c r="G649" s="2">
-        <f>SUM(C649:F649)</f>
+        <f t="shared" si="10"/>
         <v>1156011334</v>
       </c>
     </row>
@@ -27150,7 +27132,7 @@
         <v>144964</v>
       </c>
       <c r="G650" s="2">
-        <f>SUM(C650:F650)</f>
+        <f t="shared" si="10"/>
         <v>687823803</v>
       </c>
     </row>
@@ -27174,7 +27156,7 @@
         <v>8977</v>
       </c>
       <c r="G651" s="2">
-        <f>SUM(C651:F651)</f>
+        <f t="shared" si="10"/>
         <v>916347467</v>
       </c>
     </row>
@@ -27198,7 +27180,7 @@
         <v>123694</v>
       </c>
       <c r="G652" s="2">
-        <f>SUM(C652:F652)</f>
+        <f t="shared" si="10"/>
         <v>605462729</v>
       </c>
     </row>
@@ -27222,7 +27204,7 @@
         <v>77424657</v>
       </c>
       <c r="G653" s="2">
-        <f>SUM(C653:F653)</f>
+        <f t="shared" si="10"/>
         <v>8262439444</v>
       </c>
     </row>
@@ -27246,7 +27228,7 @@
         <v>846856</v>
       </c>
       <c r="G654" s="2">
-        <f>SUM(C654:F654)</f>
+        <f t="shared" si="10"/>
         <v>949996857</v>
       </c>
     </row>
@@ -27270,7 +27252,7 @@
         <v>176801</v>
       </c>
       <c r="G655" s="2">
-        <f>SUM(C655:F655)</f>
+        <f t="shared" si="10"/>
         <v>1578264750</v>
       </c>
     </row>
@@ -27294,7 +27276,7 @@
         <v>840304</v>
       </c>
       <c r="G656" s="2">
-        <f>SUM(C656:F656)</f>
+        <f t="shared" si="10"/>
         <v>368908951</v>
       </c>
     </row>
@@ -27318,7 +27300,7 @@
         <v>3862</v>
       </c>
       <c r="G657" s="2">
-        <f>SUM(C657:F657)</f>
+        <f t="shared" si="10"/>
         <v>231268579</v>
       </c>
     </row>
@@ -27342,7 +27324,7 @@
         <v>1160641</v>
       </c>
       <c r="G658" s="2">
-        <f>SUM(C658:F658)</f>
+        <f t="shared" si="10"/>
         <v>1647556231</v>
       </c>
     </row>
@@ -27366,7 +27348,7 @@
         <v>1738787</v>
       </c>
       <c r="G659" s="2">
-        <f>SUM(C659:F659)</f>
+        <f t="shared" si="10"/>
         <v>2747645947</v>
       </c>
     </row>
@@ -27390,7 +27372,7 @@
         <v>4555163</v>
       </c>
       <c r="G660" s="2">
-        <f>SUM(C660:F660)</f>
+        <f t="shared" si="10"/>
         <v>2093290134</v>
       </c>
     </row>
@@ -27414,7 +27396,7 @@
         <v>2755923</v>
       </c>
       <c r="G661" s="2">
-        <f>SUM(C661:F661)</f>
+        <f t="shared" si="10"/>
         <v>1577189326</v>
       </c>
     </row>
@@ -27438,7 +27420,7 @@
         <v>13923</v>
       </c>
       <c r="G662" s="2">
-        <f>SUM(C662:F662)</f>
+        <f t="shared" si="10"/>
         <v>381900182</v>
       </c>
     </row>
@@ -27462,7 +27444,7 @@
         <v>2622</v>
       </c>
       <c r="G663" s="2">
-        <f>SUM(C663:F663)</f>
+        <f t="shared" si="10"/>
         <v>312202900</v>
       </c>
     </row>
@@ -27486,7 +27468,7 @@
         <v>0</v>
       </c>
       <c r="G664" s="2">
-        <f>SUM(C664:F664)</f>
+        <f t="shared" si="10"/>
         <v>13592524</v>
       </c>
     </row>
@@ -27510,7 +27492,7 @@
         <v>17060</v>
       </c>
       <c r="G665" s="2">
-        <f>SUM(C665:F665)</f>
+        <f t="shared" si="10"/>
         <v>319327540</v>
       </c>
     </row>
@@ -27534,7 +27516,7 @@
         <v>291046</v>
       </c>
       <c r="G666" s="2">
-        <f>SUM(C666:F666)</f>
+        <f t="shared" si="10"/>
         <v>672720851</v>
       </c>
     </row>
@@ -27558,7 +27540,7 @@
         <v>25800</v>
       </c>
       <c r="G667" s="2">
-        <f>SUM(C667:F667)</f>
+        <f t="shared" si="10"/>
         <v>444036731</v>
       </c>
     </row>
@@ -27582,7 +27564,7 @@
         <v>4776489</v>
       </c>
       <c r="G668" s="2">
-        <f>SUM(C668:F668)</f>
+        <f t="shared" si="10"/>
         <v>2025763129</v>
       </c>
     </row>
@@ -27606,7 +27588,7 @@
         <v>8059560</v>
       </c>
       <c r="G669" s="2">
-        <f>SUM(C669:F669)</f>
+        <f t="shared" si="10"/>
         <v>3574958240</v>
       </c>
     </row>
@@ -27630,7 +27612,7 @@
         <v>1728590</v>
       </c>
       <c r="G670" s="2">
-        <f>SUM(C670:F670)</f>
+        <f t="shared" si="10"/>
         <v>568412283</v>
       </c>
     </row>
@@ -27654,7 +27636,7 @@
         <v>44599684</v>
       </c>
       <c r="G671" s="2">
-        <f>SUM(C671:F671)</f>
+        <f t="shared" si="10"/>
         <v>1451058709</v>
       </c>
     </row>
@@ -27678,7 +27660,7 @@
         <v>87812</v>
       </c>
       <c r="G672" s="2">
-        <f>SUM(C672:F672)</f>
+        <f t="shared" si="10"/>
         <v>635735231</v>
       </c>
     </row>
@@ -27702,7 +27684,7 @@
         <v>69020</v>
       </c>
       <c r="G673" s="2">
-        <f>SUM(C673:F673)</f>
+        <f t="shared" si="10"/>
         <v>403248518</v>
       </c>
     </row>
@@ -27726,7 +27708,7 @@
         <v>102689284</v>
       </c>
       <c r="G674" s="2">
-        <f>SUM(C674:F674)</f>
+        <f t="shared" si="10"/>
         <v>5305998742</v>
       </c>
     </row>
@@ -27750,7 +27732,7 @@
         <v>901285</v>
       </c>
       <c r="G675" s="2">
-        <f>SUM(C675:F675)</f>
+        <f t="shared" ref="G675:G738" si="11">SUM(C675:F675)</f>
         <v>572150674</v>
       </c>
     </row>
@@ -27774,7 +27756,7 @@
         <v>1969</v>
       </c>
       <c r="G676" s="2">
-        <f>SUM(C676:F676)</f>
+        <f t="shared" si="11"/>
         <v>189427054</v>
       </c>
     </row>
@@ -27798,7 +27780,7 @@
         <v>256062</v>
       </c>
       <c r="G677" s="2">
-        <f>SUM(C677:F677)</f>
+        <f t="shared" si="11"/>
         <v>291093657</v>
       </c>
     </row>
@@ -27822,7 +27804,7 @@
         <v>850451</v>
       </c>
       <c r="G678" s="2">
-        <f>SUM(C678:F678)</f>
+        <f t="shared" si="11"/>
         <v>892196326</v>
       </c>
     </row>
@@ -27846,7 +27828,7 @@
         <v>7377184</v>
       </c>
       <c r="G679" s="2">
-        <f>SUM(C679:F679)</f>
+        <f t="shared" si="11"/>
         <v>4052456107</v>
       </c>
     </row>
@@ -27870,7 +27852,7 @@
         <v>38273799</v>
       </c>
       <c r="G680" s="2">
-        <f>SUM(C680:F680)</f>
+        <f t="shared" si="11"/>
         <v>2757563719</v>
       </c>
     </row>
@@ -27894,7 +27876,7 @@
         <v>3539</v>
       </c>
       <c r="G681" s="2">
-        <f>SUM(C681:F681)</f>
+        <f t="shared" si="11"/>
         <v>201523741</v>
       </c>
     </row>
@@ -27918,7 +27900,7 @@
         <v>2611175</v>
       </c>
       <c r="G682" s="2">
-        <f>SUM(C682:F682)</f>
+        <f t="shared" si="11"/>
         <v>1752022016</v>
       </c>
     </row>
@@ -27942,7 +27924,7 @@
         <v>1295440</v>
       </c>
       <c r="G683" s="2">
-        <f>SUM(C683:F683)</f>
+        <f t="shared" si="11"/>
         <v>2640341285</v>
       </c>
     </row>
@@ -27966,7 +27948,7 @@
         <v>2622</v>
       </c>
       <c r="G684" s="2">
-        <f>SUM(C684:F684)</f>
+        <f t="shared" si="11"/>
         <v>332384907</v>
       </c>
     </row>
@@ -27990,7 +27972,7 @@
         <v>1444445</v>
       </c>
       <c r="G685" s="2">
-        <f>SUM(C685:F685)</f>
+        <f t="shared" si="11"/>
         <v>659720074</v>
       </c>
     </row>
@@ -28014,7 +27996,7 @@
         <v>2952046</v>
       </c>
       <c r="G686" s="2">
-        <f>SUM(C686:F686)</f>
+        <f t="shared" si="11"/>
         <v>3846517938</v>
       </c>
     </row>
@@ -28038,7 +28020,7 @@
         <v>1591097</v>
       </c>
       <c r="G687" s="2">
-        <f>SUM(C687:F687)</f>
+        <f t="shared" si="11"/>
         <v>2283225933</v>
       </c>
     </row>
@@ -28062,7 +28044,7 @@
         <v>145872</v>
       </c>
       <c r="G688" s="2">
-        <f>SUM(C688:F688)</f>
+        <f t="shared" si="11"/>
         <v>600804889</v>
       </c>
     </row>
@@ -28086,7 +28068,7 @@
         <v>253179</v>
       </c>
       <c r="G689" s="2">
-        <f>SUM(C689:F689)</f>
+        <f t="shared" si="11"/>
         <v>714561798</v>
       </c>
     </row>
@@ -28110,7 +28092,7 @@
         <v>53730</v>
       </c>
       <c r="G690" s="2">
-        <f>SUM(C690:F690)</f>
+        <f t="shared" si="11"/>
         <v>350773384</v>
       </c>
     </row>
@@ -28134,7 +28116,7 @@
         <v>110265</v>
       </c>
       <c r="G691" s="2">
-        <f>SUM(C691:F691)</f>
+        <f t="shared" si="11"/>
         <v>1809904888</v>
       </c>
     </row>
@@ -28158,7 +28140,7 @@
         <v>7424626</v>
       </c>
       <c r="G692" s="2">
-        <f>SUM(C692:F692)</f>
+        <f t="shared" si="11"/>
         <v>4130723370</v>
       </c>
     </row>
@@ -28182,7 +28164,7 @@
         <v>200916</v>
       </c>
       <c r="G693" s="2">
-        <f>SUM(C693:F693)</f>
+        <f t="shared" si="11"/>
         <v>1109081969</v>
       </c>
     </row>
@@ -28206,7 +28188,7 @@
         <v>15539</v>
       </c>
       <c r="G694" s="2">
-        <f>SUM(C694:F694)</f>
+        <f t="shared" si="11"/>
         <v>801195450</v>
       </c>
     </row>
@@ -28230,7 +28212,7 @@
         <v>233765</v>
       </c>
       <c r="G695" s="2">
-        <f>SUM(C695:F695)</f>
+        <f t="shared" si="11"/>
         <v>1551044787</v>
       </c>
     </row>
@@ -28254,7 +28236,7 @@
         <v>1115796</v>
       </c>
       <c r="G696" s="2">
-        <f>SUM(C696:F696)</f>
+        <f t="shared" si="11"/>
         <v>1387053352</v>
       </c>
     </row>
@@ -28278,7 +28260,7 @@
         <v>29302494</v>
       </c>
       <c r="G697" s="2">
-        <f>SUM(C697:F697)</f>
+        <f t="shared" si="11"/>
         <v>1890781111</v>
       </c>
     </row>
@@ -28302,7 +28284,7 @@
         <v>59631682</v>
       </c>
       <c r="G698" s="2">
-        <f>SUM(C698:F698)</f>
+        <f t="shared" si="11"/>
         <v>8450030307</v>
       </c>
     </row>
@@ -28326,7 +28308,7 @@
         <v>50101</v>
       </c>
       <c r="G699" s="2">
-        <f>SUM(C699:F699)</f>
+        <f t="shared" si="11"/>
         <v>703235387</v>
       </c>
     </row>
@@ -28350,7 +28332,7 @@
         <v>1035045</v>
       </c>
       <c r="G700" s="2">
-        <f>SUM(C700:F700)</f>
+        <f t="shared" si="11"/>
         <v>2087851014</v>
       </c>
     </row>
@@ -28374,7 +28356,7 @@
         <v>1705890</v>
       </c>
       <c r="G701" s="2">
-        <f>SUM(C701:F701)</f>
+        <f t="shared" si="11"/>
         <v>1180200647</v>
       </c>
     </row>
@@ -28398,7 +28380,7 @@
         <v>6271</v>
       </c>
       <c r="G702" s="2">
-        <f>SUM(C702:F702)</f>
+        <f t="shared" si="11"/>
         <v>221984734</v>
       </c>
     </row>
@@ -28422,7 +28404,7 @@
         <v>328154</v>
       </c>
       <c r="G703" s="2">
-        <f>SUM(C703:F703)</f>
+        <f t="shared" si="11"/>
         <v>684511808</v>
       </c>
     </row>
@@ -28446,7 +28428,7 @@
         <v>1113725</v>
       </c>
       <c r="G704" s="2">
-        <f>SUM(C704:F704)</f>
+        <f t="shared" si="11"/>
         <v>1319424652</v>
       </c>
     </row>
@@ -28470,7 +28452,7 @@
         <v>1280308</v>
       </c>
       <c r="G705" s="2">
-        <f>SUM(C705:F705)</f>
+        <f t="shared" si="11"/>
         <v>3202805922</v>
       </c>
     </row>
@@ -28494,7 +28476,7 @@
         <v>129939</v>
       </c>
       <c r="G706" s="2">
-        <f>SUM(C706:F706)</f>
+        <f t="shared" si="11"/>
         <v>603714674</v>
       </c>
     </row>
@@ -28518,7 +28500,7 @@
         <v>2682</v>
       </c>
       <c r="G707" s="2">
-        <f>SUM(C707:F707)</f>
+        <f t="shared" si="11"/>
         <v>218638328</v>
       </c>
     </row>
@@ -28542,7 +28524,7 @@
         <v>464971</v>
       </c>
       <c r="G708" s="2">
-        <f>SUM(C708:F708)</f>
+        <f t="shared" si="11"/>
         <v>1414232373</v>
       </c>
     </row>
@@ -28566,7 +28548,7 @@
         <v>1744703</v>
       </c>
       <c r="G709" s="2">
-        <f>SUM(C709:F709)</f>
+        <f t="shared" si="11"/>
         <v>2143162442</v>
       </c>
     </row>
@@ -28590,7 +28572,7 @@
         <v>1257954</v>
       </c>
       <c r="G710" s="2">
-        <f>SUM(C710:F710)</f>
+        <f t="shared" si="11"/>
         <v>3014993901</v>
       </c>
     </row>
@@ -28614,7 +28596,7 @@
         <v>2230278</v>
       </c>
       <c r="G711" s="2">
-        <f>SUM(C711:F711)</f>
+        <f t="shared" si="11"/>
         <v>2383209707</v>
       </c>
     </row>
@@ -28638,7 +28620,7 @@
         <v>329064</v>
       </c>
       <c r="G712" s="2">
-        <f>SUM(C712:F712)</f>
+        <f t="shared" si="11"/>
         <v>723314277</v>
       </c>
     </row>
@@ -28662,7 +28644,7 @@
         <v>6271</v>
       </c>
       <c r="G713" s="2">
-        <f>SUM(C713:F713)</f>
+        <f t="shared" si="11"/>
         <v>236593524</v>
       </c>
     </row>
@@ -28686,7 +28668,7 @@
         <v>20965115</v>
       </c>
       <c r="G714" s="2">
-        <f>SUM(C714:F714)</f>
+        <f t="shared" si="11"/>
         <v>10041748247</v>
       </c>
     </row>
@@ -28710,7 +28692,7 @@
         <v>3224711</v>
       </c>
       <c r="G715" s="2">
-        <f>SUM(C715:F715)</f>
+        <f t="shared" si="11"/>
         <v>2472527427</v>
       </c>
     </row>
@@ -28734,7 +28716,7 @@
         <v>38814312</v>
       </c>
       <c r="G716" s="2">
-        <f>SUM(C716:F716)</f>
+        <f t="shared" si="11"/>
         <v>7701848084</v>
       </c>
     </row>
@@ -28758,7 +28740,7 @@
         <v>879939</v>
       </c>
       <c r="G717" s="2">
-        <f>SUM(C717:F717)</f>
+        <f t="shared" si="11"/>
         <v>1319100516</v>
       </c>
     </row>
@@ -28782,7 +28764,7 @@
         <v>2316441</v>
       </c>
       <c r="G718" s="2">
-        <f>SUM(C718:F718)</f>
+        <f t="shared" si="11"/>
         <v>1696677633</v>
       </c>
     </row>
@@ -28806,7 +28788,7 @@
         <v>20382093</v>
       </c>
       <c r="G719" s="2">
-        <f>SUM(C719:F719)</f>
+        <f t="shared" si="11"/>
         <v>1785184606</v>
       </c>
     </row>
@@ -28830,7 +28812,7 @@
         <v>1854433</v>
       </c>
       <c r="G720" s="2">
-        <f>SUM(C720:F720)</f>
+        <f t="shared" si="11"/>
         <v>1481779888</v>
       </c>
     </row>
@@ -28854,7 +28836,7 @@
         <v>4196372</v>
       </c>
       <c r="G721" s="2">
-        <f>SUM(C721:F721)</f>
+        <f t="shared" si="11"/>
         <v>1939952574</v>
       </c>
     </row>
@@ -28878,7 +28860,7 @@
         <v>616509</v>
       </c>
       <c r="G722" s="2">
-        <f>SUM(C722:F722)</f>
+        <f t="shared" si="11"/>
         <v>876120268</v>
       </c>
     </row>
@@ -28902,7 +28884,7 @@
         <v>100318</v>
       </c>
       <c r="G723" s="2">
-        <f>SUM(C723:F723)</f>
+        <f t="shared" si="11"/>
         <v>1949558240</v>
       </c>
     </row>
@@ -28926,7 +28908,7 @@
         <v>21989</v>
       </c>
       <c r="G724" s="2">
-        <f>SUM(C724:F724)</f>
+        <f t="shared" si="11"/>
         <v>189513945</v>
       </c>
     </row>
@@ -28950,7 +28932,7 @@
         <v>306166</v>
       </c>
       <c r="G725" s="2">
-        <f>SUM(C725:F725)</f>
+        <f t="shared" si="11"/>
         <v>413155834</v>
       </c>
     </row>
@@ -28974,7 +28956,7 @@
         <v>110986</v>
       </c>
       <c r="G726" s="2">
-        <f>SUM(C726:F726)</f>
+        <f t="shared" si="11"/>
         <v>559997730</v>
       </c>
     </row>
@@ -28998,7 +28980,7 @@
         <v>36304</v>
       </c>
       <c r="G727" s="2">
-        <f>SUM(C727:F727)</f>
+        <f t="shared" si="11"/>
         <v>252286400</v>
       </c>
     </row>
@@ -29022,7 +29004,7 @@
         <v>65292</v>
       </c>
       <c r="G728" s="2">
-        <f>SUM(C728:F728)</f>
+        <f t="shared" si="11"/>
         <v>578731186</v>
       </c>
     </row>
@@ -29046,7 +29028,7 @@
         <v>464399</v>
       </c>
       <c r="G729" s="2">
-        <f>SUM(C729:F729)</f>
+        <f t="shared" si="11"/>
         <v>681260445</v>
       </c>
     </row>
@@ -29070,7 +29052,7 @@
         <v>2898540</v>
       </c>
       <c r="G730" s="2">
-        <f>SUM(C730:F730)</f>
+        <f t="shared" si="11"/>
         <v>2730132230</v>
       </c>
     </row>
@@ -29094,7 +29076,7 @@
         <v>28622213</v>
       </c>
       <c r="G731" s="2">
-        <f>SUM(C731:F731)</f>
+        <f t="shared" si="11"/>
         <v>1966481128</v>
       </c>
     </row>
@@ -29118,7 +29100,7 @@
         <v>547159</v>
       </c>
       <c r="G732" s="2">
-        <f>SUM(C732:F732)</f>
+        <f t="shared" si="11"/>
         <v>1739290255</v>
       </c>
     </row>
@@ -29142,7 +29124,7 @@
         <v>8817</v>
       </c>
       <c r="G733" s="2">
-        <f>SUM(C733:F733)</f>
+        <f t="shared" si="11"/>
         <v>957708922</v>
       </c>
     </row>
@@ -29166,7 +29148,7 @@
         <v>7498307</v>
       </c>
       <c r="G734" s="2">
-        <f>SUM(C734:F734)</f>
+        <f t="shared" si="11"/>
         <v>3453586093</v>
       </c>
     </row>
@@ -29190,7 +29172,7 @@
         <v>366</v>
       </c>
       <c r="G735" s="2">
-        <f>SUM(C735:F735)</f>
+        <f t="shared" si="11"/>
         <v>266563071</v>
       </c>
     </row>
@@ -29214,7 +29196,7 @@
         <v>243853</v>
       </c>
       <c r="G736" s="2">
-        <f>SUM(C736:F736)</f>
+        <f t="shared" si="11"/>
         <v>778838004</v>
       </c>
     </row>
@@ -29238,7 +29220,7 @@
         <v>1688635</v>
       </c>
       <c r="G737" s="2">
-        <f>SUM(C737:F737)</f>
+        <f t="shared" si="11"/>
         <v>823167102</v>
       </c>
     </row>
@@ -29262,7 +29244,7 @@
         <v>152624</v>
       </c>
       <c r="G738" s="2">
-        <f>SUM(C738:F738)</f>
+        <f t="shared" si="11"/>
         <v>492898195</v>
       </c>
     </row>
@@ -29286,7 +29268,7 @@
         <v>678600</v>
       </c>
       <c r="G739" s="2">
-        <f>SUM(C739:F739)</f>
+        <f t="shared" ref="G739:G802" si="12">SUM(C739:F739)</f>
         <v>356982048</v>
       </c>
     </row>
@@ -29310,7 +29292,7 @@
         <v>71491128</v>
       </c>
       <c r="G740" s="2">
-        <f>SUM(C740:F740)</f>
+        <f t="shared" si="12"/>
         <v>6276049902</v>
       </c>
     </row>
@@ -29334,7 +29316,7 @@
         <v>1275712</v>
       </c>
       <c r="G741" s="2">
-        <f>SUM(C741:F741)</f>
+        <f t="shared" si="12"/>
         <v>1591636155</v>
       </c>
     </row>
@@ -29358,7 +29340,7 @@
         <v>30009376</v>
       </c>
       <c r="G742" s="2">
-        <f>SUM(C742:F742)</f>
+        <f t="shared" si="12"/>
         <v>2545707839</v>
       </c>
     </row>
@@ -29382,7 +29364,7 @@
         <v>1274268</v>
       </c>
       <c r="G743" s="2">
-        <f>SUM(C743:F743)</f>
+        <f t="shared" si="12"/>
         <v>1320092120</v>
       </c>
     </row>
@@ -29406,7 +29388,7 @@
         <v>1729738</v>
       </c>
       <c r="G744" s="2">
-        <f>SUM(C744:F744)</f>
+        <f t="shared" si="12"/>
         <v>788765748</v>
       </c>
     </row>
@@ -29430,7 +29412,7 @@
         <v>26191</v>
       </c>
       <c r="G745" s="2">
-        <f>SUM(C745:F745)</f>
+        <f t="shared" si="12"/>
         <v>1303569604</v>
       </c>
     </row>
@@ -29454,7 +29436,7 @@
         <v>76954853</v>
       </c>
       <c r="G746" s="2">
-        <f>SUM(C746:F746)</f>
+        <f t="shared" si="12"/>
         <v>7531583985</v>
       </c>
     </row>
@@ -29478,7 +29460,7 @@
         <v>7244999</v>
       </c>
       <c r="G747" s="2">
-        <f>SUM(C747:F747)</f>
+        <f t="shared" si="12"/>
         <v>1998779915</v>
       </c>
     </row>
@@ -29502,7 +29484,7 @@
         <v>201159</v>
       </c>
       <c r="G748" s="2">
-        <f>SUM(C748:F748)</f>
+        <f t="shared" si="12"/>
         <v>448952769</v>
       </c>
     </row>
@@ -29526,7 +29508,7 @@
         <v>75120</v>
       </c>
       <c r="G749" s="2">
-        <f>SUM(C749:F749)</f>
+        <f t="shared" si="12"/>
         <v>468070631</v>
       </c>
     </row>
@@ -29550,7 +29532,7 @@
         <v>632821</v>
       </c>
       <c r="G750" s="2">
-        <f>SUM(C750:F750)</f>
+        <f t="shared" si="12"/>
         <v>1010755387</v>
       </c>
     </row>
@@ -29574,7 +29556,7 @@
         <v>687902</v>
       </c>
       <c r="G751" s="2">
-        <f>SUM(C751:F751)</f>
+        <f t="shared" si="12"/>
         <v>718803794</v>
       </c>
     </row>
@@ -29598,7 +29580,7 @@
         <v>359761</v>
       </c>
       <c r="G752" s="2">
-        <f>SUM(C752:F752)</f>
+        <f t="shared" si="12"/>
         <v>754280322</v>
       </c>
     </row>
@@ -29622,7 +29604,7 @@
         <v>1862</v>
       </c>
       <c r="G753" s="2">
-        <f>SUM(C753:F753)</f>
+        <f t="shared" si="12"/>
         <v>208654654</v>
       </c>
     </row>
@@ -29646,7 +29628,7 @@
         <v>3749</v>
       </c>
       <c r="G754" s="2">
-        <f>SUM(C754:F754)</f>
+        <f t="shared" si="12"/>
         <v>186285443</v>
       </c>
     </row>
@@ -29670,7 +29652,7 @@
         <v>5941</v>
       </c>
       <c r="G755" s="2">
-        <f>SUM(C755:F755)</f>
+        <f t="shared" si="12"/>
         <v>448601473</v>
       </c>
     </row>
@@ -29694,7 +29676,7 @@
         <v>233236</v>
       </c>
       <c r="G756" s="2">
-        <f>SUM(C756:F756)</f>
+        <f t="shared" si="12"/>
         <v>1178575566</v>
       </c>
     </row>
@@ -29718,7 +29700,7 @@
         <v>2075627</v>
       </c>
       <c r="G757" s="2">
-        <f>SUM(C757:F757)</f>
+        <f t="shared" si="12"/>
         <v>1588077257</v>
       </c>
     </row>
@@ -29742,7 +29724,7 @@
         <v>54811</v>
       </c>
       <c r="G758" s="2">
-        <f>SUM(C758:F758)</f>
+        <f t="shared" si="12"/>
         <v>646843532</v>
       </c>
     </row>
@@ -29766,7 +29748,7 @@
         <v>189323</v>
       </c>
       <c r="G759" s="2">
-        <f>SUM(C759:F759)</f>
+        <f t="shared" si="12"/>
         <v>425552661</v>
       </c>
     </row>
@@ -29790,7 +29772,7 @@
         <v>107256</v>
       </c>
       <c r="G760" s="2">
-        <f>SUM(C760:F760)</f>
+        <f t="shared" si="12"/>
         <v>1446335931</v>
       </c>
     </row>
@@ -29814,7 +29796,7 @@
         <v>1310342</v>
       </c>
       <c r="G761" s="2">
-        <f>SUM(C761:F761)</f>
+        <f t="shared" si="12"/>
         <v>1669809331</v>
       </c>
     </row>
@@ -29838,7 +29820,7 @@
         <v>122895</v>
       </c>
       <c r="G762" s="2">
-        <f>SUM(C762:F762)</f>
+        <f t="shared" si="12"/>
         <v>426440470</v>
       </c>
     </row>
@@ -29862,7 +29844,7 @@
         <v>317828</v>
       </c>
       <c r="G763" s="2">
-        <f>SUM(C763:F763)</f>
+        <f t="shared" si="12"/>
         <v>658490933</v>
       </c>
     </row>
@@ -29886,7 +29868,7 @@
         <v>78123</v>
       </c>
       <c r="G764" s="2">
-        <f>SUM(C764:F764)</f>
+        <f t="shared" si="12"/>
         <v>499340286</v>
       </c>
     </row>
@@ -29910,7 +29892,7 @@
         <v>185765</v>
       </c>
       <c r="G765" s="2">
-        <f>SUM(C765:F765)</f>
+        <f t="shared" si="12"/>
         <v>826749662</v>
       </c>
     </row>
@@ -29934,7 +29916,7 @@
         <v>6131821</v>
       </c>
       <c r="G766" s="2">
-        <f>SUM(C766:F766)</f>
+        <f t="shared" si="12"/>
         <v>1631826156</v>
       </c>
     </row>
@@ -29958,7 +29940,7 @@
         <v>1150396</v>
       </c>
       <c r="G767" s="2">
-        <f>SUM(C767:F767)</f>
+        <f t="shared" si="12"/>
         <v>1181476587</v>
       </c>
     </row>
@@ -29982,7 +29964,7 @@
         <v>5337462</v>
       </c>
       <c r="G768" s="2">
-        <f>SUM(C768:F768)</f>
+        <f t="shared" si="12"/>
         <v>3781412564</v>
       </c>
     </row>
@@ -30006,7 +29988,7 @@
         <v>4416680</v>
       </c>
       <c r="G769" s="2">
-        <f>SUM(C769:F769)</f>
+        <f t="shared" si="12"/>
         <v>2419276375</v>
       </c>
     </row>
@@ -30030,7 +30012,7 @@
         <v>6892091</v>
       </c>
       <c r="G770" s="2">
-        <f>SUM(C770:F770)</f>
+        <f t="shared" si="12"/>
         <v>3066716446</v>
       </c>
     </row>
@@ -30054,7 +30036,7 @@
         <v>3760124</v>
       </c>
       <c r="G771" s="2">
-        <f>SUM(C771:F771)</f>
+        <f t="shared" si="12"/>
         <v>2285569586</v>
       </c>
     </row>
@@ -30078,7 +30060,7 @@
         <v>713232</v>
       </c>
       <c r="G772" s="2">
-        <f>SUM(C772:F772)</f>
+        <f t="shared" si="12"/>
         <v>2225650027</v>
       </c>
     </row>
@@ -30102,7 +30084,7 @@
         <v>162126</v>
       </c>
       <c r="G773" s="2">
-        <f>SUM(C773:F773)</f>
+        <f t="shared" si="12"/>
         <v>290687612</v>
       </c>
     </row>
@@ -30126,7 +30108,7 @@
         <v>24626983</v>
       </c>
       <c r="G774" s="2">
-        <f>SUM(C774:F774)</f>
+        <f t="shared" si="12"/>
         <v>7826250994</v>
       </c>
     </row>
@@ -30150,7 +30132,7 @@
         <v>12778537</v>
       </c>
       <c r="G775" s="2">
-        <f>SUM(C775:F775)</f>
+        <f t="shared" si="12"/>
         <v>3486199292</v>
       </c>
     </row>
@@ -30174,7 +30156,7 @@
         <v>49126914</v>
       </c>
       <c r="G776" s="2">
-        <f>SUM(C776:F776)</f>
+        <f t="shared" si="12"/>
         <v>1484141344</v>
       </c>
     </row>
@@ -30198,7 +30180,7 @@
         <v>326200</v>
       </c>
       <c r="G777" s="2">
-        <f>SUM(C777:F777)</f>
+        <f t="shared" si="12"/>
         <v>455843766</v>
       </c>
     </row>
@@ -30222,7 +30204,7 @@
         <v>127407</v>
       </c>
       <c r="G778" s="2">
-        <f>SUM(C778:F778)</f>
+        <f t="shared" si="12"/>
         <v>453806449</v>
       </c>
     </row>
@@ -30246,7 +30228,7 @@
         <v>10148625</v>
       </c>
       <c r="G779" s="2">
-        <f>SUM(C779:F779)</f>
+        <f t="shared" si="12"/>
         <v>6105619820</v>
       </c>
     </row>
@@ -30270,7 +30252,7 @@
         <v>3001195</v>
       </c>
       <c r="G780" s="2">
-        <f>SUM(C780:F780)</f>
+        <f t="shared" si="12"/>
         <v>1679919939</v>
       </c>
     </row>
@@ -30294,7 +30276,7 @@
         <v>1087516</v>
       </c>
       <c r="G781" s="2">
-        <f>SUM(C781:F781)</f>
+        <f t="shared" si="12"/>
         <v>2537982454</v>
       </c>
     </row>
@@ -30318,7 +30300,7 @@
         <v>477917</v>
       </c>
       <c r="G782" s="2">
-        <f>SUM(C782:F782)</f>
+        <f t="shared" si="12"/>
         <v>1060019468</v>
       </c>
     </row>
@@ -30342,7 +30324,7 @@
         <v>15126558</v>
       </c>
       <c r="G783" s="2">
-        <f>SUM(C783:F783)</f>
+        <f t="shared" si="12"/>
         <v>5209329672</v>
       </c>
     </row>
@@ -30366,7 +30348,7 @@
         <v>18097959</v>
       </c>
       <c r="G784" s="2">
-        <f>SUM(C784:F784)</f>
+        <f t="shared" si="12"/>
         <v>9244010204</v>
       </c>
     </row>
@@ -30390,7 +30372,7 @@
         <v>38039490</v>
       </c>
       <c r="G785" s="2">
-        <f>SUM(C785:F785)</f>
+        <f t="shared" si="12"/>
         <v>6203917969</v>
       </c>
     </row>
@@ -30414,7 +30396,7 @@
         <v>10830</v>
       </c>
       <c r="G786" s="2">
-        <f>SUM(C786:F786)</f>
+        <f t="shared" si="12"/>
         <v>665827847</v>
       </c>
     </row>
@@ -30438,7 +30420,7 @@
         <v>253398</v>
       </c>
       <c r="G787" s="2">
-        <f>SUM(C787:F787)</f>
+        <f t="shared" si="12"/>
         <v>1405770040</v>
       </c>
     </row>
@@ -30462,7 +30444,7 @@
         <v>4838485</v>
       </c>
       <c r="G788" s="2">
-        <f>SUM(C788:F788)</f>
+        <f t="shared" si="12"/>
         <v>2576601152</v>
       </c>
     </row>
@@ -30486,7 +30468,7 @@
         <v>1200587</v>
       </c>
       <c r="G789" s="2">
-        <f>SUM(C789:F789)</f>
+        <f t="shared" si="12"/>
         <v>2489264575</v>
       </c>
     </row>
@@ -30510,7 +30492,7 @@
         <v>158877</v>
       </c>
       <c r="G790" s="2">
-        <f>SUM(C790:F790)</f>
+        <f t="shared" si="12"/>
         <v>979403979</v>
       </c>
     </row>
@@ -30534,7 +30516,7 @@
         <v>44633296</v>
       </c>
       <c r="G791" s="2">
-        <f>SUM(C791:F791)</f>
+        <f t="shared" si="12"/>
         <v>13456796150</v>
       </c>
     </row>
@@ -30558,7 +30540,7 @@
         <v>1355277</v>
       </c>
       <c r="G792" s="2">
-        <f>SUM(C792:F792)</f>
+        <f t="shared" si="12"/>
         <v>1425076723</v>
       </c>
     </row>
@@ -30582,7 +30564,7 @@
         <v>81899</v>
       </c>
       <c r="G793" s="2">
-        <f>SUM(C793:F793)</f>
+        <f t="shared" si="12"/>
         <v>618990833</v>
       </c>
     </row>
@@ -30606,7 +30588,7 @@
         <v>1046001</v>
       </c>
       <c r="G794" s="2">
-        <f>SUM(C794:F794)</f>
+        <f t="shared" si="12"/>
         <v>980314330</v>
       </c>
     </row>
@@ -30630,7 +30612,7 @@
         <v>316383</v>
       </c>
       <c r="G795" s="2">
-        <f>SUM(C795:F795)</f>
+        <f t="shared" si="12"/>
         <v>1963094199</v>
       </c>
     </row>
@@ -30654,7 +30636,7 @@
         <v>59574</v>
       </c>
       <c r="G796" s="2">
-        <f>SUM(C796:F796)</f>
+        <f t="shared" si="12"/>
         <v>518323149</v>
       </c>
     </row>
@@ -30678,7 +30660,7 @@
         <v>1163145</v>
       </c>
       <c r="G797" s="2">
-        <f>SUM(C797:F797)</f>
+        <f t="shared" si="12"/>
         <v>4821903569</v>
       </c>
     </row>
@@ -30702,7 +30684,7 @@
         <v>1109216</v>
       </c>
       <c r="G798" s="2">
-        <f>SUM(C798:F798)</f>
+        <f t="shared" si="12"/>
         <v>2012832361</v>
       </c>
     </row>
@@ -30726,7 +30708,7 @@
         <v>22674993</v>
       </c>
       <c r="G799" s="2">
-        <f>SUM(C799:F799)</f>
+        <f t="shared" si="12"/>
         <v>2702970400</v>
       </c>
     </row>
@@ -30747,7 +30729,7 @@
         <v>0</v>
       </c>
       <c r="G800" s="2">
-        <f>SUM(C800:F800)</f>
+        <f t="shared" si="12"/>
         <v>946374</v>
       </c>
     </row>
@@ -30771,7 +30753,7 @@
         <v>120407</v>
       </c>
       <c r="G801" s="2">
-        <f>SUM(C801:F801)</f>
+        <f t="shared" si="12"/>
         <v>756349698</v>
       </c>
     </row>
@@ -30795,7 +30777,7 @@
         <v>190225</v>
       </c>
       <c r="G802" s="2">
-        <f>SUM(C802:F802)</f>
+        <f t="shared" si="12"/>
         <v>879199519</v>
       </c>
     </row>
@@ -30819,7 +30801,7 @@
         <v>172260</v>
       </c>
       <c r="G803" s="2">
-        <f>SUM(C803:F803)</f>
+        <f t="shared" ref="G803:G866" si="13">SUM(C803:F803)</f>
         <v>514792015</v>
       </c>
     </row>
@@ -30843,7 +30825,7 @@
         <v>28393453</v>
       </c>
       <c r="G804" s="2">
-        <f>SUM(C804:F804)</f>
+        <f t="shared" si="13"/>
         <v>9475954138</v>
       </c>
     </row>
@@ -30867,7 +30849,7 @@
         <v>8414409</v>
       </c>
       <c r="G805" s="2">
-        <f>SUM(C805:F805)</f>
+        <f t="shared" si="13"/>
         <v>2126126570</v>
       </c>
     </row>
@@ -30891,7 +30873,7 @@
         <v>79559842</v>
       </c>
       <c r="G806" s="2">
-        <f>SUM(C806:F806)</f>
+        <f t="shared" si="13"/>
         <v>7608670587</v>
       </c>
     </row>
@@ -30915,7 +30897,7 @@
         <v>11901</v>
       </c>
       <c r="G807" s="2">
-        <f>SUM(C807:F807)</f>
+        <f t="shared" si="13"/>
         <v>621382902</v>
       </c>
     </row>
@@ -30939,7 +30921,7 @@
         <v>147953</v>
       </c>
       <c r="G808" s="2">
-        <f>SUM(C808:F808)</f>
+        <f t="shared" si="13"/>
         <v>579895108</v>
       </c>
     </row>
@@ -30963,7 +30945,7 @@
         <v>1903957</v>
       </c>
       <c r="G809" s="2">
-        <f>SUM(C809:F809)</f>
+        <f t="shared" si="13"/>
         <v>1717299000</v>
       </c>
     </row>
@@ -30987,7 +30969,7 @@
         <v>9571</v>
       </c>
       <c r="G810" s="2">
-        <f>SUM(C810:F810)</f>
+        <f t="shared" si="13"/>
         <v>650264295</v>
       </c>
     </row>
@@ -31011,7 +30993,7 @@
         <v>767251</v>
       </c>
       <c r="G811" s="2">
-        <f>SUM(C811:F811)</f>
+        <f t="shared" si="13"/>
         <v>1257373802</v>
       </c>
     </row>
@@ -31035,7 +31017,7 @@
         <v>93528</v>
       </c>
       <c r="G812" s="2">
-        <f>SUM(C812:F812)</f>
+        <f t="shared" si="13"/>
         <v>507445888</v>
       </c>
     </row>
@@ -31059,7 +31041,7 @@
         <v>2320</v>
       </c>
       <c r="G813" s="2">
-        <f>SUM(C813:F813)</f>
+        <f t="shared" si="13"/>
         <v>242891471</v>
       </c>
     </row>
@@ -31083,7 +31065,7 @@
         <v>3908359</v>
       </c>
       <c r="G814" s="2">
-        <f>SUM(C814:F814)</f>
+        <f t="shared" si="13"/>
         <v>917743144</v>
       </c>
     </row>
@@ -31107,7 +31089,7 @@
         <v>40256198</v>
       </c>
       <c r="G815" s="2">
-        <f>SUM(C815:F815)</f>
+        <f t="shared" si="13"/>
         <v>3771256242</v>
       </c>
     </row>
@@ -31131,7 +31113,7 @@
         <v>1004365</v>
       </c>
       <c r="G816" s="2">
-        <f>SUM(C816:F816)</f>
+        <f t="shared" si="13"/>
         <v>1262722692</v>
       </c>
     </row>
@@ -31155,7 +31137,7 @@
         <v>642840</v>
       </c>
       <c r="G817" s="2">
-        <f>SUM(C817:F817)</f>
+        <f t="shared" si="13"/>
         <v>336830084</v>
       </c>
     </row>
@@ -31179,7 +31161,7 @@
         <v>1215522</v>
       </c>
       <c r="G818" s="2">
-        <f>SUM(C818:F818)</f>
+        <f t="shared" si="13"/>
         <v>4468344687</v>
       </c>
     </row>
@@ -31203,7 +31185,7 @@
         <v>235029</v>
       </c>
       <c r="G819" s="2">
-        <f>SUM(C819:F819)</f>
+        <f t="shared" si="13"/>
         <v>1683731813</v>
       </c>
     </row>
@@ -31227,7 +31209,7 @@
         <v>96595</v>
       </c>
       <c r="G820" s="2">
-        <f>SUM(C820:F820)</f>
+        <f t="shared" si="13"/>
         <v>676968605</v>
       </c>
     </row>
@@ -31251,7 +31233,7 @@
         <v>41222639</v>
       </c>
       <c r="G821" s="2">
-        <f>SUM(C821:F821)</f>
+        <f t="shared" si="13"/>
         <v>12979238334</v>
       </c>
     </row>
@@ -31275,7 +31257,7 @@
         <v>1117511</v>
       </c>
       <c r="G822" s="2">
-        <f>SUM(C822:F822)</f>
+        <f t="shared" si="13"/>
         <v>911802810</v>
       </c>
     </row>
@@ -31299,7 +31281,7 @@
         <v>217049</v>
       </c>
       <c r="G823" s="2">
-        <f>SUM(C823:F823)</f>
+        <f t="shared" si="13"/>
         <v>922072366</v>
       </c>
     </row>
@@ -31323,7 +31305,7 @@
         <v>942783</v>
       </c>
       <c r="G824" s="2">
-        <f>SUM(C824:F824)</f>
+        <f t="shared" si="13"/>
         <v>2367161262</v>
       </c>
     </row>
@@ -31347,7 +31329,7 @@
         <v>404022</v>
       </c>
       <c r="G825" s="2">
-        <f>SUM(C825:F825)</f>
+        <f t="shared" si="13"/>
         <v>490117797</v>
       </c>
     </row>
@@ -31371,7 +31353,7 @@
         <v>14004593</v>
       </c>
       <c r="G826" s="2">
-        <f>SUM(C826:F826)</f>
+        <f t="shared" si="13"/>
         <v>5500669225</v>
       </c>
     </row>
@@ -31395,7 +31377,7 @@
         <v>26944</v>
       </c>
       <c r="G827" s="2">
-        <f>SUM(C827:F827)</f>
+        <f t="shared" si="13"/>
         <v>605211920</v>
       </c>
     </row>
@@ -31419,7 +31401,7 @@
         <v>533966</v>
       </c>
       <c r="G828" s="2">
-        <f>SUM(C828:F828)</f>
+        <f t="shared" si="13"/>
         <v>484266987</v>
       </c>
     </row>
@@ -31443,7 +31425,7 @@
         <v>72540939</v>
       </c>
       <c r="G829" s="2">
-        <f>SUM(C829:F829)</f>
+        <f t="shared" si="13"/>
         <v>7654305799</v>
       </c>
     </row>
@@ -31467,7 +31449,7 @@
         <v>38340862</v>
       </c>
       <c r="G830" s="2">
-        <f>SUM(C830:F830)</f>
+        <f t="shared" si="13"/>
         <v>652060032</v>
       </c>
     </row>
@@ -31491,7 +31473,7 @@
         <v>186525</v>
       </c>
       <c r="G831" s="2">
-        <f>SUM(C831:F831)</f>
+        <f t="shared" si="13"/>
         <v>313451451</v>
       </c>
     </row>
@@ -31515,7 +31497,7 @@
         <v>14861</v>
       </c>
       <c r="G832" s="2">
-        <f>SUM(C832:F832)</f>
+        <f t="shared" si="13"/>
         <v>998545210</v>
       </c>
     </row>
@@ -31539,7 +31521,7 @@
         <v>4832067</v>
       </c>
       <c r="G833" s="2">
-        <f>SUM(C833:F833)</f>
+        <f t="shared" si="13"/>
         <v>1923917512</v>
       </c>
     </row>
@@ -31563,7 +31545,7 @@
         <v>338277</v>
       </c>
       <c r="G834" s="2">
-        <f>SUM(C834:F834)</f>
+        <f t="shared" si="13"/>
         <v>3381471910</v>
       </c>
     </row>
@@ -31587,7 +31569,7 @@
         <v>3187762</v>
       </c>
       <c r="G835" s="2">
-        <f>SUM(C835:F835)</f>
+        <f t="shared" si="13"/>
         <v>2770881540</v>
       </c>
     </row>
@@ -31611,7 +31593,7 @@
         <v>232593</v>
       </c>
       <c r="G836" s="2">
-        <f>SUM(C836:F836)</f>
+        <f t="shared" si="13"/>
         <v>1302236214</v>
       </c>
     </row>
@@ -31635,7 +31617,7 @@
         <v>8084891</v>
       </c>
       <c r="G837" s="2">
-        <f>SUM(C837:F837)</f>
+        <f t="shared" si="13"/>
         <v>3140301736</v>
       </c>
     </row>
@@ -31659,7 +31641,7 @@
         <v>261737</v>
       </c>
       <c r="G838" s="2">
-        <f>SUM(C838:F838)</f>
+        <f t="shared" si="13"/>
         <v>751507941</v>
       </c>
     </row>
@@ -31683,7 +31665,7 @@
         <v>19800</v>
       </c>
       <c r="G839" s="2">
-        <f>SUM(C839:F839)</f>
+        <f t="shared" si="13"/>
         <v>560445631</v>
       </c>
     </row>
@@ -31707,7 +31689,7 @@
         <v>6619</v>
       </c>
       <c r="G840" s="2">
-        <f>SUM(C840:F840)</f>
+        <f t="shared" si="13"/>
         <v>476402700</v>
       </c>
     </row>
@@ -31731,7 +31713,7 @@
         <v>203917</v>
       </c>
       <c r="G841" s="2">
-        <f>SUM(C841:F841)</f>
+        <f t="shared" si="13"/>
         <v>1087915666</v>
       </c>
     </row>
@@ -31755,7 +31737,7 @@
         <v>1241425</v>
       </c>
       <c r="G842" s="2">
-        <f>SUM(C842:F842)</f>
+        <f t="shared" si="13"/>
         <v>2548857895</v>
       </c>
     </row>
@@ -31779,7 +31761,7 @@
         <v>3013834</v>
       </c>
       <c r="G843" s="2">
-        <f>SUM(C843:F843)</f>
+        <f t="shared" si="13"/>
         <v>2609993503</v>
       </c>
     </row>
@@ -31803,7 +31785,7 @@
         <v>606821</v>
       </c>
       <c r="G844" s="2">
-        <f>SUM(C844:F844)</f>
+        <f t="shared" si="13"/>
         <v>3641120131</v>
       </c>
     </row>
@@ -31827,7 +31809,7 @@
         <v>52933301</v>
       </c>
       <c r="G845" s="2">
-        <f>SUM(C845:F845)</f>
+        <f t="shared" si="13"/>
         <v>6727391018</v>
       </c>
     </row>
@@ -31851,7 +31833,7 @@
         <v>869724</v>
       </c>
       <c r="G846" s="2">
-        <f>SUM(C846:F846)</f>
+        <f t="shared" si="13"/>
         <v>856592170</v>
       </c>
     </row>
@@ -31875,7 +31857,7 @@
         <v>1059</v>
       </c>
       <c r="G847" s="2">
-        <f>SUM(C847:F847)</f>
+        <f t="shared" si="13"/>
         <v>201914900</v>
       </c>
     </row>
@@ -31899,7 +31881,7 @@
         <v>25252899</v>
       </c>
       <c r="G848" s="2">
-        <f>SUM(C848:F848)</f>
+        <f t="shared" si="13"/>
         <v>992703420</v>
       </c>
     </row>
@@ -31923,7 +31905,7 @@
         <v>17091</v>
       </c>
       <c r="G849" s="2">
-        <f>SUM(C849:F849)</f>
+        <f t="shared" si="13"/>
         <v>369768230</v>
       </c>
     </row>
@@ -31947,7 +31929,7 @@
         <v>23309</v>
       </c>
       <c r="G850" s="2">
-        <f>SUM(C850:F850)</f>
+        <f t="shared" si="13"/>
         <v>647476406</v>
       </c>
     </row>
@@ -31971,7 +31953,7 @@
         <v>443327</v>
       </c>
       <c r="G851" s="2">
-        <f>SUM(C851:F851)</f>
+        <f t="shared" si="13"/>
         <v>458369986</v>
       </c>
     </row>
@@ -31995,7 +31977,7 @@
         <v>74230</v>
       </c>
       <c r="G852" s="2">
-        <f>SUM(C852:F852)</f>
+        <f t="shared" si="13"/>
         <v>439055329</v>
       </c>
     </row>
@@ -32019,7 +32001,7 @@
         <v>423830</v>
       </c>
       <c r="G853" s="2">
-        <f>SUM(C853:F853)</f>
+        <f t="shared" si="13"/>
         <v>1052795802</v>
       </c>
     </row>
@@ -32043,7 +32025,7 @@
         <v>659276</v>
       </c>
       <c r="G854" s="2">
-        <f>SUM(C854:F854)</f>
+        <f t="shared" si="13"/>
         <v>1823087873</v>
       </c>
     </row>
@@ -32067,7 +32049,7 @@
         <v>2894689</v>
       </c>
       <c r="G855" s="2">
-        <f>SUM(C855:F855)</f>
+        <f t="shared" si="13"/>
         <v>1162695403</v>
       </c>
     </row>
@@ -32091,7 +32073,7 @@
         <v>66860196</v>
       </c>
       <c r="G856" s="2">
-        <f>SUM(C856:F856)</f>
+        <f t="shared" si="13"/>
         <v>7144029887</v>
       </c>
     </row>
@@ -32115,7 +32097,7 @@
         <v>1863094</v>
       </c>
       <c r="G857" s="2">
-        <f>SUM(C857:F857)</f>
+        <f t="shared" si="13"/>
         <v>2005466647</v>
       </c>
     </row>
@@ -32139,7 +32121,7 @@
         <v>371021</v>
       </c>
       <c r="G858" s="2">
-        <f>SUM(C858:F858)</f>
+        <f t="shared" si="13"/>
         <v>1689187032</v>
       </c>
     </row>
@@ -32163,7 +32145,7 @@
         <v>20345</v>
       </c>
       <c r="G859" s="2">
-        <f>SUM(C859:F859)</f>
+        <f t="shared" si="13"/>
         <v>559024899</v>
       </c>
     </row>
@@ -32187,7 +32169,7 @@
         <v>148703</v>
       </c>
       <c r="G860" s="2">
-        <f>SUM(C860:F860)</f>
+        <f t="shared" si="13"/>
         <v>574402119</v>
       </c>
     </row>
@@ -32211,7 +32193,7 @@
         <v>3176</v>
       </c>
       <c r="G861" s="2">
-        <f>SUM(C861:F861)</f>
+        <f t="shared" si="13"/>
         <v>163516288</v>
       </c>
     </row>
@@ -32235,7 +32217,7 @@
         <v>3862</v>
       </c>
       <c r="G862" s="2">
-        <f>SUM(C862:F862)</f>
+        <f t="shared" si="13"/>
         <v>233882049</v>
       </c>
     </row>
@@ -32259,7 +32241,7 @@
         <v>184190</v>
       </c>
       <c r="G863" s="2">
-        <f>SUM(C863:F863)</f>
+        <f t="shared" si="13"/>
         <v>996412857</v>
       </c>
     </row>
@@ -32283,7 +32265,7 @@
         <v>103437</v>
       </c>
       <c r="G864" s="2">
-        <f>SUM(C864:F864)</f>
+        <f t="shared" si="13"/>
         <v>933953573</v>
       </c>
     </row>
@@ -32307,7 +32289,7 @@
         <v>1929842</v>
       </c>
       <c r="G865" s="2">
-        <f>SUM(C865:F865)</f>
+        <f t="shared" si="13"/>
         <v>2750916140</v>
       </c>
     </row>
@@ -32331,7 +32313,7 @@
         <v>3492003</v>
       </c>
       <c r="G866" s="2">
-        <f>SUM(C866:F866)</f>
+        <f t="shared" si="13"/>
         <v>1774584876</v>
       </c>
     </row>
@@ -32355,7 +32337,7 @@
         <v>652140</v>
       </c>
       <c r="G867" s="2">
-        <f>SUM(C867:F867)</f>
+        <f t="shared" ref="G867:G930" si="14">SUM(C867:F867)</f>
         <v>371566204</v>
       </c>
     </row>
@@ -32379,7 +32361,7 @@
         <v>19406</v>
       </c>
       <c r="G868" s="2">
-        <f>SUM(C868:F868)</f>
+        <f t="shared" si="14"/>
         <v>587915465</v>
       </c>
     </row>
@@ -32403,7 +32385,7 @@
         <v>279402</v>
       </c>
       <c r="G869" s="2">
-        <f>SUM(C869:F869)</f>
+        <f t="shared" si="14"/>
         <v>552964558</v>
       </c>
     </row>
@@ -32427,7 +32409,7 @@
         <v>76414</v>
       </c>
       <c r="G870" s="2">
-        <f>SUM(C870:F870)</f>
+        <f t="shared" si="14"/>
         <v>580100974</v>
       </c>
     </row>
@@ -32451,7 +32433,7 @@
         <v>10691</v>
       </c>
       <c r="G871" s="2">
-        <f>SUM(C871:F871)</f>
+        <f t="shared" si="14"/>
         <v>261519842</v>
       </c>
     </row>
@@ -32475,7 +32457,7 @@
         <v>104809</v>
       </c>
       <c r="G872" s="2">
-        <f>SUM(C872:F872)</f>
+        <f t="shared" si="14"/>
         <v>616452643</v>
       </c>
     </row>
@@ -32499,7 +32481,7 @@
         <v>8247</v>
       </c>
       <c r="G873" s="2">
-        <f>SUM(C873:F873)</f>
+        <f t="shared" si="14"/>
         <v>270914340</v>
       </c>
     </row>
@@ -32523,7 +32505,7 @@
         <v>327002</v>
       </c>
       <c r="G874" s="2">
-        <f>SUM(C874:F874)</f>
+        <f t="shared" si="14"/>
         <v>355894529</v>
       </c>
     </row>
@@ -32547,7 +32529,7 @@
         <v>634227</v>
       </c>
       <c r="G875" s="2">
-        <f>SUM(C875:F875)</f>
+        <f t="shared" si="14"/>
         <v>1905724898</v>
       </c>
     </row>
@@ -32571,7 +32553,7 @@
         <v>46899</v>
       </c>
       <c r="G876" s="2">
-        <f>SUM(C876:F876)</f>
+        <f t="shared" si="14"/>
         <v>904360513</v>
       </c>
     </row>
@@ -32595,7 +32577,7 @@
         <v>18196</v>
       </c>
       <c r="G877" s="2">
-        <f>SUM(C877:F877)</f>
+        <f t="shared" si="14"/>
         <v>555622578</v>
       </c>
     </row>
@@ -32619,7 +32601,7 @@
         <v>269106</v>
       </c>
       <c r="G878" s="2">
-        <f>SUM(C878:F878)</f>
+        <f t="shared" si="14"/>
         <v>1494125661</v>
       </c>
     </row>
@@ -32643,7 +32625,7 @@
         <v>404468</v>
       </c>
       <c r="G879" s="2">
-        <f>SUM(C879:F879)</f>
+        <f t="shared" si="14"/>
         <v>813590238</v>
       </c>
     </row>
@@ -32667,7 +32649,7 @@
         <v>74605196</v>
       </c>
       <c r="G880" s="2">
-        <f>SUM(C880:F880)</f>
+        <f t="shared" si="14"/>
         <v>4042726476</v>
       </c>
     </row>
@@ -32691,7 +32673,7 @@
         <v>59429</v>
       </c>
       <c r="G881" s="2">
-        <f>SUM(C881:F881)</f>
+        <f t="shared" si="14"/>
         <v>681375252</v>
       </c>
     </row>
@@ -32715,7 +32697,7 @@
         <v>8200175</v>
       </c>
       <c r="G882" s="2">
-        <f>SUM(C882:F882)</f>
+        <f t="shared" si="14"/>
         <v>6755086518</v>
       </c>
     </row>
@@ -32739,7 +32721,7 @@
         <v>75004</v>
       </c>
       <c r="G883" s="2">
-        <f>SUM(C883:F883)</f>
+        <f t="shared" si="14"/>
         <v>1344399059</v>
       </c>
     </row>
@@ -32763,7 +32745,7 @@
         <v>2694</v>
       </c>
       <c r="G884" s="2">
-        <f>SUM(C884:F884)</f>
+        <f t="shared" si="14"/>
         <v>175897067</v>
       </c>
     </row>
@@ -32787,7 +32769,7 @@
         <v>62205714</v>
       </c>
       <c r="G885" s="2">
-        <f>SUM(C885:F885)</f>
+        <f t="shared" si="14"/>
         <v>3500852998</v>
       </c>
     </row>
@@ -32811,7 +32793,7 @@
         <v>85095</v>
       </c>
       <c r="G886" s="2">
-        <f>SUM(C886:F886)</f>
+        <f t="shared" si="14"/>
         <v>1090313196</v>
       </c>
     </row>
@@ -32835,7 +32817,7 @@
         <v>101399</v>
       </c>
       <c r="G887" s="2">
-        <f>SUM(C887:F887)</f>
+        <f t="shared" si="14"/>
         <v>1029168392</v>
       </c>
     </row>
@@ -32859,7 +32841,7 @@
         <v>215984</v>
       </c>
       <c r="G888" s="2">
-        <f>SUM(C888:F888)</f>
+        <f t="shared" si="14"/>
         <v>769750063</v>
       </c>
     </row>
@@ -32883,7 +32865,7 @@
         <v>72147</v>
       </c>
       <c r="G889" s="2">
-        <f>SUM(C889:F889)</f>
+        <f t="shared" si="14"/>
         <v>487809398</v>
       </c>
     </row>
@@ -32907,7 +32889,7 @@
         <v>130668</v>
       </c>
       <c r="G890" s="2">
-        <f>SUM(C890:F890)</f>
+        <f t="shared" si="14"/>
         <v>1448231515</v>
       </c>
     </row>
@@ -32931,7 +32913,7 @@
         <v>4034</v>
       </c>
       <c r="G891" s="2">
-        <f>SUM(C891:F891)</f>
+        <f t="shared" si="14"/>
         <v>177742014</v>
       </c>
     </row>
@@ -32955,7 +32937,7 @@
         <v>9478300</v>
       </c>
       <c r="G892" s="2">
-        <f>SUM(C892:F892)</f>
+        <f t="shared" si="14"/>
         <v>2402957017</v>
       </c>
     </row>
@@ -32979,7 +32961,7 @@
         <v>645787</v>
       </c>
       <c r="G893" s="2">
-        <f>SUM(C893:F893)</f>
+        <f t="shared" si="14"/>
         <v>633257612</v>
       </c>
     </row>
@@ -33003,7 +32985,7 @@
         <v>1573752</v>
       </c>
       <c r="G894" s="2">
-        <f>SUM(C894:F894)</f>
+        <f t="shared" si="14"/>
         <v>1574555135</v>
       </c>
     </row>
@@ -33027,7 +33009,7 @@
         <v>32676223</v>
       </c>
       <c r="G895" s="2">
-        <f>SUM(C895:F895)</f>
+        <f t="shared" si="14"/>
         <v>515326822</v>
       </c>
     </row>
@@ -33051,7 +33033,7 @@
         <v>19794</v>
       </c>
       <c r="G896" s="2">
-        <f>SUM(C896:F896)</f>
+        <f t="shared" si="14"/>
         <v>398793848</v>
       </c>
     </row>
@@ -33075,7 +33057,7 @@
         <v>1636615</v>
       </c>
       <c r="G897" s="2">
-        <f>SUM(C897:F897)</f>
+        <f t="shared" si="14"/>
         <v>1601294835</v>
       </c>
     </row>
@@ -33099,7 +33081,7 @@
         <v>196352</v>
       </c>
       <c r="G898" s="2">
-        <f>SUM(C898:F898)</f>
+        <f t="shared" si="14"/>
         <v>1295989713</v>
       </c>
     </row>
@@ -33123,7 +33105,7 @@
         <v>19978702</v>
       </c>
       <c r="G899" s="2">
-        <f>SUM(C899:F899)</f>
+        <f t="shared" si="14"/>
         <v>3097030050</v>
       </c>
     </row>
@@ -33147,7 +33129,7 @@
         <v>2058728</v>
       </c>
       <c r="G900" s="2">
-        <f>SUM(C900:F900)</f>
+        <f t="shared" si="14"/>
         <v>2440288633</v>
       </c>
     </row>
@@ -33171,7 +33153,7 @@
         <v>599906</v>
       </c>
       <c r="G901" s="2">
-        <f>SUM(C901:F901)</f>
+        <f t="shared" si="14"/>
         <v>2181681777</v>
       </c>
     </row>
@@ -33195,7 +33177,7 @@
         <v>63033</v>
       </c>
       <c r="G902" s="2">
-        <f>SUM(C902:F902)</f>
+        <f t="shared" si="14"/>
         <v>1036897393</v>
       </c>
     </row>
@@ -33219,7 +33201,7 @@
         <v>275992</v>
       </c>
       <c r="G903" s="2">
-        <f>SUM(C903:F903)</f>
+        <f t="shared" si="14"/>
         <v>1569112536</v>
       </c>
     </row>
@@ -33243,7 +33225,7 @@
         <v>6748</v>
       </c>
       <c r="G904" s="2">
-        <f>SUM(C904:F904)</f>
+        <f t="shared" si="14"/>
         <v>359511568</v>
       </c>
     </row>
@@ -33267,7 +33249,7 @@
         <v>51635</v>
       </c>
       <c r="G905" s="2">
-        <f>SUM(C905:F905)</f>
+        <f t="shared" si="14"/>
         <v>758745186</v>
       </c>
     </row>
@@ -33291,7 +33273,7 @@
         <v>1484380</v>
       </c>
       <c r="G906" s="2">
-        <f>SUM(C906:F906)</f>
+        <f t="shared" si="14"/>
         <v>2121074482</v>
       </c>
     </row>
@@ -33315,7 +33297,7 @@
         <v>45896279</v>
       </c>
       <c r="G907" s="2">
-        <f>SUM(C907:F907)</f>
+        <f t="shared" si="14"/>
         <v>1330641735</v>
       </c>
     </row>
@@ -33339,7 +33321,7 @@
         <v>151390</v>
       </c>
       <c r="G908" s="2">
-        <f>SUM(C908:F908)</f>
+        <f t="shared" si="14"/>
         <v>1118148949</v>
       </c>
     </row>
@@ -33363,7 +33345,7 @@
         <v>61827</v>
       </c>
       <c r="G909" s="2">
-        <f>SUM(C909:F909)</f>
+        <f t="shared" si="14"/>
         <v>661414115</v>
       </c>
     </row>
@@ -33387,7 +33369,7 @@
         <v>14474165</v>
       </c>
       <c r="G910" s="2">
-        <f>SUM(C910:F910)</f>
+        <f t="shared" si="14"/>
         <v>6953323761</v>
       </c>
     </row>
@@ -33411,7 +33393,7 @@
         <v>21989</v>
       </c>
       <c r="G911" s="2">
-        <f>SUM(C911:F911)</f>
+        <f t="shared" si="14"/>
         <v>195555657</v>
       </c>
     </row>
@@ -33435,7 +33417,7 @@
         <v>2682</v>
       </c>
       <c r="G912" s="2">
-        <f>SUM(C912:F912)</f>
+        <f t="shared" si="14"/>
         <v>205659077</v>
       </c>
     </row>
@@ -33459,7 +33441,7 @@
         <v>7333699</v>
       </c>
       <c r="G913" s="2">
-        <f>SUM(C913:F913)</f>
+        <f t="shared" si="14"/>
         <v>4542105969</v>
       </c>
     </row>
@@ -33483,7 +33465,7 @@
         <v>41646475</v>
       </c>
       <c r="G914" s="2">
-        <f>SUM(C914:F914)</f>
+        <f t="shared" si="14"/>
         <v>1390459502</v>
       </c>
     </row>
@@ -33507,7 +33489,7 @@
         <v>9799562</v>
       </c>
       <c r="G915" s="2">
-        <f>SUM(C915:F915)</f>
+        <f t="shared" si="14"/>
         <v>2277657238</v>
       </c>
     </row>
@@ -33531,7 +33513,7 @@
         <v>48016883</v>
       </c>
       <c r="G916" s="2">
-        <f>SUM(C916:F916)</f>
+        <f t="shared" si="14"/>
         <v>1268493225</v>
       </c>
     </row>
@@ -33555,7 +33537,7 @@
         <v>38126470</v>
       </c>
       <c r="G917" s="2">
-        <f>SUM(C917:F917)</f>
+        <f t="shared" si="14"/>
         <v>5001234278</v>
       </c>
     </row>
@@ -33579,7 +33561,7 @@
         <v>2065089</v>
       </c>
       <c r="G918" s="2">
-        <f>SUM(C918:F918)</f>
+        <f t="shared" si="14"/>
         <v>1606371225</v>
       </c>
     </row>
@@ -33603,7 +33585,7 @@
         <v>2624688</v>
       </c>
       <c r="G919" s="2">
-        <f>SUM(C919:F919)</f>
+        <f t="shared" si="14"/>
         <v>2285998726</v>
       </c>
     </row>
@@ -33627,7 +33609,7 @@
         <v>22879876</v>
       </c>
       <c r="G920" s="2">
-        <f>SUM(C920:F920)</f>
+        <f t="shared" si="14"/>
         <v>2388999305</v>
       </c>
     </row>
@@ -33651,7 +33633,7 @@
         <v>7170</v>
       </c>
       <c r="G921" s="2">
-        <f>SUM(C921:F921)</f>
+        <f t="shared" si="14"/>
         <v>345363174</v>
       </c>
     </row>
@@ -33675,7 +33657,7 @@
         <v>15043608</v>
       </c>
       <c r="G922" s="2">
-        <f>SUM(C922:F922)</f>
+        <f t="shared" si="14"/>
         <v>2899781058</v>
       </c>
     </row>
@@ -33699,7 +33681,7 @@
         <v>8900</v>
       </c>
       <c r="G923" s="2">
-        <f>SUM(C923:F923)</f>
+        <f t="shared" si="14"/>
         <v>347437641</v>
       </c>
     </row>
@@ -33723,7 +33705,7 @@
         <v>36320179</v>
       </c>
       <c r="G924" s="2">
-        <f>SUM(C924:F924)</f>
+        <f t="shared" si="14"/>
         <v>4069378922</v>
       </c>
     </row>
@@ -33747,7 +33729,7 @@
         <v>199756</v>
       </c>
       <c r="G925" s="2">
-        <f>SUM(C925:F925)</f>
+        <f t="shared" si="14"/>
         <v>1361614484</v>
       </c>
     </row>
@@ -33771,7 +33753,7 @@
         <v>1025041</v>
       </c>
       <c r="G926" s="2">
-        <f>SUM(C926:F926)</f>
+        <f t="shared" si="14"/>
         <v>1501029159</v>
       </c>
     </row>
@@ -33795,7 +33777,7 @@
         <v>144345</v>
       </c>
       <c r="G927" s="2">
-        <f>SUM(C927:F927)</f>
+        <f t="shared" si="14"/>
         <v>594459526</v>
       </c>
     </row>
@@ -33819,7 +33801,7 @@
         <v>103351070</v>
       </c>
       <c r="G928" s="2">
-        <f>SUM(C928:F928)</f>
+        <f t="shared" si="14"/>
         <v>5467658620</v>
       </c>
     </row>
@@ -33843,7 +33825,7 @@
         <v>35223445</v>
       </c>
       <c r="G929" s="2">
-        <f>SUM(C929:F929)</f>
+        <f t="shared" si="14"/>
         <v>4183244928</v>
       </c>
     </row>
@@ -33867,7 +33849,7 @@
         <v>49989368</v>
       </c>
       <c r="G930" s="2">
-        <f>SUM(C930:F930)</f>
+        <f t="shared" si="14"/>
         <v>6364334881</v>
       </c>
     </row>
@@ -33891,7 +33873,7 @@
         <v>27851019</v>
       </c>
       <c r="G931" s="2">
-        <f t="shared" ref="G899:G962" si="2">SUM(C931:F931)</f>
+        <f t="shared" ref="G931:G962" si="15">SUM(C931:F931)</f>
         <v>2003453209</v>
       </c>
     </row>
@@ -33915,7 +33897,7 @@
         <v>22290</v>
       </c>
       <c r="G932" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>754817758</v>
       </c>
     </row>
@@ -33939,7 +33921,7 @@
         <v>229161</v>
       </c>
       <c r="G933" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1041373086</v>
       </c>
     </row>
@@ -33963,7 +33945,7 @@
         <v>33487</v>
       </c>
       <c r="G934" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1267997622</v>
       </c>
     </row>
@@ -33987,7 +33969,7 @@
         <v>2893346</v>
       </c>
       <c r="G935" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1701582791</v>
       </c>
     </row>
@@ -34011,7 +33993,7 @@
         <v>69448</v>
       </c>
       <c r="G936" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>405546257</v>
       </c>
     </row>
@@ -34035,7 +34017,7 @@
         <v>2928821</v>
       </c>
       <c r="G937" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1483793906</v>
       </c>
     </row>
@@ -34059,7 +34041,7 @@
         <v>36229</v>
       </c>
       <c r="G938" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>479189106</v>
       </c>
     </row>
@@ -34083,7 +34065,7 @@
         <v>171532</v>
       </c>
       <c r="G939" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>721362709</v>
       </c>
     </row>
@@ -34107,7 +34089,7 @@
         <v>1969</v>
       </c>
       <c r="G940" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>182739518</v>
       </c>
     </row>
@@ -34131,7 +34113,7 @@
         <v>1263379</v>
       </c>
       <c r="G941" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>3395710670</v>
       </c>
     </row>
@@ -34155,7 +34137,7 @@
         <v>3539</v>
       </c>
       <c r="G942" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>203660674</v>
       </c>
     </row>
@@ -34179,7 +34161,7 @@
         <v>4706323</v>
       </c>
       <c r="G943" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>928036431</v>
       </c>
     </row>
@@ -34203,7 +34185,7 @@
         <v>115759939</v>
       </c>
       <c r="G944" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>9343437082</v>
       </c>
     </row>
@@ -34227,7 +34209,7 @@
         <v>942375</v>
       </c>
       <c r="G945" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>536503298</v>
       </c>
     </row>
@@ -34251,7 +34233,7 @@
         <v>239639</v>
       </c>
       <c r="G946" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>714502281</v>
       </c>
     </row>
@@ -34275,7 +34257,7 @@
         <v>4704757</v>
       </c>
       <c r="G947" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>791509586</v>
       </c>
     </row>
@@ -34299,7 +34281,7 @@
         <v>8413</v>
       </c>
       <c r="G948" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>246909923</v>
       </c>
     </row>
@@ -34323,7 +34305,7 @@
         <v>252512</v>
       </c>
       <c r="G949" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>388173356</v>
       </c>
     </row>
@@ -34347,7 +34329,7 @@
         <v>352377</v>
       </c>
       <c r="G950" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>756502541</v>
       </c>
     </row>
@@ -34371,7 +34353,7 @@
         <v>261158</v>
       </c>
       <c r="G951" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>276318378</v>
       </c>
     </row>
@@ -34395,7 +34377,7 @@
         <v>5309</v>
       </c>
       <c r="G952" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>349871011</v>
       </c>
     </row>
@@ -34419,7 +34401,7 @@
         <v>106537</v>
       </c>
       <c r="G953" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>637253085</v>
       </c>
     </row>
@@ -34443,7 +34425,7 @@
         <v>8247</v>
       </c>
       <c r="G954" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>280185279</v>
       </c>
     </row>
@@ -34467,7 +34449,7 @@
         <v>304110</v>
       </c>
       <c r="G955" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>339861562</v>
       </c>
     </row>
@@ -34491,7 +34473,7 @@
         <v>255720</v>
       </c>
       <c r="G956" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>2099512357</v>
       </c>
     </row>
@@ -34515,7 +34497,7 @@
         <v>53607331</v>
       </c>
       <c r="G957" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>3105486825</v>
       </c>
     </row>
@@ -34539,7 +34521,7 @@
         <v>294817</v>
       </c>
       <c r="G958" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>525718159</v>
       </c>
     </row>
@@ -34563,7 +34545,7 @@
         <v>1170248</v>
       </c>
       <c r="G959" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1437501810</v>
       </c>
     </row>
@@ -34587,7 +34569,7 @@
         <v>27484</v>
       </c>
       <c r="G960" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>717439963</v>
       </c>
     </row>
@@ -34611,7 +34593,7 @@
         <v>249685</v>
       </c>
       <c r="G961" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>987107637</v>
       </c>
     </row>
@@ -34635,12 +34617,12 @@
         <v>1283085</v>
       </c>
       <c r="G962" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>1585432975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G962">
+  <autoFilter ref="A1:G962" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A99:G930">
       <sortCondition descending="1" ref="A1:A962"/>
     </sortState>
@@ -34651,16 +34633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
